--- a/AOS2 Programming/Code/Term 2/Weeks 1 and 2/quire-to-excel/SAT Gantt Chart.xlsx
+++ b/AOS2 Programming/Code/Term 2/Weeks 1 and 2/quire-to-excel/SAT Gantt Chart.xlsx
@@ -890,7 +890,7 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1278,19 +1278,6 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,6 +1285,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1328,18 +1328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="44" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="46" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -7045,7 +7033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GR235"/>
+  <dimension ref="A1:GR236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
@@ -8399,7 +8387,7 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>Project Planning</t>
+          <t>Planning</t>
         </is>
       </c>
       <c r="C8" s="33" t="n"/>
@@ -8538,22 +8526,16 @@
       </c>
       <c r="B9" s="41" t="inlineStr">
         <is>
-          <t>Project Planning</t>
+          <t>Planning</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr">
-        <is>
-          <t>Garv Shah</t>
-        </is>
-      </c>
-      <c r="D9" s="63" t="n">
-        <v>1</v>
-      </c>
+      <c r="C9" s="34" t="inlineStr"/>
+      <c r="D9" s="63" t="n"/>
       <c r="E9" s="125" t="n">
         <v>44655</v>
       </c>
       <c r="F9" s="125" t="n">
-        <v>44680</v>
+        <v>44724</v>
       </c>
       <c r="G9" s="11" t="n"/>
       <c r="H9" s="11">
@@ -8687,7 +8669,7 @@
       </c>
       <c r="B10" s="127" t="inlineStr">
         <is>
-          <t>Write proposal</t>
+          <t>Project Planning</t>
         </is>
       </c>
       <c r="C10" s="128" t="inlineStr">
@@ -8702,7 +8684,7 @@
         <v>44655</v>
       </c>
       <c r="F10" s="130" t="n">
-        <v>44656</v>
+        <v>44680</v>
       </c>
       <c r="G10" s="131" t="n"/>
       <c r="H10" s="131">
@@ -8916,7 +8898,7 @@
       </c>
       <c r="B11" s="127" t="inlineStr">
         <is>
-          <t>Learn about Gantt Charts</t>
+          <t>Write proposal</t>
         </is>
       </c>
       <c r="C11" s="128" t="inlineStr">
@@ -8928,10 +8910,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="130" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F11" s="130" t="n">
         <v>44656</v>
-      </c>
-      <c r="F11" s="130" t="n">
-        <v>44657</v>
       </c>
       <c r="G11" s="131" t="n"/>
       <c r="H11" s="131">
@@ -9145,7 +9127,7 @@
       </c>
       <c r="B12" s="127" t="inlineStr">
         <is>
-          <t>Do example Gantt Chart</t>
+          <t>Learn about Gantt Charts</t>
         </is>
       </c>
       <c r="C12" s="128" t="inlineStr">
@@ -9157,10 +9139,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="130" t="n">
+        <v>44656</v>
+      </c>
+      <c r="F12" s="130" t="n">
         <v>44657</v>
-      </c>
-      <c r="F12" s="130" t="n">
-        <v>44659</v>
       </c>
       <c r="G12" s="131" t="n"/>
       <c r="H12" s="131">
@@ -9374,7 +9356,7 @@
       </c>
       <c r="B13" s="127" t="inlineStr">
         <is>
-          <t>Create Gantt Chart</t>
+          <t>Do example Gantt Chart</t>
         </is>
       </c>
       <c r="C13" s="128" t="inlineStr">
@@ -9386,10 +9368,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="130" t="n">
-        <v>44678</v>
+        <v>44657</v>
       </c>
       <c r="F13" s="130" t="n">
-        <v>44680</v>
+        <v>44659</v>
       </c>
       <c r="G13" s="131" t="n"/>
       <c r="H13" s="131">
@@ -9603,7 +9585,7 @@
       </c>
       <c r="B14" s="127" t="inlineStr">
         <is>
-          <t>Create blog for ideas</t>
+          <t>Create Gantt Chart</t>
         </is>
       </c>
       <c r="C14" s="128" t="inlineStr">
@@ -9819,294 +9801,493 @@
       <c r="GR14" s="133" t="n"/>
     </row>
     <row r="15" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A15" s="27" t="inlineStr">
+      <c r="A15" s="126" t="inlineStr">
         <is>
-          <t>Rows 10 to 13 repeat the pattern from row 9. 
-Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
-A sample of another phase starts in cell A14. 
-Continue entering tasks in cells A10 to A13 or go to cell A14 to learn more.</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="127" t="inlineStr">
         <is>
-          <t>Planning</t>
+          <t>Create blog for ideas</t>
         </is>
       </c>
-      <c r="C15" s="35" t="n"/>
-      <c r="D15" s="64" t="n"/>
-      <c r="E15" s="134" t="n"/>
-      <c r="F15" s="135" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11">
+      <c r="C15" s="128" t="inlineStr">
+        <is>
+          <t>Garv Shah</t>
+        </is>
+      </c>
+      <c r="D15" s="129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="130" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F15" s="130" t="n">
+        <v>44680</v>
+      </c>
+      <c r="G15" s="131" t="n"/>
+      <c r="H15" s="131">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I15" s="16" t="n"/>
-      <c r="J15" s="16" t="n"/>
-      <c r="K15" s="16" t="n"/>
-      <c r="L15" s="16" t="n"/>
-      <c r="M15" s="16" t="n"/>
-      <c r="N15" s="16" t="n"/>
-      <c r="O15" s="16" t="n"/>
-      <c r="P15" s="16" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="16" t="n"/>
-      <c r="S15" s="16" t="n"/>
-      <c r="T15" s="16" t="n"/>
-      <c r="U15" s="16" t="n"/>
-      <c r="V15" s="16" t="n"/>
-      <c r="W15" s="16" t="n"/>
-      <c r="X15" s="16" t="n"/>
-      <c r="Y15" s="16" t="n"/>
-      <c r="Z15" s="16" t="n"/>
-      <c r="AA15" s="16" t="n"/>
-      <c r="AB15" s="16" t="n"/>
-      <c r="AC15" s="16" t="n"/>
-      <c r="AD15" s="16" t="n"/>
-      <c r="AE15" s="16" t="n"/>
-      <c r="AF15" s="16" t="n"/>
-      <c r="AG15" s="16" t="n"/>
-      <c r="AH15" s="16" t="n"/>
-      <c r="AI15" s="16" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-      <c r="AK15" s="16" t="n"/>
-      <c r="AL15" s="16" t="n"/>
-      <c r="AM15" s="16" t="n"/>
-      <c r="AN15" s="16" t="n"/>
-      <c r="AO15" s="16" t="n"/>
-      <c r="AP15" s="16" t="n"/>
-      <c r="AQ15" s="16" t="n"/>
-      <c r="AR15" s="16" t="n"/>
-      <c r="AS15" s="16" t="n"/>
-      <c r="AT15" s="16" t="n"/>
-      <c r="AU15" s="16" t="n"/>
-      <c r="AV15" s="16" t="n"/>
-      <c r="AW15" s="16" t="n"/>
-      <c r="AX15" s="16" t="n"/>
-      <c r="AY15" s="16" t="n"/>
-      <c r="AZ15" s="16" t="n"/>
-      <c r="BA15" s="16" t="n"/>
-      <c r="BB15" s="16" t="n"/>
-      <c r="BC15" s="16" t="n"/>
-      <c r="BD15" s="16" t="n"/>
-      <c r="BE15" s="16" t="n"/>
-      <c r="BF15" s="16" t="n"/>
-      <c r="BG15" s="16" t="n"/>
-      <c r="BH15" s="16" t="n"/>
-      <c r="BI15" s="16" t="n"/>
-      <c r="BJ15" s="16" t="n"/>
-      <c r="BK15" s="16" t="n"/>
-      <c r="BL15" s="16" t="n"/>
-      <c r="BM15" s="16" t="n"/>
-      <c r="BN15" s="16" t="n"/>
-      <c r="BO15" s="16" t="n"/>
-      <c r="BP15" s="16" t="n"/>
-      <c r="BQ15" s="16" t="n"/>
-      <c r="BR15" s="16" t="n"/>
-      <c r="BS15" s="16" t="n"/>
-      <c r="BT15" s="16" t="n"/>
-      <c r="BU15" s="16" t="n"/>
-      <c r="BV15" s="16" t="n"/>
-      <c r="BW15" s="16" t="n"/>
-      <c r="BX15" s="16" t="n"/>
-      <c r="BY15" s="16" t="n"/>
-      <c r="BZ15" s="16" t="n"/>
-      <c r="CA15" s="16" t="n"/>
-      <c r="CB15" s="16" t="n"/>
-      <c r="CC15" s="16" t="n"/>
-      <c r="CD15" s="16" t="n"/>
-      <c r="CE15" s="16" t="n"/>
-      <c r="CF15" s="16" t="n"/>
-      <c r="CG15" s="16" t="n"/>
-      <c r="CH15" s="16" t="n"/>
-      <c r="CI15" s="16" t="n"/>
-      <c r="CJ15" s="16" t="n"/>
-      <c r="CK15" s="16" t="n"/>
-      <c r="CL15" s="16" t="n"/>
-      <c r="CM15" s="16" t="n"/>
-      <c r="CN15" s="16" t="n"/>
-      <c r="CO15" s="16" t="n"/>
-      <c r="CP15" s="16" t="n"/>
-      <c r="CQ15" s="16" t="n"/>
-      <c r="CR15" s="16" t="n"/>
-      <c r="CS15" s="16" t="n"/>
-      <c r="CT15" s="16" t="n"/>
-      <c r="CU15" s="16" t="n"/>
-      <c r="CV15" s="16" t="n"/>
-      <c r="CW15" s="16" t="n"/>
-      <c r="CX15" s="16" t="n"/>
-      <c r="CY15" s="16" t="n"/>
-      <c r="CZ15" s="16" t="n"/>
-      <c r="DA15" s="16" t="n"/>
-      <c r="DB15" s="16" t="n"/>
-      <c r="DC15" s="16" t="n"/>
-      <c r="DD15" s="16" t="n"/>
-      <c r="DE15" s="16" t="n"/>
-      <c r="DF15" s="16" t="n"/>
-      <c r="DG15" s="16" t="n"/>
-      <c r="DH15" s="16" t="n"/>
-      <c r="DI15" s="16" t="n"/>
-      <c r="DJ15" s="16" t="n"/>
-      <c r="DK15" s="16" t="n"/>
-      <c r="DL15" s="16" t="n"/>
-      <c r="DM15" s="16" t="n"/>
-      <c r="DN15" s="16" t="n"/>
-      <c r="DO15" s="16" t="n"/>
-      <c r="DP15" s="16" t="n"/>
+      <c r="I15" s="132" t="n"/>
+      <c r="J15" s="132" t="n"/>
+      <c r="K15" s="132" t="n"/>
+      <c r="L15" s="132" t="n"/>
+      <c r="M15" s="132" t="n"/>
+      <c r="N15" s="132" t="n"/>
+      <c r="O15" s="132" t="n"/>
+      <c r="P15" s="132" t="n"/>
+      <c r="Q15" s="132" t="n"/>
+      <c r="R15" s="132" t="n"/>
+      <c r="S15" s="132" t="n"/>
+      <c r="T15" s="132" t="n"/>
+      <c r="U15" s="132" t="n"/>
+      <c r="V15" s="132" t="n"/>
+      <c r="W15" s="132" t="n"/>
+      <c r="X15" s="132" t="n"/>
+      <c r="Y15" s="132" t="n"/>
+      <c r="Z15" s="132" t="n"/>
+      <c r="AA15" s="132" t="n"/>
+      <c r="AB15" s="132" t="n"/>
+      <c r="AC15" s="132" t="n"/>
+      <c r="AD15" s="132" t="n"/>
+      <c r="AE15" s="132" t="n"/>
+      <c r="AF15" s="132" t="n"/>
+      <c r="AG15" s="132" t="n"/>
+      <c r="AH15" s="132" t="n"/>
+      <c r="AI15" s="132" t="n"/>
+      <c r="AJ15" s="132" t="n"/>
+      <c r="AK15" s="132" t="n"/>
+      <c r="AL15" s="132" t="n"/>
+      <c r="AM15" s="132" t="n"/>
+      <c r="AN15" s="132" t="n"/>
+      <c r="AO15" s="132" t="n"/>
+      <c r="AP15" s="132" t="n"/>
+      <c r="AQ15" s="132" t="n"/>
+      <c r="AR15" s="132" t="n"/>
+      <c r="AS15" s="132" t="n"/>
+      <c r="AT15" s="132" t="n"/>
+      <c r="AU15" s="132" t="n"/>
+      <c r="AV15" s="132" t="n"/>
+      <c r="AW15" s="132" t="n"/>
+      <c r="AX15" s="132" t="n"/>
+      <c r="AY15" s="132" t="n"/>
+      <c r="AZ15" s="132" t="n"/>
+      <c r="BA15" s="132" t="n"/>
+      <c r="BB15" s="132" t="n"/>
+      <c r="BC15" s="132" t="n"/>
+      <c r="BD15" s="132" t="n"/>
+      <c r="BE15" s="132" t="n"/>
+      <c r="BF15" s="132" t="n"/>
+      <c r="BG15" s="132" t="n"/>
+      <c r="BH15" s="132" t="n"/>
+      <c r="BI15" s="132" t="n"/>
+      <c r="BJ15" s="132" t="n"/>
+      <c r="BK15" s="132" t="n"/>
+      <c r="BL15" s="132" t="n"/>
+      <c r="BM15" s="132" t="n"/>
+      <c r="BN15" s="132" t="n"/>
+      <c r="BO15" s="132" t="n"/>
+      <c r="BP15" s="132" t="n"/>
+      <c r="BQ15" s="132" t="n"/>
+      <c r="BR15" s="132" t="n"/>
+      <c r="BS15" s="132" t="n"/>
+      <c r="BT15" s="132" t="n"/>
+      <c r="BU15" s="132" t="n"/>
+      <c r="BV15" s="132" t="n"/>
+      <c r="BW15" s="132" t="n"/>
+      <c r="BX15" s="132" t="n"/>
+      <c r="BY15" s="132" t="n"/>
+      <c r="BZ15" s="132" t="n"/>
+      <c r="CA15" s="132" t="n"/>
+      <c r="CB15" s="132" t="n"/>
+      <c r="CC15" s="132" t="n"/>
+      <c r="CD15" s="132" t="n"/>
+      <c r="CE15" s="132" t="n"/>
+      <c r="CF15" s="132" t="n"/>
+      <c r="CG15" s="132" t="n"/>
+      <c r="CH15" s="132" t="n"/>
+      <c r="CI15" s="132" t="n"/>
+      <c r="CJ15" s="132" t="n"/>
+      <c r="CK15" s="132" t="n"/>
+      <c r="CL15" s="132" t="n"/>
+      <c r="CM15" s="132" t="n"/>
+      <c r="CN15" s="132" t="n"/>
+      <c r="CO15" s="132" t="n"/>
+      <c r="CP15" s="132" t="n"/>
+      <c r="CQ15" s="132" t="n"/>
+      <c r="CR15" s="132" t="n"/>
+      <c r="CS15" s="132" t="n"/>
+      <c r="CT15" s="132" t="n"/>
+      <c r="CU15" s="132" t="n"/>
+      <c r="CV15" s="132" t="n"/>
+      <c r="CW15" s="132" t="n"/>
+      <c r="CX15" s="132" t="n"/>
+      <c r="CY15" s="132" t="n"/>
+      <c r="CZ15" s="132" t="n"/>
+      <c r="DA15" s="132" t="n"/>
+      <c r="DB15" s="132" t="n"/>
+      <c r="DC15" s="132" t="n"/>
+      <c r="DD15" s="132" t="n"/>
+      <c r="DE15" s="132" t="n"/>
+      <c r="DF15" s="132" t="n"/>
+      <c r="DG15" s="132" t="n"/>
+      <c r="DH15" s="132" t="n"/>
+      <c r="DI15" s="132" t="n"/>
+      <c r="DJ15" s="132" t="n"/>
+      <c r="DK15" s="132" t="n"/>
+      <c r="DL15" s="132" t="n"/>
+      <c r="DM15" s="132" t="n"/>
+      <c r="DN15" s="132" t="n"/>
+      <c r="DO15" s="132" t="n"/>
+      <c r="DP15" s="132" t="n"/>
+      <c r="DQ15" s="133" t="n"/>
+      <c r="DR15" s="133" t="n"/>
+      <c r="DS15" s="133" t="n"/>
+      <c r="DT15" s="133" t="n"/>
+      <c r="DU15" s="133" t="n"/>
+      <c r="DV15" s="133" t="n"/>
+      <c r="DW15" s="133" t="n"/>
+      <c r="DX15" s="133" t="n"/>
+      <c r="DY15" s="133" t="n"/>
+      <c r="DZ15" s="133" t="n"/>
+      <c r="EA15" s="133" t="n"/>
+      <c r="EB15" s="133" t="n"/>
+      <c r="EC15" s="133" t="n"/>
+      <c r="ED15" s="133" t="n"/>
+      <c r="EE15" s="133" t="n"/>
+      <c r="EF15" s="133" t="n"/>
+      <c r="EG15" s="133" t="n"/>
+      <c r="EH15" s="133" t="n"/>
+      <c r="EI15" s="133" t="n"/>
+      <c r="EJ15" s="133" t="n"/>
+      <c r="EK15" s="133" t="n"/>
+      <c r="EL15" s="133" t="n"/>
+      <c r="EM15" s="133" t="n"/>
+      <c r="EN15" s="133" t="n"/>
+      <c r="EO15" s="133" t="n"/>
+      <c r="EP15" s="133" t="n"/>
+      <c r="EQ15" s="133" t="n"/>
+      <c r="ER15" s="133" t="n"/>
+      <c r="ES15" s="133" t="n"/>
+      <c r="ET15" s="133" t="n"/>
+      <c r="EU15" s="133" t="n"/>
+      <c r="EV15" s="133" t="n"/>
+      <c r="EW15" s="133" t="n"/>
+      <c r="EX15" s="133" t="n"/>
+      <c r="EY15" s="133" t="n"/>
+      <c r="EZ15" s="133" t="n"/>
+      <c r="FA15" s="133" t="n"/>
+      <c r="FB15" s="133" t="n"/>
+      <c r="FC15" s="133" t="n"/>
+      <c r="FD15" s="133" t="n"/>
+      <c r="FE15" s="133" t="n"/>
+      <c r="FF15" s="133" t="n"/>
+      <c r="FG15" s="133" t="n"/>
+      <c r="FH15" s="133" t="n"/>
+      <c r="FI15" s="133" t="n"/>
+      <c r="FJ15" s="133" t="n"/>
+      <c r="FK15" s="133" t="n"/>
+      <c r="FL15" s="133" t="n"/>
+      <c r="FM15" s="133" t="n"/>
+      <c r="FN15" s="133" t="n"/>
+      <c r="FO15" s="133" t="n"/>
+      <c r="FP15" s="133" t="n"/>
+      <c r="FQ15" s="133" t="n"/>
+      <c r="FR15" s="133" t="n"/>
+      <c r="FS15" s="133" t="n"/>
+      <c r="FT15" s="133" t="n"/>
+      <c r="FU15" s="133" t="n"/>
+      <c r="FV15" s="133" t="n"/>
+      <c r="FW15" s="133" t="n"/>
+      <c r="FX15" s="133" t="n"/>
+      <c r="FY15" s="133" t="n"/>
+      <c r="FZ15" s="133" t="n"/>
+      <c r="GA15" s="133" t="n"/>
+      <c r="GB15" s="133" t="n"/>
+      <c r="GC15" s="133" t="n"/>
+      <c r="GD15" s="133" t="n"/>
+      <c r="GE15" s="133" t="n"/>
+      <c r="GF15" s="133" t="n"/>
+      <c r="GG15" s="133" t="n"/>
+      <c r="GH15" s="133" t="n"/>
+      <c r="GI15" s="133" t="n"/>
+      <c r="GJ15" s="133" t="n"/>
+      <c r="GK15" s="133" t="n"/>
+      <c r="GL15" s="133" t="n"/>
+      <c r="GM15" s="133" t="n"/>
+      <c r="GN15" s="133" t="n"/>
+      <c r="GO15" s="133" t="n"/>
+      <c r="GP15" s="133" t="n"/>
+      <c r="GQ15" s="133" t="n"/>
+      <c r="GR15" s="133" t="n"/>
     </row>
     <row r="16" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A16" s="26" t="n"/>
-      <c r="B16" s="42" t="inlineStr">
+      <c r="A16" s="126" t="inlineStr">
         <is>
-          <t>Planning</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C16" s="36" t="inlineStr"/>
-      <c r="D16" s="65" t="n"/>
-      <c r="E16" s="136" t="n">
-        <v>44683</v>
-      </c>
-      <c r="F16" s="136" t="n">
-        <v>44724</v>
-      </c>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I16" s="16" t="n"/>
-      <c r="J16" s="16" t="n"/>
-      <c r="K16" s="16" t="n"/>
-      <c r="L16" s="16" t="n"/>
-      <c r="M16" s="16" t="n"/>
-      <c r="N16" s="16" t="n"/>
-      <c r="O16" s="16" t="n"/>
-      <c r="P16" s="16" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="16" t="n"/>
-      <c r="S16" s="16" t="n"/>
-      <c r="T16" s="16" t="n"/>
-      <c r="U16" s="16" t="n"/>
-      <c r="V16" s="16" t="n"/>
-      <c r="W16" s="16" t="n"/>
-      <c r="X16" s="16" t="n"/>
-      <c r="Y16" s="16" t="n"/>
-      <c r="Z16" s="16" t="n"/>
-      <c r="AA16" s="16" t="n"/>
-      <c r="AB16" s="16" t="n"/>
-      <c r="AC16" s="16" t="n"/>
-      <c r="AD16" s="16" t="n"/>
-      <c r="AE16" s="16" t="n"/>
-      <c r="AF16" s="16" t="n"/>
-      <c r="AG16" s="16" t="n"/>
-      <c r="AH16" s="16" t="n"/>
-      <c r="AI16" s="16" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
-      <c r="AK16" s="16" t="n"/>
-      <c r="AL16" s="16" t="n"/>
-      <c r="AM16" s="16" t="n"/>
-      <c r="AN16" s="16" t="n"/>
-      <c r="AO16" s="16" t="n"/>
-      <c r="AP16" s="16" t="n"/>
-      <c r="AQ16" s="16" t="n"/>
-      <c r="AR16" s="16" t="n"/>
-      <c r="AS16" s="16" t="n"/>
-      <c r="AT16" s="16" t="n"/>
-      <c r="AU16" s="16" t="n"/>
-      <c r="AV16" s="16" t="n"/>
-      <c r="AW16" s="16" t="n"/>
-      <c r="AX16" s="16" t="n"/>
-      <c r="AY16" s="16" t="n"/>
-      <c r="AZ16" s="16" t="n"/>
-      <c r="BA16" s="16" t="n"/>
-      <c r="BB16" s="16" t="n"/>
-      <c r="BC16" s="16" t="n"/>
-      <c r="BD16" s="16" t="n"/>
-      <c r="BE16" s="16" t="n"/>
-      <c r="BF16" s="16" t="n"/>
-      <c r="BG16" s="16" t="n"/>
-      <c r="BH16" s="16" t="n"/>
-      <c r="BI16" s="16" t="n"/>
-      <c r="BJ16" s="16" t="n"/>
-      <c r="BK16" s="16" t="n"/>
-      <c r="BL16" s="16" t="n"/>
-      <c r="BM16" s="16" t="n"/>
-      <c r="BN16" s="16" t="n"/>
-      <c r="BO16" s="16" t="n"/>
-      <c r="BP16" s="16" t="n"/>
-      <c r="BQ16" s="16" t="n"/>
-      <c r="BR16" s="16" t="n"/>
-      <c r="BS16" s="16" t="n"/>
-      <c r="BT16" s="16" t="n"/>
-      <c r="BU16" s="16" t="n"/>
-      <c r="BV16" s="16" t="n"/>
-      <c r="BW16" s="16" t="n"/>
-      <c r="BX16" s="16" t="n"/>
-      <c r="BY16" s="16" t="n"/>
-      <c r="BZ16" s="16" t="n"/>
-      <c r="CA16" s="16" t="n"/>
-      <c r="CB16" s="16" t="n"/>
-      <c r="CC16" s="16" t="n"/>
-      <c r="CD16" s="16" t="n"/>
-      <c r="CE16" s="16" t="n"/>
-      <c r="CF16" s="16" t="n"/>
-      <c r="CG16" s="16" t="n"/>
-      <c r="CH16" s="16" t="n"/>
-      <c r="CI16" s="16" t="n"/>
-      <c r="CJ16" s="16" t="n"/>
-      <c r="CK16" s="16" t="n"/>
-      <c r="CL16" s="16" t="n"/>
-      <c r="CM16" s="16" t="n"/>
-      <c r="CN16" s="16" t="n"/>
-      <c r="CO16" s="16" t="n"/>
-      <c r="CP16" s="16" t="n"/>
-      <c r="CQ16" s="16" t="n"/>
-      <c r="CR16" s="16" t="n"/>
-      <c r="CS16" s="16" t="n"/>
-      <c r="CT16" s="16" t="n"/>
-      <c r="CU16" s="16" t="n"/>
-      <c r="CV16" s="16" t="n"/>
-      <c r="CW16" s="16" t="n"/>
-      <c r="CX16" s="16" t="n"/>
-      <c r="CY16" s="16" t="n"/>
-      <c r="CZ16" s="16" t="n"/>
-      <c r="DA16" s="16" t="n"/>
-      <c r="DB16" s="16" t="n"/>
-      <c r="DC16" s="16" t="n"/>
-      <c r="DD16" s="16" t="n"/>
-      <c r="DE16" s="16" t="n"/>
-      <c r="DF16" s="16" t="n"/>
-      <c r="DG16" s="16" t="n"/>
-      <c r="DH16" s="16" t="n"/>
-      <c r="DI16" s="16" t="n"/>
-      <c r="DJ16" s="16" t="n"/>
-      <c r="DK16" s="16" t="n"/>
-      <c r="DL16" s="16" t="n"/>
-      <c r="DM16" s="16" t="n"/>
-      <c r="DN16" s="16" t="n"/>
-      <c r="DO16" s="16" t="n"/>
-      <c r="DP16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A17" s="137" t="n"/>
-      <c r="B17" s="138" t="inlineStr">
+      <c r="B16" s="127" t="inlineStr">
         <is>
           <t>Development Model</t>
         </is>
       </c>
-      <c r="C17" s="139" t="inlineStr">
+      <c r="C16" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D17" s="140" t="n">
+      <c r="D16" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="141" t="n">
+      <c r="E16" s="130" t="n">
         <v>44684</v>
       </c>
-      <c r="F17" s="141" t="n">
+      <c r="F16" s="130" t="n">
         <v>44686</v>
+      </c>
+      <c r="G16" s="131" t="n"/>
+      <c r="H16" s="131">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I16" s="132" t="n"/>
+      <c r="J16" s="132" t="n"/>
+      <c r="K16" s="132" t="n"/>
+      <c r="L16" s="132" t="n"/>
+      <c r="M16" s="132" t="n"/>
+      <c r="N16" s="132" t="n"/>
+      <c r="O16" s="132" t="n"/>
+      <c r="P16" s="132" t="n"/>
+      <c r="Q16" s="132" t="n"/>
+      <c r="R16" s="132" t="n"/>
+      <c r="S16" s="132" t="n"/>
+      <c r="T16" s="132" t="n"/>
+      <c r="U16" s="132" t="n"/>
+      <c r="V16" s="132" t="n"/>
+      <c r="W16" s="132" t="n"/>
+      <c r="X16" s="132" t="n"/>
+      <c r="Y16" s="132" t="n"/>
+      <c r="Z16" s="132" t="n"/>
+      <c r="AA16" s="132" t="n"/>
+      <c r="AB16" s="132" t="n"/>
+      <c r="AC16" s="132" t="n"/>
+      <c r="AD16" s="132" t="n"/>
+      <c r="AE16" s="132" t="n"/>
+      <c r="AF16" s="132" t="n"/>
+      <c r="AG16" s="132" t="n"/>
+      <c r="AH16" s="132" t="n"/>
+      <c r="AI16" s="132" t="n"/>
+      <c r="AJ16" s="132" t="n"/>
+      <c r="AK16" s="132" t="n"/>
+      <c r="AL16" s="132" t="n"/>
+      <c r="AM16" s="132" t="n"/>
+      <c r="AN16" s="132" t="n"/>
+      <c r="AO16" s="132" t="n"/>
+      <c r="AP16" s="132" t="n"/>
+      <c r="AQ16" s="132" t="n"/>
+      <c r="AR16" s="132" t="n"/>
+      <c r="AS16" s="132" t="n"/>
+      <c r="AT16" s="132" t="n"/>
+      <c r="AU16" s="132" t="n"/>
+      <c r="AV16" s="132" t="n"/>
+      <c r="AW16" s="132" t="n"/>
+      <c r="AX16" s="132" t="n"/>
+      <c r="AY16" s="132" t="n"/>
+      <c r="AZ16" s="132" t="n"/>
+      <c r="BA16" s="132" t="n"/>
+      <c r="BB16" s="132" t="n"/>
+      <c r="BC16" s="132" t="n"/>
+      <c r="BD16" s="132" t="n"/>
+      <c r="BE16" s="132" t="n"/>
+      <c r="BF16" s="132" t="n"/>
+      <c r="BG16" s="132" t="n"/>
+      <c r="BH16" s="132" t="n"/>
+      <c r="BI16" s="132" t="n"/>
+      <c r="BJ16" s="132" t="n"/>
+      <c r="BK16" s="132" t="n"/>
+      <c r="BL16" s="132" t="n"/>
+      <c r="BM16" s="132" t="n"/>
+      <c r="BN16" s="132" t="n"/>
+      <c r="BO16" s="132" t="n"/>
+      <c r="BP16" s="132" t="n"/>
+      <c r="BQ16" s="132" t="n"/>
+      <c r="BR16" s="132" t="n"/>
+      <c r="BS16" s="132" t="n"/>
+      <c r="BT16" s="132" t="n"/>
+      <c r="BU16" s="132" t="n"/>
+      <c r="BV16" s="132" t="n"/>
+      <c r="BW16" s="132" t="n"/>
+      <c r="BX16" s="132" t="n"/>
+      <c r="BY16" s="132" t="n"/>
+      <c r="BZ16" s="132" t="n"/>
+      <c r="CA16" s="132" t="n"/>
+      <c r="CB16" s="132" t="n"/>
+      <c r="CC16" s="132" t="n"/>
+      <c r="CD16" s="132" t="n"/>
+      <c r="CE16" s="132" t="n"/>
+      <c r="CF16" s="132" t="n"/>
+      <c r="CG16" s="132" t="n"/>
+      <c r="CH16" s="132" t="n"/>
+      <c r="CI16" s="132" t="n"/>
+      <c r="CJ16" s="132" t="n"/>
+      <c r="CK16" s="132" t="n"/>
+      <c r="CL16" s="132" t="n"/>
+      <c r="CM16" s="132" t="n"/>
+      <c r="CN16" s="132" t="n"/>
+      <c r="CO16" s="132" t="n"/>
+      <c r="CP16" s="132" t="n"/>
+      <c r="CQ16" s="132" t="n"/>
+      <c r="CR16" s="132" t="n"/>
+      <c r="CS16" s="132" t="n"/>
+      <c r="CT16" s="132" t="n"/>
+      <c r="CU16" s="132" t="n"/>
+      <c r="CV16" s="132" t="n"/>
+      <c r="CW16" s="132" t="n"/>
+      <c r="CX16" s="132" t="n"/>
+      <c r="CY16" s="132" t="n"/>
+      <c r="CZ16" s="132" t="n"/>
+      <c r="DA16" s="132" t="n"/>
+      <c r="DB16" s="132" t="n"/>
+      <c r="DC16" s="132" t="n"/>
+      <c r="DD16" s="132" t="n"/>
+      <c r="DE16" s="132" t="n"/>
+      <c r="DF16" s="132" t="n"/>
+      <c r="DG16" s="132" t="n"/>
+      <c r="DH16" s="132" t="n"/>
+      <c r="DI16" s="132" t="n"/>
+      <c r="DJ16" s="132" t="n"/>
+      <c r="DK16" s="132" t="n"/>
+      <c r="DL16" s="132" t="n"/>
+      <c r="DM16" s="132" t="n"/>
+      <c r="DN16" s="132" t="n"/>
+      <c r="DO16" s="132" t="n"/>
+      <c r="DP16" s="132" t="n"/>
+      <c r="DQ16" s="133" t="n"/>
+      <c r="DR16" s="133" t="n"/>
+      <c r="DS16" s="133" t="n"/>
+      <c r="DT16" s="133" t="n"/>
+      <c r="DU16" s="133" t="n"/>
+      <c r="DV16" s="133" t="n"/>
+      <c r="DW16" s="133" t="n"/>
+      <c r="DX16" s="133" t="n"/>
+      <c r="DY16" s="133" t="n"/>
+      <c r="DZ16" s="133" t="n"/>
+      <c r="EA16" s="133" t="n"/>
+      <c r="EB16" s="133" t="n"/>
+      <c r="EC16" s="133" t="n"/>
+      <c r="ED16" s="133" t="n"/>
+      <c r="EE16" s="133" t="n"/>
+      <c r="EF16" s="133" t="n"/>
+      <c r="EG16" s="133" t="n"/>
+      <c r="EH16" s="133" t="n"/>
+      <c r="EI16" s="133" t="n"/>
+      <c r="EJ16" s="133" t="n"/>
+      <c r="EK16" s="133" t="n"/>
+      <c r="EL16" s="133" t="n"/>
+      <c r="EM16" s="133" t="n"/>
+      <c r="EN16" s="133" t="n"/>
+      <c r="EO16" s="133" t="n"/>
+      <c r="EP16" s="133" t="n"/>
+      <c r="EQ16" s="133" t="n"/>
+      <c r="ER16" s="133" t="n"/>
+      <c r="ES16" s="133" t="n"/>
+      <c r="ET16" s="133" t="n"/>
+      <c r="EU16" s="133" t="n"/>
+      <c r="EV16" s="133" t="n"/>
+      <c r="EW16" s="133" t="n"/>
+      <c r="EX16" s="133" t="n"/>
+      <c r="EY16" s="133" t="n"/>
+      <c r="EZ16" s="133" t="n"/>
+      <c r="FA16" s="133" t="n"/>
+      <c r="FB16" s="133" t="n"/>
+      <c r="FC16" s="133" t="n"/>
+      <c r="FD16" s="133" t="n"/>
+      <c r="FE16" s="133" t="n"/>
+      <c r="FF16" s="133" t="n"/>
+      <c r="FG16" s="133" t="n"/>
+      <c r="FH16" s="133" t="n"/>
+      <c r="FI16" s="133" t="n"/>
+      <c r="FJ16" s="133" t="n"/>
+      <c r="FK16" s="133" t="n"/>
+      <c r="FL16" s="133" t="n"/>
+      <c r="FM16" s="133" t="n"/>
+      <c r="FN16" s="133" t="n"/>
+      <c r="FO16" s="133" t="n"/>
+      <c r="FP16" s="133" t="n"/>
+      <c r="FQ16" s="133" t="n"/>
+      <c r="FR16" s="133" t="n"/>
+      <c r="FS16" s="133" t="n"/>
+      <c r="FT16" s="133" t="n"/>
+      <c r="FU16" s="133" t="n"/>
+      <c r="FV16" s="133" t="n"/>
+      <c r="FW16" s="133" t="n"/>
+      <c r="FX16" s="133" t="n"/>
+      <c r="FY16" s="133" t="n"/>
+      <c r="FZ16" s="133" t="n"/>
+      <c r="GA16" s="133" t="n"/>
+      <c r="GB16" s="133" t="n"/>
+      <c r="GC16" s="133" t="n"/>
+      <c r="GD16" s="133" t="n"/>
+      <c r="GE16" s="133" t="n"/>
+      <c r="GF16" s="133" t="n"/>
+      <c r="GG16" s="133" t="n"/>
+      <c r="GH16" s="133" t="n"/>
+      <c r="GI16" s="133" t="n"/>
+      <c r="GJ16" s="133" t="n"/>
+      <c r="GK16" s="133" t="n"/>
+      <c r="GL16" s="133" t="n"/>
+      <c r="GM16" s="133" t="n"/>
+      <c r="GN16" s="133" t="n"/>
+      <c r="GO16" s="133" t="n"/>
+      <c r="GP16" s="133" t="n"/>
+      <c r="GQ16" s="133" t="n"/>
+      <c r="GR16" s="133" t="n"/>
+    </row>
+    <row r="17" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
+      <c r="A17" s="126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
+        </is>
+      </c>
+      <c r="B17" s="127" t="inlineStr">
+        <is>
+          <t>Learn about development models</t>
+        </is>
+      </c>
+      <c r="C17" s="128" t="inlineStr">
+        <is>
+          <t>Garv Shah</t>
+        </is>
+      </c>
+      <c r="D17" s="129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="130" t="n">
+        <v>44684</v>
+      </c>
+      <c r="F17" s="130" t="n">
+        <v>44684</v>
       </c>
       <c r="G17" s="131" t="n"/>
       <c r="H17" s="131">
@@ -10307,25 +10488,35 @@
       <c r="GR17" s="133" t="n"/>
     </row>
     <row r="18" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A18" s="137" t="n"/>
-      <c r="B18" s="138" t="inlineStr">
+      <c r="A18" s="126" t="inlineStr">
         <is>
-          <t>Learn about development models</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C18" s="139" t="inlineStr">
+      <c r="B18" s="127" t="inlineStr">
+        <is>
+          <t>List features of selected development model</t>
+        </is>
+      </c>
+      <c r="C18" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D18" s="140" t="n">
+      <c r="D18" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="141" t="n">
+      <c r="E18" s="130" t="n">
         <v>44684</v>
       </c>
-      <c r="F18" s="141" t="n">
-        <v>44684</v>
+      <c r="F18" s="130" t="n">
+        <v>44685</v>
       </c>
       <c r="G18" s="131" t="n"/>
       <c r="H18" s="131">
@@ -10526,25 +10717,35 @@
       <c r="GR18" s="133" t="n"/>
     </row>
     <row r="19" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A19" s="137" t="n"/>
-      <c r="B19" s="138" t="inlineStr">
+      <c r="A19" s="126" t="inlineStr">
         <is>
-          <t>List features of selected development model</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C19" s="139" t="inlineStr">
+      <c r="B19" s="127" t="inlineStr">
+        <is>
+          <t>Justify selected development model</t>
+        </is>
+      </c>
+      <c r="C19" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D19" s="140" t="n">
+      <c r="D19" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="141" t="n">
-        <v>44684</v>
-      </c>
-      <c r="F19" s="141" t="n">
+      <c r="E19" s="130" t="n">
         <v>44685</v>
+      </c>
+      <c r="F19" s="130" t="n">
+        <v>44686</v>
       </c>
       <c r="G19" s="131" t="n"/>
       <c r="H19" s="131">
@@ -10745,24 +10946,34 @@
       <c r="GR19" s="133" t="n"/>
     </row>
     <row r="20" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A20" s="137" t="n"/>
-      <c r="B20" s="138" t="inlineStr">
+      <c r="A20" s="126" t="inlineStr">
         <is>
-          <t>Justify selected development model</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C20" s="139" t="inlineStr">
+      <c r="B20" s="127" t="inlineStr">
+        <is>
+          <t>Update project plan to reflect development model</t>
+        </is>
+      </c>
+      <c r="C20" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D20" s="140" t="n">
+      <c r="D20" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="141" t="n">
+      <c r="E20" s="130" t="n">
         <v>44685</v>
       </c>
-      <c r="F20" s="141" t="n">
+      <c r="F20" s="130" t="n">
         <v>44686</v>
       </c>
       <c r="G20" s="131" t="n"/>
@@ -10964,25 +11175,33 @@
       <c r="GR20" s="133" t="n"/>
     </row>
     <row r="21" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A21" s="137" t="n"/>
-      <c r="B21" s="138" t="inlineStr">
+      <c r="A21" s="126" t="inlineStr">
         <is>
-          <t>Update project plan to reflect development model</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C21" s="139" t="inlineStr">
+      <c r="B21" s="127" t="inlineStr">
+        <is>
+          <t>Data Collection</t>
+        </is>
+      </c>
+      <c r="C21" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D21" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="141" t="n">
-        <v>44685</v>
-      </c>
-      <c r="F21" s="141" t="n">
-        <v>44686</v>
+      <c r="D21" s="129" t="n"/>
+      <c r="E21" s="130" t="n">
+        <v>44683</v>
+      </c>
+      <c r="F21" s="130" t="n">
+        <v>44694</v>
       </c>
       <c r="G21" s="131" t="n"/>
       <c r="H21" s="131">
@@ -11183,23 +11402,35 @@
       <c r="GR21" s="133" t="n"/>
     </row>
     <row r="22" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A22" s="137" t="n"/>
-      <c r="B22" s="138" t="inlineStr">
+      <c r="A22" s="126" t="inlineStr">
         <is>
-          <t>Data Collection</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C22" s="139" t="inlineStr">
+      <c r="B22" s="127" t="inlineStr">
+        <is>
+          <t>Interview Maths Club Team</t>
+        </is>
+      </c>
+      <c r="C22" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D22" s="140" t="n"/>
-      <c r="E22" s="141" t="n">
+      <c r="D22" s="129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="130" t="n">
         <v>44683</v>
       </c>
-      <c r="F22" s="141" t="n">
-        <v>44694</v>
+      <c r="F22" s="130" t="n">
+        <v>44683</v>
       </c>
       <c r="G22" s="131" t="n"/>
       <c r="H22" s="131">
@@ -11400,25 +11631,35 @@
       <c r="GR22" s="133" t="n"/>
     </row>
     <row r="23" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A23" s="137" t="n"/>
-      <c r="B23" s="138" t="inlineStr">
+      <c r="A23" s="126" t="inlineStr">
         <is>
-          <t>Interview Maths Club Team</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C23" s="139" t="inlineStr">
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>Interview Mr. McCarty</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D23" s="140" t="n">
+      <c r="D23" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="141" t="n">
-        <v>44683</v>
-      </c>
-      <c r="F23" s="141" t="n">
-        <v>44683</v>
+      <c r="E23" s="130" t="n">
+        <v>44684</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>44685</v>
       </c>
       <c r="G23" s="131" t="n"/>
       <c r="H23" s="131">
@@ -11619,25 +11860,35 @@
       <c r="GR23" s="133" t="n"/>
     </row>
     <row r="24" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A24" s="137" t="n"/>
-      <c r="B24" s="138" t="inlineStr">
+      <c r="A24" s="126" t="inlineStr">
         <is>
-          <t>Interview Mr. McCarty</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C24" s="139" t="inlineStr">
+      <c r="B24" s="127" t="inlineStr">
+        <is>
+          <t>Survey Maths Club Participants</t>
+        </is>
+      </c>
+      <c r="C24" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D24" s="140" t="n">
+      <c r="D24" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="141" t="n">
-        <v>44684</v>
-      </c>
-      <c r="F24" s="141" t="n">
-        <v>44685</v>
+      <c r="E24" s="130" t="n">
+        <v>44686</v>
+      </c>
+      <c r="F24" s="130" t="n">
+        <v>44687</v>
       </c>
       <c r="G24" s="131" t="n"/>
       <c r="H24" s="131">
@@ -11838,25 +12089,33 @@
       <c r="GR24" s="133" t="n"/>
     </row>
     <row r="25" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A25" s="137" t="n"/>
-      <c r="B25" s="138" t="inlineStr">
+      <c r="A25" s="126" t="inlineStr">
         <is>
-          <t>Survey Maths Club Participants</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C25" s="139" t="inlineStr">
+      <c r="B25" s="127" t="inlineStr">
+        <is>
+          <t>Make observations on pros and cons</t>
+        </is>
+      </c>
+      <c r="C25" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="141" t="n">
-        <v>44686</v>
-      </c>
-      <c r="F25" s="141" t="n">
-        <v>44687</v>
+      <c r="D25" s="129" t="n"/>
+      <c r="E25" s="130" t="n">
+        <v>44690</v>
+      </c>
+      <c r="F25" s="130" t="n">
+        <v>44691</v>
       </c>
       <c r="G25" s="131" t="n"/>
       <c r="H25" s="131">
@@ -12057,23 +12316,33 @@
       <c r="GR25" s="133" t="n"/>
     </row>
     <row r="26" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A26" s="137" t="n"/>
-      <c r="B26" s="138" t="inlineStr">
+      <c r="A26" s="126" t="inlineStr">
         <is>
-          <t>Make observations on pros and cons</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C26" s="139" t="inlineStr">
+      <c r="B26" s="127" t="inlineStr">
+        <is>
+          <t>Write summary document</t>
+        </is>
+      </c>
+      <c r="C26" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D26" s="140" t="n"/>
-      <c r="E26" s="141" t="n">
-        <v>44690</v>
-      </c>
-      <c r="F26" s="141" t="n">
-        <v>44691</v>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="130" t="n">
+        <v>44692</v>
+      </c>
+      <c r="F26" s="130" t="n">
+        <v>44694</v>
       </c>
       <c r="G26" s="131" t="n"/>
       <c r="H26" s="131">
@@ -12274,23 +12543,33 @@
       <c r="GR26" s="133" t="n"/>
     </row>
     <row r="27" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A27" s="137" t="n"/>
-      <c r="B27" s="138" t="inlineStr">
+      <c r="A27" s="126" t="inlineStr">
         <is>
-          <t>Write summary document</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C27" s="139" t="inlineStr">
+      <c r="B27" s="127" t="inlineStr">
+        <is>
+          <t>SRS</t>
+        </is>
+      </c>
+      <c r="C27" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D27" s="140" t="n"/>
-      <c r="E27" s="141" t="n">
-        <v>44692</v>
-      </c>
-      <c r="F27" s="141" t="n">
-        <v>44694</v>
+      <c r="D27" s="129" t="n"/>
+      <c r="E27" s="130" t="n">
+        <v>44695</v>
+      </c>
+      <c r="F27" s="130" t="n">
+        <v>44715</v>
       </c>
       <c r="G27" s="131" t="n"/>
       <c r="H27" s="131">
@@ -12491,23 +12770,33 @@
       <c r="GR27" s="133" t="n"/>
     </row>
     <row r="28" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A28" s="137" t="n"/>
-      <c r="B28" s="138" t="inlineStr">
+      <c r="A28" s="126" t="inlineStr">
         <is>
-          <t>SRS</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C28" s="139" t="inlineStr">
+      <c r="B28" s="127" t="inlineStr">
+        <is>
+          <t>Outline scope</t>
+        </is>
+      </c>
+      <c r="C28" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D28" s="140" t="n"/>
-      <c r="E28" s="141" t="n">
+      <c r="D28" s="129" t="n"/>
+      <c r="E28" s="130" t="n">
         <v>44695</v>
       </c>
-      <c r="F28" s="141" t="n">
-        <v>44715</v>
+      <c r="F28" s="130" t="n">
+        <v>44697</v>
       </c>
       <c r="G28" s="131" t="n"/>
       <c r="H28" s="131">
@@ -12708,23 +12997,33 @@
       <c r="GR28" s="133" t="n"/>
     </row>
     <row r="29" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A29" s="137" t="n"/>
-      <c r="B29" s="138" t="inlineStr">
+      <c r="A29" s="126" t="inlineStr">
         <is>
-          <t>Outline scope</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C29" s="139" t="inlineStr">
+      <c r="B29" s="127" t="inlineStr">
+        <is>
+          <t>Outline constraints</t>
+        </is>
+      </c>
+      <c r="C29" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D29" s="140" t="n"/>
-      <c r="E29" s="141" t="n">
-        <v>44695</v>
-      </c>
-      <c r="F29" s="141" t="n">
-        <v>44697</v>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="130" t="n">
+        <v>44698</v>
+      </c>
+      <c r="F29" s="130" t="n">
+        <v>44699</v>
       </c>
       <c r="G29" s="131" t="n"/>
       <c r="H29" s="131">
@@ -12925,23 +13224,33 @@
       <c r="GR29" s="133" t="n"/>
     </row>
     <row r="30" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A30" s="137" t="n"/>
-      <c r="B30" s="138" t="inlineStr">
+      <c r="A30" s="126" t="inlineStr">
         <is>
-          <t>Outline constraints</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C30" s="139" t="inlineStr">
+      <c r="B30" s="127" t="inlineStr">
+        <is>
+          <t>Outline stack</t>
+        </is>
+      </c>
+      <c r="C30" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D30" s="140" t="n"/>
-      <c r="E30" s="141" t="n">
-        <v>44698</v>
-      </c>
-      <c r="F30" s="141" t="n">
-        <v>44699</v>
+      <c r="D30" s="129" t="n"/>
+      <c r="E30" s="130" t="n">
+        <v>44700</v>
+      </c>
+      <c r="F30" s="130" t="n">
+        <v>44701</v>
       </c>
       <c r="G30" s="131" t="n"/>
       <c r="H30" s="131">
@@ -13142,23 +13451,33 @@
       <c r="GR30" s="133" t="n"/>
     </row>
     <row r="31" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A31" s="137" t="n"/>
-      <c r="B31" s="138" t="inlineStr">
+      <c r="A31" s="126" t="inlineStr">
         <is>
-          <t>Outline stack</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C31" s="139" t="inlineStr">
+      <c r="B31" s="127" t="inlineStr">
+        <is>
+          <t>Complete SRS document</t>
+        </is>
+      </c>
+      <c r="C31" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D31" s="140" t="n"/>
-      <c r="E31" s="141" t="n">
-        <v>44700</v>
-      </c>
-      <c r="F31" s="141" t="n">
-        <v>44701</v>
+      <c r="D31" s="129" t="n"/>
+      <c r="E31" s="130" t="n">
+        <v>44702</v>
+      </c>
+      <c r="F31" s="130" t="n">
+        <v>44707</v>
       </c>
       <c r="G31" s="131" t="n"/>
       <c r="H31" s="131">
@@ -13359,23 +13678,33 @@
       <c r="GR31" s="133" t="n"/>
     </row>
     <row r="32" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A32" s="137" t="n"/>
-      <c r="B32" s="138" t="inlineStr">
+      <c r="A32" s="126" t="inlineStr">
         <is>
-          <t>Complete SRS document</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C32" s="139" t="inlineStr">
+      <c r="B32" s="127" t="inlineStr">
+        <is>
+          <t>Functional + Non-Functional Requirements</t>
+        </is>
+      </c>
+      <c r="C32" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D32" s="140" t="n"/>
-      <c r="E32" s="141" t="n">
-        <v>44702</v>
-      </c>
-      <c r="F32" s="141" t="n">
-        <v>44707</v>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="130" t="n">
+        <v>44704</v>
+      </c>
+      <c r="F32" s="130" t="n">
+        <v>44704</v>
       </c>
       <c r="G32" s="131" t="n"/>
       <c r="H32" s="131">
@@ -13576,23 +13905,33 @@
       <c r="GR32" s="133" t="n"/>
     </row>
     <row r="33" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A33" s="137" t="n"/>
-      <c r="B33" s="138" t="inlineStr">
+      <c r="A33" s="126" t="inlineStr">
         <is>
-          <t>Functional + Non-Functional Requirements</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C33" s="139" t="inlineStr">
+      <c r="B33" s="127" t="inlineStr">
+        <is>
+          <t>Analysis: Use Case Diagram, Context Diagram, Data Flow Diagram</t>
+        </is>
+      </c>
+      <c r="C33" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D33" s="140" t="n"/>
-      <c r="E33" s="141" t="n">
-        <v>44704</v>
-      </c>
-      <c r="F33" s="141" t="n">
-        <v>44704</v>
+      <c r="D33" s="129" t="n"/>
+      <c r="E33" s="130" t="n">
+        <v>44705</v>
+      </c>
+      <c r="F33" s="130" t="n">
+        <v>44707</v>
       </c>
       <c r="G33" s="131" t="n"/>
       <c r="H33" s="131">
@@ -13793,23 +14132,33 @@
       <c r="GR33" s="133" t="n"/>
     </row>
     <row r="34" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A34" s="137" t="n"/>
-      <c r="B34" s="138" t="inlineStr">
+      <c r="A34" s="126" t="inlineStr">
         <is>
-          <t>Analysis: Use Case Diagram, Context Diagram, Data Flow Diagram</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C34" s="139" t="inlineStr">
+      <c r="B34" s="127" t="inlineStr">
+        <is>
+          <t>Create Designs + Ideas</t>
+        </is>
+      </c>
+      <c r="C34" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D34" s="140" t="n"/>
-      <c r="E34" s="141" t="n">
-        <v>44705</v>
-      </c>
-      <c r="F34" s="141" t="n">
-        <v>44707</v>
+      <c r="D34" s="129" t="n"/>
+      <c r="E34" s="130" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F34" s="130" t="n">
+        <v>44722</v>
       </c>
       <c r="G34" s="131" t="n"/>
       <c r="H34" s="131">
@@ -14010,23 +14359,33 @@
       <c r="GR34" s="133" t="n"/>
     </row>
     <row r="35" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A35" s="137" t="n"/>
-      <c r="B35" s="138" t="inlineStr">
+      <c r="A35" s="126" t="inlineStr">
         <is>
-          <t>Create Designs + Ideas</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C35" s="139" t="inlineStr">
+      <c r="B35" s="127" t="inlineStr">
+        <is>
+          <t>Mindmap Ideas</t>
+        </is>
+      </c>
+      <c r="C35" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D35" s="140" t="n"/>
-      <c r="E35" s="141" t="n">
+      <c r="D35" s="129" t="n"/>
+      <c r="E35" s="130" t="n">
         <v>44708</v>
       </c>
-      <c r="F35" s="141" t="n">
-        <v>44722</v>
+      <c r="F35" s="130" t="n">
+        <v>44710</v>
       </c>
       <c r="G35" s="131" t="n"/>
       <c r="H35" s="131">
@@ -14227,23 +14586,33 @@
       <c r="GR35" s="133" t="n"/>
     </row>
     <row r="36" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A36" s="137" t="n"/>
-      <c r="B36" s="138" t="inlineStr">
+      <c r="A36" s="126" t="inlineStr">
         <is>
-          <t>Mindmap Ideas</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C36" s="139" t="inlineStr">
+      <c r="B36" s="127" t="inlineStr">
+        <is>
+          <t>Create 1st Wireframe</t>
+        </is>
+      </c>
+      <c r="C36" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D36" s="140" t="n"/>
-      <c r="E36" s="141" t="n">
-        <v>44708</v>
-      </c>
-      <c r="F36" s="141" t="n">
-        <v>44710</v>
+      <c r="D36" s="129" t="n"/>
+      <c r="E36" s="130" t="n">
+        <v>44711</v>
+      </c>
+      <c r="F36" s="130" t="n">
+        <v>44716</v>
       </c>
       <c r="G36" s="131" t="n"/>
       <c r="H36" s="131">
@@ -14444,23 +14813,33 @@
       <c r="GR36" s="133" t="n"/>
     </row>
     <row r="37" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A37" s="137" t="n"/>
-      <c r="B37" s="138" t="inlineStr">
+      <c r="A37" s="126" t="inlineStr">
         <is>
-          <t>Create 1st Wireframe</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C37" s="139" t="inlineStr">
+      <c r="B37" s="127" t="inlineStr">
+        <is>
+          <t>Ask for Feedback on 1st Wireframe</t>
+        </is>
+      </c>
+      <c r="C37" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D37" s="140" t="n"/>
-      <c r="E37" s="141" t="n">
-        <v>44711</v>
-      </c>
-      <c r="F37" s="141" t="n">
-        <v>44716</v>
+      <c r="D37" s="129" t="n"/>
+      <c r="E37" s="130" t="n">
+        <v>44717</v>
+      </c>
+      <c r="F37" s="130" t="n">
+        <v>44718</v>
       </c>
       <c r="G37" s="131" t="n"/>
       <c r="H37" s="131">
@@ -14661,23 +15040,33 @@
       <c r="GR37" s="133" t="n"/>
     </row>
     <row r="38" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A38" s="137" t="n"/>
-      <c r="B38" s="138" t="inlineStr">
+      <c r="A38" s="126" t="inlineStr">
         <is>
-          <t>Ask for Feedback on 1st Wireframe</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="C38" s="139" t="inlineStr">
+      <c r="B38" s="127" t="inlineStr">
+        <is>
+          <t>Create 2nd Wireframe</t>
+        </is>
+      </c>
+      <c r="C38" s="128" t="inlineStr">
         <is>
           <t>Garv Shah</t>
         </is>
       </c>
-      <c r="D38" s="140" t="n"/>
-      <c r="E38" s="141" t="n">
-        <v>44717</v>
-      </c>
-      <c r="F38" s="141" t="n">
-        <v>44718</v>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="130" t="n">
+        <v>44719</v>
+      </c>
+      <c r="F38" s="130" t="n">
+        <v>44722</v>
       </c>
       <c r="G38" s="131" t="n"/>
       <c r="H38" s="131">
@@ -14878,233 +15267,156 @@
       <c r="GR38" s="133" t="n"/>
     </row>
     <row r="39" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A39" s="137" t="n"/>
-      <c r="B39" s="138" t="inlineStr">
+      <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>Create 2nd Wireframe</t>
+          <t>Rows 10 to 13 repeat the pattern from row 9. 
+Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
+A sample of another phase starts in cell A14. 
+Continue entering tasks in cells A10 to A13 or go to cell A14 to learn more.</t>
         </is>
       </c>
-      <c r="C39" s="139" t="inlineStr">
+      <c r="B39" s="13" t="inlineStr">
         <is>
-          <t>Garv Shah</t>
+          <t>Create product backlog</t>
         </is>
       </c>
-      <c r="D39" s="140" t="n"/>
-      <c r="E39" s="141" t="n">
-        <v>44719</v>
-      </c>
-      <c r="F39" s="141" t="n">
-        <v>44722</v>
-      </c>
-      <c r="G39" s="131" t="n"/>
-      <c r="H39" s="131">
+      <c r="C39" s="35" t="n"/>
+      <c r="D39" s="64" t="n"/>
+      <c r="E39" s="134" t="n"/>
+      <c r="F39" s="135" t="n"/>
+      <c r="G39" s="11" t="n"/>
+      <c r="H39" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I39" s="132" t="n"/>
-      <c r="J39" s="132" t="n"/>
-      <c r="K39" s="132" t="n"/>
-      <c r="L39" s="132" t="n"/>
-      <c r="M39" s="132" t="n"/>
-      <c r="N39" s="132" t="n"/>
-      <c r="O39" s="132" t="n"/>
-      <c r="P39" s="132" t="n"/>
-      <c r="Q39" s="132" t="n"/>
-      <c r="R39" s="132" t="n"/>
-      <c r="S39" s="132" t="n"/>
-      <c r="T39" s="132" t="n"/>
-      <c r="U39" s="132" t="n"/>
-      <c r="V39" s="132" t="n"/>
-      <c r="W39" s="132" t="n"/>
-      <c r="X39" s="132" t="n"/>
-      <c r="Y39" s="132" t="n"/>
-      <c r="Z39" s="132" t="n"/>
-      <c r="AA39" s="132" t="n"/>
-      <c r="AB39" s="132" t="n"/>
-      <c r="AC39" s="132" t="n"/>
-      <c r="AD39" s="132" t="n"/>
-      <c r="AE39" s="132" t="n"/>
-      <c r="AF39" s="132" t="n"/>
-      <c r="AG39" s="132" t="n"/>
-      <c r="AH39" s="132" t="n"/>
-      <c r="AI39" s="132" t="n"/>
-      <c r="AJ39" s="132" t="n"/>
-      <c r="AK39" s="132" t="n"/>
-      <c r="AL39" s="132" t="n"/>
-      <c r="AM39" s="132" t="n"/>
-      <c r="AN39" s="132" t="n"/>
-      <c r="AO39" s="132" t="n"/>
-      <c r="AP39" s="132" t="n"/>
-      <c r="AQ39" s="132" t="n"/>
-      <c r="AR39" s="132" t="n"/>
-      <c r="AS39" s="132" t="n"/>
-      <c r="AT39" s="132" t="n"/>
-      <c r="AU39" s="132" t="n"/>
-      <c r="AV39" s="132" t="n"/>
-      <c r="AW39" s="132" t="n"/>
-      <c r="AX39" s="132" t="n"/>
-      <c r="AY39" s="132" t="n"/>
-      <c r="AZ39" s="132" t="n"/>
-      <c r="BA39" s="132" t="n"/>
-      <c r="BB39" s="132" t="n"/>
-      <c r="BC39" s="132" t="n"/>
-      <c r="BD39" s="132" t="n"/>
-      <c r="BE39" s="132" t="n"/>
-      <c r="BF39" s="132" t="n"/>
-      <c r="BG39" s="132" t="n"/>
-      <c r="BH39" s="132" t="n"/>
-      <c r="BI39" s="132" t="n"/>
-      <c r="BJ39" s="132" t="n"/>
-      <c r="BK39" s="132" t="n"/>
-      <c r="BL39" s="132" t="n"/>
-      <c r="BM39" s="132" t="n"/>
-      <c r="BN39" s="132" t="n"/>
-      <c r="BO39" s="132" t="n"/>
-      <c r="BP39" s="132" t="n"/>
-      <c r="BQ39" s="132" t="n"/>
-      <c r="BR39" s="132" t="n"/>
-      <c r="BS39" s="132" t="n"/>
-      <c r="BT39" s="132" t="n"/>
-      <c r="BU39" s="132" t="n"/>
-      <c r="BV39" s="132" t="n"/>
-      <c r="BW39" s="132" t="n"/>
-      <c r="BX39" s="132" t="n"/>
-      <c r="BY39" s="132" t="n"/>
-      <c r="BZ39" s="132" t="n"/>
-      <c r="CA39" s="132" t="n"/>
-      <c r="CB39" s="132" t="n"/>
-      <c r="CC39" s="132" t="n"/>
-      <c r="CD39" s="132" t="n"/>
-      <c r="CE39" s="132" t="n"/>
-      <c r="CF39" s="132" t="n"/>
-      <c r="CG39" s="132" t="n"/>
-      <c r="CH39" s="132" t="n"/>
-      <c r="CI39" s="132" t="n"/>
-      <c r="CJ39" s="132" t="n"/>
-      <c r="CK39" s="132" t="n"/>
-      <c r="CL39" s="132" t="n"/>
-      <c r="CM39" s="132" t="n"/>
-      <c r="CN39" s="132" t="n"/>
-      <c r="CO39" s="132" t="n"/>
-      <c r="CP39" s="132" t="n"/>
-      <c r="CQ39" s="132" t="n"/>
-      <c r="CR39" s="132" t="n"/>
-      <c r="CS39" s="132" t="n"/>
-      <c r="CT39" s="132" t="n"/>
-      <c r="CU39" s="132" t="n"/>
-      <c r="CV39" s="132" t="n"/>
-      <c r="CW39" s="132" t="n"/>
-      <c r="CX39" s="132" t="n"/>
-      <c r="CY39" s="132" t="n"/>
-      <c r="CZ39" s="132" t="n"/>
-      <c r="DA39" s="132" t="n"/>
-      <c r="DB39" s="132" t="n"/>
-      <c r="DC39" s="132" t="n"/>
-      <c r="DD39" s="132" t="n"/>
-      <c r="DE39" s="132" t="n"/>
-      <c r="DF39" s="132" t="n"/>
-      <c r="DG39" s="132" t="n"/>
-      <c r="DH39" s="132" t="n"/>
-      <c r="DI39" s="132" t="n"/>
-      <c r="DJ39" s="132" t="n"/>
-      <c r="DK39" s="132" t="n"/>
-      <c r="DL39" s="132" t="n"/>
-      <c r="DM39" s="132" t="n"/>
-      <c r="DN39" s="132" t="n"/>
-      <c r="DO39" s="132" t="n"/>
-      <c r="DP39" s="132" t="n"/>
-      <c r="DQ39" s="133" t="n"/>
-      <c r="DR39" s="133" t="n"/>
-      <c r="DS39" s="133" t="n"/>
-      <c r="DT39" s="133" t="n"/>
-      <c r="DU39" s="133" t="n"/>
-      <c r="DV39" s="133" t="n"/>
-      <c r="DW39" s="133" t="n"/>
-      <c r="DX39" s="133" t="n"/>
-      <c r="DY39" s="133" t="n"/>
-      <c r="DZ39" s="133" t="n"/>
-      <c r="EA39" s="133" t="n"/>
-      <c r="EB39" s="133" t="n"/>
-      <c r="EC39" s="133" t="n"/>
-      <c r="ED39" s="133" t="n"/>
-      <c r="EE39" s="133" t="n"/>
-      <c r="EF39" s="133" t="n"/>
-      <c r="EG39" s="133" t="n"/>
-      <c r="EH39" s="133" t="n"/>
-      <c r="EI39" s="133" t="n"/>
-      <c r="EJ39" s="133" t="n"/>
-      <c r="EK39" s="133" t="n"/>
-      <c r="EL39" s="133" t="n"/>
-      <c r="EM39" s="133" t="n"/>
-      <c r="EN39" s="133" t="n"/>
-      <c r="EO39" s="133" t="n"/>
-      <c r="EP39" s="133" t="n"/>
-      <c r="EQ39" s="133" t="n"/>
-      <c r="ER39" s="133" t="n"/>
-      <c r="ES39" s="133" t="n"/>
-      <c r="ET39" s="133" t="n"/>
-      <c r="EU39" s="133" t="n"/>
-      <c r="EV39" s="133" t="n"/>
-      <c r="EW39" s="133" t="n"/>
-      <c r="EX39" s="133" t="n"/>
-      <c r="EY39" s="133" t="n"/>
-      <c r="EZ39" s="133" t="n"/>
-      <c r="FA39" s="133" t="n"/>
-      <c r="FB39" s="133" t="n"/>
-      <c r="FC39" s="133" t="n"/>
-      <c r="FD39" s="133" t="n"/>
-      <c r="FE39" s="133" t="n"/>
-      <c r="FF39" s="133" t="n"/>
-      <c r="FG39" s="133" t="n"/>
-      <c r="FH39" s="133" t="n"/>
-      <c r="FI39" s="133" t="n"/>
-      <c r="FJ39" s="133" t="n"/>
-      <c r="FK39" s="133" t="n"/>
-      <c r="FL39" s="133" t="n"/>
-      <c r="FM39" s="133" t="n"/>
-      <c r="FN39" s="133" t="n"/>
-      <c r="FO39" s="133" t="n"/>
-      <c r="FP39" s="133" t="n"/>
-      <c r="FQ39" s="133" t="n"/>
-      <c r="FR39" s="133" t="n"/>
-      <c r="FS39" s="133" t="n"/>
-      <c r="FT39" s="133" t="n"/>
-      <c r="FU39" s="133" t="n"/>
-      <c r="FV39" s="133" t="n"/>
-      <c r="FW39" s="133" t="n"/>
-      <c r="FX39" s="133" t="n"/>
-      <c r="FY39" s="133" t="n"/>
-      <c r="FZ39" s="133" t="n"/>
-      <c r="GA39" s="133" t="n"/>
-      <c r="GB39" s="133" t="n"/>
-      <c r="GC39" s="133" t="n"/>
-      <c r="GD39" s="133" t="n"/>
-      <c r="GE39" s="133" t="n"/>
-      <c r="GF39" s="133" t="n"/>
-      <c r="GG39" s="133" t="n"/>
-      <c r="GH39" s="133" t="n"/>
-      <c r="GI39" s="133" t="n"/>
-      <c r="GJ39" s="133" t="n"/>
-      <c r="GK39" s="133" t="n"/>
-      <c r="GL39" s="133" t="n"/>
-      <c r="GM39" s="133" t="n"/>
-      <c r="GN39" s="133" t="n"/>
-      <c r="GO39" s="133" t="n"/>
-      <c r="GP39" s="133" t="n"/>
-      <c r="GQ39" s="133" t="n"/>
-      <c r="GR39" s="133" t="n"/>
+      <c r="I39" s="16" t="n"/>
+      <c r="J39" s="16" t="n"/>
+      <c r="K39" s="16" t="n"/>
+      <c r="L39" s="16" t="n"/>
+      <c r="M39" s="16" t="n"/>
+      <c r="N39" s="16" t="n"/>
+      <c r="O39" s="16" t="n"/>
+      <c r="P39" s="16" t="n"/>
+      <c r="Q39" s="16" t="n"/>
+      <c r="R39" s="16" t="n"/>
+      <c r="S39" s="16" t="n"/>
+      <c r="T39" s="16" t="n"/>
+      <c r="U39" s="16" t="n"/>
+      <c r="V39" s="16" t="n"/>
+      <c r="W39" s="16" t="n"/>
+      <c r="X39" s="16" t="n"/>
+      <c r="Y39" s="16" t="n"/>
+      <c r="Z39" s="16" t="n"/>
+      <c r="AA39" s="16" t="n"/>
+      <c r="AB39" s="16" t="n"/>
+      <c r="AC39" s="16" t="n"/>
+      <c r="AD39" s="16" t="n"/>
+      <c r="AE39" s="16" t="n"/>
+      <c r="AF39" s="16" t="n"/>
+      <c r="AG39" s="16" t="n"/>
+      <c r="AH39" s="16" t="n"/>
+      <c r="AI39" s="16" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+      <c r="AK39" s="16" t="n"/>
+      <c r="AL39" s="16" t="n"/>
+      <c r="AM39" s="16" t="n"/>
+      <c r="AN39" s="16" t="n"/>
+      <c r="AO39" s="16" t="n"/>
+      <c r="AP39" s="16" t="n"/>
+      <c r="AQ39" s="16" t="n"/>
+      <c r="AR39" s="16" t="n"/>
+      <c r="AS39" s="16" t="n"/>
+      <c r="AT39" s="16" t="n"/>
+      <c r="AU39" s="16" t="n"/>
+      <c r="AV39" s="16" t="n"/>
+      <c r="AW39" s="16" t="n"/>
+      <c r="AX39" s="16" t="n"/>
+      <c r="AY39" s="16" t="n"/>
+      <c r="AZ39" s="16" t="n"/>
+      <c r="BA39" s="16" t="n"/>
+      <c r="BB39" s="16" t="n"/>
+      <c r="BC39" s="16" t="n"/>
+      <c r="BD39" s="16" t="n"/>
+      <c r="BE39" s="16" t="n"/>
+      <c r="BF39" s="16" t="n"/>
+      <c r="BG39" s="16" t="n"/>
+      <c r="BH39" s="16" t="n"/>
+      <c r="BI39" s="16" t="n"/>
+      <c r="BJ39" s="16" t="n"/>
+      <c r="BK39" s="16" t="n"/>
+      <c r="BL39" s="16" t="n"/>
+      <c r="BM39" s="16" t="n"/>
+      <c r="BN39" s="16" t="n"/>
+      <c r="BO39" s="16" t="n"/>
+      <c r="BP39" s="16" t="n"/>
+      <c r="BQ39" s="16" t="n"/>
+      <c r="BR39" s="16" t="n"/>
+      <c r="BS39" s="16" t="n"/>
+      <c r="BT39" s="16" t="n"/>
+      <c r="BU39" s="16" t="n"/>
+      <c r="BV39" s="16" t="n"/>
+      <c r="BW39" s="16" t="n"/>
+      <c r="BX39" s="16" t="n"/>
+      <c r="BY39" s="16" t="n"/>
+      <c r="BZ39" s="16" t="n"/>
+      <c r="CA39" s="16" t="n"/>
+      <c r="CB39" s="16" t="n"/>
+      <c r="CC39" s="16" t="n"/>
+      <c r="CD39" s="16" t="n"/>
+      <c r="CE39" s="16" t="n"/>
+      <c r="CF39" s="16" t="n"/>
+      <c r="CG39" s="16" t="n"/>
+      <c r="CH39" s="16" t="n"/>
+      <c r="CI39" s="16" t="n"/>
+      <c r="CJ39" s="16" t="n"/>
+      <c r="CK39" s="16" t="n"/>
+      <c r="CL39" s="16" t="n"/>
+      <c r="CM39" s="16" t="n"/>
+      <c r="CN39" s="16" t="n"/>
+      <c r="CO39" s="16" t="n"/>
+      <c r="CP39" s="16" t="n"/>
+      <c r="CQ39" s="16" t="n"/>
+      <c r="CR39" s="16" t="n"/>
+      <c r="CS39" s="16" t="n"/>
+      <c r="CT39" s="16" t="n"/>
+      <c r="CU39" s="16" t="n"/>
+      <c r="CV39" s="16" t="n"/>
+      <c r="CW39" s="16" t="n"/>
+      <c r="CX39" s="16" t="n"/>
+      <c r="CY39" s="16" t="n"/>
+      <c r="CZ39" s="16" t="n"/>
+      <c r="DA39" s="16" t="n"/>
+      <c r="DB39" s="16" t="n"/>
+      <c r="DC39" s="16" t="n"/>
+      <c r="DD39" s="16" t="n"/>
+      <c r="DE39" s="16" t="n"/>
+      <c r="DF39" s="16" t="n"/>
+      <c r="DG39" s="16" t="n"/>
+      <c r="DH39" s="16" t="n"/>
+      <c r="DI39" s="16" t="n"/>
+      <c r="DJ39" s="16" t="n"/>
+      <c r="DK39" s="16" t="n"/>
+      <c r="DL39" s="16" t="n"/>
+      <c r="DM39" s="16" t="n"/>
+      <c r="DN39" s="16" t="n"/>
+      <c r="DO39" s="16" t="n"/>
+      <c r="DP39" s="16" t="n"/>
     </row>
     <row r="40" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
       <c r="A40" s="26" t="n"/>
-      <c r="B40" s="14" t="inlineStr">
+      <c r="B40" s="42" t="inlineStr">
         <is>
           <t>Create product backlog</t>
         </is>
       </c>
-      <c r="C40" s="37" t="n"/>
-      <c r="D40" s="66" t="n"/>
-      <c r="E40" s="142" t="n"/>
-      <c r="F40" s="143" t="n"/>
+      <c r="C40" s="36" t="inlineStr"/>
+      <c r="D40" s="65" t="n"/>
+      <c r="E40" s="136" t="n">
+        <v>44723</v>
+      </c>
+      <c r="F40" s="136" t="n">
+        <v>44724</v>
+      </c>
       <c r="G40" s="11" t="n"/>
       <c r="H40" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -15225,19 +15537,15 @@
     </row>
     <row r="41" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
       <c r="A41" s="26" t="n"/>
-      <c r="B41" s="43" t="inlineStr">
+      <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>Create product backlog</t>
+          <t>Sprint 1</t>
         </is>
       </c>
-      <c r="C41" s="38" t="inlineStr"/>
-      <c r="D41" s="67" t="n"/>
-      <c r="E41" s="144" t="n">
-        <v>44723</v>
-      </c>
-      <c r="F41" s="144" t="n">
-        <v>44724</v>
-      </c>
+      <c r="C41" s="37" t="n"/>
+      <c r="D41" s="66" t="n"/>
+      <c r="E41" s="137" t="n"/>
+      <c r="F41" s="138" t="n"/>
       <c r="G41" s="11" t="n"/>
       <c r="H41" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -15357,27 +15665,20 @@
       <c r="DP41" s="16" t="n"/>
     </row>
     <row r="42" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>The cell to the right contains the phase 2 sample title. 
-You can create a new phase at any time within column B. This project schedule does not require phases. To remove the phase, simply delete the row.
-To create a new phase block in this row, enter a new title in the cell to the right.
-To continue adding tasks to the phase above, enter a new row above this one and fill in the task data according to cell A9’s instructions.
-Update the phase details in the cell to the right based on cell A8’s instructions.
-Continue navigating down column A cells to learn more.
-If you haven’t added any new rows in this worksheet, you will find that two additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through the column A cells to find the additional blocks. 
-Repeat the instructions from cells A8 and A9 whenever you need to.</t>
-        </is>
-      </c>
-      <c r="B42" s="15" t="inlineStr">
+      <c r="A42" s="26" t="n"/>
+      <c r="B42" s="43" t="inlineStr">
         <is>
           <t>Sprint 1</t>
         </is>
       </c>
-      <c r="C42" s="39" t="n"/>
-      <c r="D42" s="68" t="n"/>
-      <c r="E42" s="145" t="n"/>
-      <c r="F42" s="146" t="n"/>
+      <c r="C42" s="38" t="inlineStr"/>
+      <c r="D42" s="67" t="n"/>
+      <c r="E42" s="139" t="n">
+        <v>44725</v>
+      </c>
+      <c r="F42" s="139" t="n">
+        <v>44738</v>
+      </c>
       <c r="G42" s="11" t="n"/>
       <c r="H42" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -15497,151 +15798,231 @@
       <c r="DP42" s="16" t="n"/>
     </row>
     <row r="43" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A43" s="27" t="n"/>
-      <c r="B43" s="44" t="inlineStr">
-        <is>
-          <t>Sprint 1</t>
-        </is>
-      </c>
-      <c r="C43" s="40" t="inlineStr"/>
-      <c r="D43" s="69" t="n"/>
-      <c r="E43" s="147" t="n">
-        <v>44725</v>
-      </c>
-      <c r="F43" s="147" t="n">
-        <v>44738</v>
-      </c>
-      <c r="G43" s="11" t="n"/>
-      <c r="H43" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I43" s="16" t="n"/>
-      <c r="J43" s="16" t="n"/>
-      <c r="K43" s="16" t="n"/>
-      <c r="L43" s="16" t="n"/>
-      <c r="M43" s="16" t="n"/>
-      <c r="N43" s="16" t="n"/>
-      <c r="O43" s="16" t="n"/>
-      <c r="P43" s="16" t="n"/>
-      <c r="Q43" s="16" t="n"/>
-      <c r="R43" s="16" t="n"/>
-      <c r="S43" s="16" t="n"/>
-      <c r="T43" s="16" t="n"/>
-      <c r="U43" s="16" t="n"/>
-      <c r="V43" s="16" t="n"/>
-      <c r="W43" s="16" t="n"/>
-      <c r="X43" s="16" t="n"/>
-      <c r="Y43" s="16" t="n"/>
-      <c r="Z43" s="16" t="n"/>
-      <c r="AA43" s="16" t="n"/>
-      <c r="AB43" s="16" t="n"/>
-      <c r="AC43" s="16" t="n"/>
-      <c r="AD43" s="16" t="n"/>
-      <c r="AE43" s="16" t="n"/>
-      <c r="AF43" s="16" t="n"/>
-      <c r="AG43" s="16" t="n"/>
-      <c r="AH43" s="16" t="n"/>
-      <c r="AI43" s="16" t="n"/>
-      <c r="AJ43" s="16" t="n"/>
-      <c r="AK43" s="16" t="n"/>
-      <c r="AL43" s="16" t="n"/>
-      <c r="AM43" s="16" t="n"/>
-      <c r="AN43" s="16" t="n"/>
-      <c r="AO43" s="16" t="n"/>
-      <c r="AP43" s="16" t="n"/>
-      <c r="AQ43" s="16" t="n"/>
-      <c r="AR43" s="16" t="n"/>
-      <c r="AS43" s="16" t="n"/>
-      <c r="AT43" s="16" t="n"/>
-      <c r="AU43" s="16" t="n"/>
-      <c r="AV43" s="16" t="n"/>
-      <c r="AW43" s="16" t="n"/>
-      <c r="AX43" s="16" t="n"/>
-      <c r="AY43" s="16" t="n"/>
-      <c r="AZ43" s="16" t="n"/>
-      <c r="BA43" s="16" t="n"/>
-      <c r="BB43" s="16" t="n"/>
-      <c r="BC43" s="16" t="n"/>
-      <c r="BD43" s="16" t="n"/>
-      <c r="BE43" s="16" t="n"/>
-      <c r="BF43" s="16" t="n"/>
-      <c r="BG43" s="16" t="n"/>
-      <c r="BH43" s="16" t="n"/>
-      <c r="BI43" s="16" t="n"/>
-      <c r="BJ43" s="16" t="n"/>
-      <c r="BK43" s="16" t="n"/>
-      <c r="BL43" s="16" t="n"/>
-      <c r="BM43" s="16" t="n"/>
-      <c r="BN43" s="16" t="n"/>
-      <c r="BO43" s="16" t="n"/>
-      <c r="BP43" s="16" t="n"/>
-      <c r="BQ43" s="16" t="n"/>
-      <c r="BR43" s="16" t="n"/>
-      <c r="BS43" s="16" t="n"/>
-      <c r="BT43" s="16" t="n"/>
-      <c r="BU43" s="16" t="n"/>
-      <c r="BV43" s="16" t="n"/>
-      <c r="BW43" s="16" t="n"/>
-      <c r="BX43" s="16" t="n"/>
-      <c r="BY43" s="16" t="n"/>
-      <c r="BZ43" s="16" t="n"/>
-      <c r="CA43" s="16" t="n"/>
-      <c r="CB43" s="16" t="n"/>
-      <c r="CC43" s="16" t="n"/>
-      <c r="CD43" s="16" t="n"/>
-      <c r="CE43" s="16" t="n"/>
-      <c r="CF43" s="16" t="n"/>
-      <c r="CG43" s="16" t="n"/>
-      <c r="CH43" s="16" t="n"/>
-      <c r="CI43" s="16" t="n"/>
-      <c r="CJ43" s="16" t="n"/>
-      <c r="CK43" s="16" t="n"/>
-      <c r="CL43" s="16" t="n"/>
-      <c r="CM43" s="16" t="n"/>
-      <c r="CN43" s="16" t="n"/>
-      <c r="CO43" s="16" t="n"/>
-      <c r="CP43" s="16" t="n"/>
-      <c r="CQ43" s="16" t="n"/>
-      <c r="CR43" s="16" t="n"/>
-      <c r="CS43" s="16" t="n"/>
-      <c r="CT43" s="16" t="n"/>
-      <c r="CU43" s="16" t="n"/>
-      <c r="CV43" s="16" t="n"/>
-      <c r="CW43" s="16" t="n"/>
-      <c r="CX43" s="16" t="n"/>
-      <c r="CY43" s="16" t="n"/>
-      <c r="CZ43" s="16" t="n"/>
-      <c r="DA43" s="16" t="n"/>
-      <c r="DB43" s="16" t="n"/>
-      <c r="DC43" s="16" t="n"/>
-      <c r="DD43" s="16" t="n"/>
-      <c r="DE43" s="16" t="n"/>
-      <c r="DF43" s="16" t="n"/>
-      <c r="DG43" s="16" t="n"/>
-      <c r="DH43" s="16" t="n"/>
-      <c r="DI43" s="16" t="n"/>
-      <c r="DJ43" s="16" t="n"/>
-      <c r="DK43" s="16" t="n"/>
-      <c r="DL43" s="16" t="n"/>
-      <c r="DM43" s="16" t="n"/>
-      <c r="DN43" s="16" t="n"/>
-      <c r="DO43" s="16" t="n"/>
-      <c r="DP43" s="16" t="n"/>
-    </row>
-    <row r="44" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A44" s="126" t="n"/>
-      <c r="B44" s="148" t="inlineStr">
+      <c r="A43" s="140" t="n"/>
+      <c r="B43" s="141" t="inlineStr">
         <is>
           <t>Sprint Planning</t>
         </is>
       </c>
-      <c r="C44" s="149" t="inlineStr"/>
-      <c r="D44" s="150" t="n"/>
-      <c r="E44" s="151" t="n">
+      <c r="C43" s="142" t="inlineStr"/>
+      <c r="D43" s="143" t="n"/>
+      <c r="E43" s="144" t="n">
         <v>44725</v>
       </c>
-      <c r="F44" s="151" t="n">
+      <c r="F43" s="144" t="n">
+        <v>44725</v>
+      </c>
+      <c r="G43" s="131" t="n"/>
+      <c r="H43" s="131">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I43" s="132" t="n"/>
+      <c r="J43" s="132" t="n"/>
+      <c r="K43" s="132" t="n"/>
+      <c r="L43" s="132" t="n"/>
+      <c r="M43" s="132" t="n"/>
+      <c r="N43" s="132" t="n"/>
+      <c r="O43" s="132" t="n"/>
+      <c r="P43" s="132" t="n"/>
+      <c r="Q43" s="132" t="n"/>
+      <c r="R43" s="132" t="n"/>
+      <c r="S43" s="132" t="n"/>
+      <c r="T43" s="132" t="n"/>
+      <c r="U43" s="132" t="n"/>
+      <c r="V43" s="132" t="n"/>
+      <c r="W43" s="132" t="n"/>
+      <c r="X43" s="132" t="n"/>
+      <c r="Y43" s="132" t="n"/>
+      <c r="Z43" s="132" t="n"/>
+      <c r="AA43" s="132" t="n"/>
+      <c r="AB43" s="132" t="n"/>
+      <c r="AC43" s="132" t="n"/>
+      <c r="AD43" s="132" t="n"/>
+      <c r="AE43" s="132" t="n"/>
+      <c r="AF43" s="132" t="n"/>
+      <c r="AG43" s="132" t="n"/>
+      <c r="AH43" s="132" t="n"/>
+      <c r="AI43" s="132" t="n"/>
+      <c r="AJ43" s="132" t="n"/>
+      <c r="AK43" s="132" t="n"/>
+      <c r="AL43" s="132" t="n"/>
+      <c r="AM43" s="132" t="n"/>
+      <c r="AN43" s="132" t="n"/>
+      <c r="AO43" s="132" t="n"/>
+      <c r="AP43" s="132" t="n"/>
+      <c r="AQ43" s="132" t="n"/>
+      <c r="AR43" s="132" t="n"/>
+      <c r="AS43" s="132" t="n"/>
+      <c r="AT43" s="132" t="n"/>
+      <c r="AU43" s="132" t="n"/>
+      <c r="AV43" s="132" t="n"/>
+      <c r="AW43" s="132" t="n"/>
+      <c r="AX43" s="132" t="n"/>
+      <c r="AY43" s="132" t="n"/>
+      <c r="AZ43" s="132" t="n"/>
+      <c r="BA43" s="132" t="n"/>
+      <c r="BB43" s="132" t="n"/>
+      <c r="BC43" s="132" t="n"/>
+      <c r="BD43" s="132" t="n"/>
+      <c r="BE43" s="132" t="n"/>
+      <c r="BF43" s="132" t="n"/>
+      <c r="BG43" s="132" t="n"/>
+      <c r="BH43" s="132" t="n"/>
+      <c r="BI43" s="132" t="n"/>
+      <c r="BJ43" s="132" t="n"/>
+      <c r="BK43" s="132" t="n"/>
+      <c r="BL43" s="132" t="n"/>
+      <c r="BM43" s="132" t="n"/>
+      <c r="BN43" s="132" t="n"/>
+      <c r="BO43" s="132" t="n"/>
+      <c r="BP43" s="132" t="n"/>
+      <c r="BQ43" s="132" t="n"/>
+      <c r="BR43" s="132" t="n"/>
+      <c r="BS43" s="132" t="n"/>
+      <c r="BT43" s="132" t="n"/>
+      <c r="BU43" s="132" t="n"/>
+      <c r="BV43" s="132" t="n"/>
+      <c r="BW43" s="132" t="n"/>
+      <c r="BX43" s="132" t="n"/>
+      <c r="BY43" s="132" t="n"/>
+      <c r="BZ43" s="132" t="n"/>
+      <c r="CA43" s="132" t="n"/>
+      <c r="CB43" s="132" t="n"/>
+      <c r="CC43" s="132" t="n"/>
+      <c r="CD43" s="132" t="n"/>
+      <c r="CE43" s="132" t="n"/>
+      <c r="CF43" s="132" t="n"/>
+      <c r="CG43" s="132" t="n"/>
+      <c r="CH43" s="132" t="n"/>
+      <c r="CI43" s="132" t="n"/>
+      <c r="CJ43" s="132" t="n"/>
+      <c r="CK43" s="132" t="n"/>
+      <c r="CL43" s="132" t="n"/>
+      <c r="CM43" s="132" t="n"/>
+      <c r="CN43" s="132" t="n"/>
+      <c r="CO43" s="132" t="n"/>
+      <c r="CP43" s="132" t="n"/>
+      <c r="CQ43" s="132" t="n"/>
+      <c r="CR43" s="132" t="n"/>
+      <c r="CS43" s="132" t="n"/>
+      <c r="CT43" s="132" t="n"/>
+      <c r="CU43" s="132" t="n"/>
+      <c r="CV43" s="132" t="n"/>
+      <c r="CW43" s="132" t="n"/>
+      <c r="CX43" s="132" t="n"/>
+      <c r="CY43" s="132" t="n"/>
+      <c r="CZ43" s="132" t="n"/>
+      <c r="DA43" s="132" t="n"/>
+      <c r="DB43" s="132" t="n"/>
+      <c r="DC43" s="132" t="n"/>
+      <c r="DD43" s="132" t="n"/>
+      <c r="DE43" s="132" t="n"/>
+      <c r="DF43" s="132" t="n"/>
+      <c r="DG43" s="132" t="n"/>
+      <c r="DH43" s="132" t="n"/>
+      <c r="DI43" s="132" t="n"/>
+      <c r="DJ43" s="132" t="n"/>
+      <c r="DK43" s="132" t="n"/>
+      <c r="DL43" s="132" t="n"/>
+      <c r="DM43" s="132" t="n"/>
+      <c r="DN43" s="132" t="n"/>
+      <c r="DO43" s="132" t="n"/>
+      <c r="DP43" s="132" t="n"/>
+      <c r="DQ43" s="133" t="n"/>
+      <c r="DR43" s="133" t="n"/>
+      <c r="DS43" s="133" t="n"/>
+      <c r="DT43" s="133" t="n"/>
+      <c r="DU43" s="133" t="n"/>
+      <c r="DV43" s="133" t="n"/>
+      <c r="DW43" s="133" t="n"/>
+      <c r="DX43" s="133" t="n"/>
+      <c r="DY43" s="133" t="n"/>
+      <c r="DZ43" s="133" t="n"/>
+      <c r="EA43" s="133" t="n"/>
+      <c r="EB43" s="133" t="n"/>
+      <c r="EC43" s="133" t="n"/>
+      <c r="ED43" s="133" t="n"/>
+      <c r="EE43" s="133" t="n"/>
+      <c r="EF43" s="133" t="n"/>
+      <c r="EG43" s="133" t="n"/>
+      <c r="EH43" s="133" t="n"/>
+      <c r="EI43" s="133" t="n"/>
+      <c r="EJ43" s="133" t="n"/>
+      <c r="EK43" s="133" t="n"/>
+      <c r="EL43" s="133" t="n"/>
+      <c r="EM43" s="133" t="n"/>
+      <c r="EN43" s="133" t="n"/>
+      <c r="EO43" s="133" t="n"/>
+      <c r="EP43" s="133" t="n"/>
+      <c r="EQ43" s="133" t="n"/>
+      <c r="ER43" s="133" t="n"/>
+      <c r="ES43" s="133" t="n"/>
+      <c r="ET43" s="133" t="n"/>
+      <c r="EU43" s="133" t="n"/>
+      <c r="EV43" s="133" t="n"/>
+      <c r="EW43" s="133" t="n"/>
+      <c r="EX43" s="133" t="n"/>
+      <c r="EY43" s="133" t="n"/>
+      <c r="EZ43" s="133" t="n"/>
+      <c r="FA43" s="133" t="n"/>
+      <c r="FB43" s="133" t="n"/>
+      <c r="FC43" s="133" t="n"/>
+      <c r="FD43" s="133" t="n"/>
+      <c r="FE43" s="133" t="n"/>
+      <c r="FF43" s="133" t="n"/>
+      <c r="FG43" s="133" t="n"/>
+      <c r="FH43" s="133" t="n"/>
+      <c r="FI43" s="133" t="n"/>
+      <c r="FJ43" s="133" t="n"/>
+      <c r="FK43" s="133" t="n"/>
+      <c r="FL43" s="133" t="n"/>
+      <c r="FM43" s="133" t="n"/>
+      <c r="FN43" s="133" t="n"/>
+      <c r="FO43" s="133" t="n"/>
+      <c r="FP43" s="133" t="n"/>
+      <c r="FQ43" s="133" t="n"/>
+      <c r="FR43" s="133" t="n"/>
+      <c r="FS43" s="133" t="n"/>
+      <c r="FT43" s="133" t="n"/>
+      <c r="FU43" s="133" t="n"/>
+      <c r="FV43" s="133" t="n"/>
+      <c r="FW43" s="133" t="n"/>
+      <c r="FX43" s="133" t="n"/>
+      <c r="FY43" s="133" t="n"/>
+      <c r="FZ43" s="133" t="n"/>
+      <c r="GA43" s="133" t="n"/>
+      <c r="GB43" s="133" t="n"/>
+      <c r="GC43" s="133" t="n"/>
+      <c r="GD43" s="133" t="n"/>
+      <c r="GE43" s="133" t="n"/>
+      <c r="GF43" s="133" t="n"/>
+      <c r="GG43" s="133" t="n"/>
+      <c r="GH43" s="133" t="n"/>
+      <c r="GI43" s="133" t="n"/>
+      <c r="GJ43" s="133" t="n"/>
+      <c r="GK43" s="133" t="n"/>
+      <c r="GL43" s="133" t="n"/>
+      <c r="GM43" s="133" t="n"/>
+      <c r="GN43" s="133" t="n"/>
+      <c r="GO43" s="133" t="n"/>
+      <c r="GP43" s="133" t="n"/>
+      <c r="GQ43" s="133" t="n"/>
+      <c r="GR43" s="133" t="n"/>
+    </row>
+    <row r="44" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
+      <c r="A44" s="140" t="n"/>
+      <c r="B44" s="141" t="inlineStr">
+        <is>
+          <t>Set sprint goals</t>
+        </is>
+      </c>
+      <c r="C44" s="142" t="inlineStr"/>
+      <c r="D44" s="143" t="n"/>
+      <c r="E44" s="144" t="n">
+        <v>44725</v>
+      </c>
+      <c r="F44" s="144" t="n">
         <v>44725</v>
       </c>
       <c r="G44" s="131" t="n"/>
@@ -15843,18 +16224,18 @@
       <c r="GR44" s="133" t="n"/>
     </row>
     <row r="45" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A45" s="126" t="n"/>
-      <c r="B45" s="148" t="inlineStr">
+      <c r="A45" s="140" t="n"/>
+      <c r="B45" s="141" t="inlineStr">
         <is>
-          <t>Set sprint goals</t>
+          <t>Create sprint backlog (keep feasible for about 2 weeks)</t>
         </is>
       </c>
-      <c r="C45" s="149" t="inlineStr"/>
-      <c r="D45" s="150" t="n"/>
-      <c r="E45" s="151" t="n">
+      <c r="C45" s="142" t="inlineStr"/>
+      <c r="D45" s="143" t="n"/>
+      <c r="E45" s="144" t="n">
         <v>44725</v>
       </c>
-      <c r="F45" s="151" t="n">
+      <c r="F45" s="144" t="n">
         <v>44725</v>
       </c>
       <c r="G45" s="131" t="n"/>
@@ -16056,18 +16437,18 @@
       <c r="GR45" s="133" t="n"/>
     </row>
     <row r="46" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A46" s="126" t="n"/>
-      <c r="B46" s="148" t="inlineStr">
+      <c r="A46" s="140" t="n"/>
+      <c r="B46" s="141" t="inlineStr">
         <is>
-          <t>Create sprint backlog (keep feasible for about 2 weeks)</t>
+          <t>Create quick simple designs for any complex functionality</t>
         </is>
       </c>
-      <c r="C46" s="149" t="inlineStr"/>
-      <c r="D46" s="150" t="n"/>
-      <c r="E46" s="151" t="n">
+      <c r="C46" s="142" t="inlineStr"/>
+      <c r="D46" s="143" t="n"/>
+      <c r="E46" s="144" t="n">
         <v>44725</v>
       </c>
-      <c r="F46" s="151" t="n">
+      <c r="F46" s="144" t="n">
         <v>44725</v>
       </c>
       <c r="G46" s="131" t="n"/>
@@ -16269,19 +16650,19 @@
       <c r="GR46" s="133" t="n"/>
     </row>
     <row r="47" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A47" s="126" t="n"/>
-      <c r="B47" s="148" t="inlineStr">
+      <c r="A47" s="140" t="n"/>
+      <c r="B47" s="141" t="inlineStr">
         <is>
-          <t>Create quick simple designs for any complex functionality</t>
+          <t>Sprint</t>
         </is>
       </c>
-      <c r="C47" s="149" t="inlineStr"/>
-      <c r="D47" s="150" t="n"/>
-      <c r="E47" s="151" t="n">
-        <v>44725</v>
-      </c>
-      <c r="F47" s="151" t="n">
-        <v>44725</v>
+      <c r="C47" s="142" t="inlineStr"/>
+      <c r="D47" s="143" t="n"/>
+      <c r="E47" s="144" t="n">
+        <v>44726</v>
+      </c>
+      <c r="F47" s="144" t="n">
+        <v>44734</v>
       </c>
       <c r="G47" s="131" t="n"/>
       <c r="H47" s="131">
@@ -16482,19 +16863,19 @@
       <c r="GR47" s="133" t="n"/>
     </row>
     <row r="48" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A48" s="126" t="n"/>
-      <c r="B48" s="148" t="inlineStr">
+      <c r="A48" s="140" t="n"/>
+      <c r="B48" s="141" t="inlineStr">
         <is>
-          <t>Sprint</t>
+          <t>Daily Scrum + Standup (short blog post for me)</t>
         </is>
       </c>
-      <c r="C48" s="149" t="inlineStr"/>
-      <c r="D48" s="150" t="n"/>
-      <c r="E48" s="151" t="n">
+      <c r="C48" s="142" t="inlineStr"/>
+      <c r="D48" s="143" t="n"/>
+      <c r="E48" s="144" t="n">
         <v>44726</v>
       </c>
-      <c r="F48" s="151" t="n">
-        <v>44734</v>
+      <c r="F48" s="144" t="n">
+        <v>44726</v>
       </c>
       <c r="G48" s="131" t="n"/>
       <c r="H48" s="131">
@@ -16695,19 +17076,19 @@
       <c r="GR48" s="133" t="n"/>
     </row>
     <row r="49" ht="30" customFormat="1" customHeight="1" s="105" thickBot="1">
-      <c r="A49" s="126" t="n"/>
-      <c r="B49" s="148" t="inlineStr">
+      <c r="A49" s="140" t="n"/>
+      <c r="B49" s="141" t="inlineStr">
         <is>
-          <t>Daily Scrum + Standup (short blog post for me)</t>
+          <t>Sprint Review</t>
         </is>
       </c>
-      <c r="C49" s="149" t="inlineStr"/>
-      <c r="D49" s="150" t="n"/>
-      <c r="E49" s="151" t="n">
-        <v>44726</v>
-      </c>
-      <c r="F49" s="151" t="n">
-        <v>44726</v>
+      <c r="C49" s="142" t="inlineStr"/>
+      <c r="D49" s="143" t="n"/>
+      <c r="E49" s="144" t="n">
+        <v>44735</v>
+      </c>
+      <c r="F49" s="144" t="n">
+        <v>44736</v>
       </c>
       <c r="G49" s="131" t="n"/>
       <c r="H49" s="131">
@@ -16908,19 +17289,19 @@
       <c r="GR49" s="133" t="n"/>
     </row>
     <row r="50" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A50" s="126" t="n"/>
-      <c r="B50" s="148" t="inlineStr">
+      <c r="A50" s="140" t="n"/>
+      <c r="B50" s="141" t="inlineStr">
         <is>
-          <t>Sprint Review</t>
+          <t>Create demo to show Ms. Cotugno</t>
         </is>
       </c>
-      <c r="C50" s="149" t="inlineStr"/>
-      <c r="D50" s="150" t="n"/>
-      <c r="E50" s="151" t="n">
+      <c r="C50" s="142" t="inlineStr"/>
+      <c r="D50" s="143" t="n"/>
+      <c r="E50" s="144" t="n">
         <v>44735</v>
       </c>
-      <c r="F50" s="151" t="n">
-        <v>44736</v>
+      <c r="F50" s="144" t="n">
+        <v>44735</v>
       </c>
       <c r="G50" s="131" t="n"/>
       <c r="H50" s="131">
@@ -17121,18 +17502,18 @@
       <c r="GR50" s="133" t="n"/>
     </row>
     <row r="51" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A51" s="126" t="n"/>
-      <c r="B51" s="148" t="inlineStr">
+      <c r="A51" s="140" t="n"/>
+      <c r="B51" s="141" t="inlineStr">
         <is>
-          <t>Create demo to show Ms. Cotugno</t>
+          <t>Document product backlog completed</t>
         </is>
       </c>
-      <c r="C51" s="149" t="inlineStr"/>
-      <c r="D51" s="150" t="n"/>
-      <c r="E51" s="151" t="n">
+      <c r="C51" s="142" t="inlineStr"/>
+      <c r="D51" s="143" t="n"/>
+      <c r="E51" s="144" t="n">
         <v>44735</v>
       </c>
-      <c r="F51" s="151" t="n">
+      <c r="F51" s="144" t="n">
         <v>44735</v>
       </c>
       <c r="G51" s="131" t="n"/>
@@ -17334,19 +17715,19 @@
       <c r="GR51" s="133" t="n"/>
     </row>
     <row r="52" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A52" s="126" t="n"/>
-      <c r="B52" s="148" t="inlineStr">
+      <c r="A52" s="140" t="n"/>
+      <c r="B52" s="141" t="inlineStr">
         <is>
-          <t>Document product backlog completed</t>
+          <t>Update product backlog for sprint</t>
         </is>
       </c>
-      <c r="C52" s="149" t="inlineStr"/>
-      <c r="D52" s="150" t="n"/>
-      <c r="E52" s="151" t="n">
-        <v>44735</v>
-      </c>
-      <c r="F52" s="151" t="n">
-        <v>44735</v>
+      <c r="C52" s="142" t="inlineStr"/>
+      <c r="D52" s="143" t="n"/>
+      <c r="E52" s="144" t="n">
+        <v>44736</v>
+      </c>
+      <c r="F52" s="144" t="n">
+        <v>44736</v>
       </c>
       <c r="G52" s="131" t="n"/>
       <c r="H52" s="131">
@@ -17547,18 +17928,18 @@
       <c r="GR52" s="133" t="n"/>
     </row>
     <row r="53" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A53" s="126" t="n"/>
-      <c r="B53" s="148" t="inlineStr">
+      <c r="A53" s="140" t="n"/>
+      <c r="B53" s="141" t="inlineStr">
         <is>
-          <t>Update product backlog for sprint</t>
+          <t>Create beta release to get feedback from clients</t>
         </is>
       </c>
-      <c r="C53" s="149" t="inlineStr"/>
-      <c r="D53" s="150" t="n"/>
-      <c r="E53" s="151" t="n">
+      <c r="C53" s="142" t="inlineStr"/>
+      <c r="D53" s="143" t="n"/>
+      <c r="E53" s="144" t="n">
         <v>44736</v>
       </c>
-      <c r="F53" s="151" t="n">
+      <c r="F53" s="144" t="n">
         <v>44736</v>
       </c>
       <c r="G53" s="131" t="n"/>
@@ -17760,19 +18141,19 @@
       <c r="GR53" s="133" t="n"/>
     </row>
     <row r="54" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A54" s="126" t="n"/>
-      <c r="B54" s="148" t="inlineStr">
+      <c r="A54" s="140" t="n"/>
+      <c r="B54" s="141" t="inlineStr">
         <is>
-          <t>Create beta release to get feedback from clients</t>
+          <t>Sprint Retrospective</t>
         </is>
       </c>
-      <c r="C54" s="149" t="inlineStr"/>
-      <c r="D54" s="150" t="n"/>
-      <c r="E54" s="151" t="n">
-        <v>44736</v>
-      </c>
-      <c r="F54" s="151" t="n">
-        <v>44736</v>
+      <c r="C54" s="142" t="inlineStr"/>
+      <c r="D54" s="143" t="n"/>
+      <c r="E54" s="144" t="n">
+        <v>44737</v>
+      </c>
+      <c r="F54" s="144" t="n">
+        <v>44738</v>
       </c>
       <c r="G54" s="131" t="n"/>
       <c r="H54" s="131">
@@ -17973,19 +18354,19 @@
       <c r="GR54" s="133" t="n"/>
     </row>
     <row r="55" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A55" s="126" t="n"/>
-      <c r="B55" s="148" t="inlineStr">
+      <c r="A55" s="140" t="n"/>
+      <c r="B55" s="141" t="inlineStr">
         <is>
-          <t>Sprint Retrospective</t>
+          <t>Create blog post for what went well/didn't etc</t>
         </is>
       </c>
-      <c r="C55" s="149" t="inlineStr"/>
-      <c r="D55" s="150" t="n"/>
-      <c r="E55" s="151" t="n">
+      <c r="C55" s="142" t="inlineStr"/>
+      <c r="D55" s="143" t="n"/>
+      <c r="E55" s="144" t="n">
         <v>44737</v>
       </c>
-      <c r="F55" s="151" t="n">
-        <v>44738</v>
+      <c r="F55" s="144" t="n">
+        <v>44737</v>
       </c>
       <c r="G55" s="131" t="n"/>
       <c r="H55" s="131">
@@ -18186,18 +18567,18 @@
       <c r="GR55" s="133" t="n"/>
     </row>
     <row r="56" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A56" s="126" t="n"/>
-      <c r="B56" s="148" t="inlineStr">
+      <c r="A56" s="140" t="n"/>
+      <c r="B56" s="141" t="inlineStr">
         <is>
-          <t>Create blog post for what went well/didn't etc</t>
+          <t>Update project backlog based on client feedback</t>
         </is>
       </c>
-      <c r="C56" s="149" t="inlineStr"/>
-      <c r="D56" s="150" t="n"/>
-      <c r="E56" s="151" t="n">
+      <c r="C56" s="142" t="inlineStr"/>
+      <c r="D56" s="143" t="n"/>
+      <c r="E56" s="144" t="n">
         <v>44737</v>
       </c>
-      <c r="F56" s="151" t="n">
+      <c r="F56" s="144" t="n">
         <v>44737</v>
       </c>
       <c r="G56" s="131" t="n"/>
@@ -18399,19 +18780,19 @@
       <c r="GR56" s="133" t="n"/>
     </row>
     <row r="57" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A57" s="126" t="n"/>
-      <c r="B57" s="148" t="inlineStr">
+      <c r="A57" s="140" t="n"/>
+      <c r="B57" s="141" t="inlineStr">
         <is>
-          <t>Update project backlog based on client feedback</t>
+          <t>Update documentation for project so everything is clear</t>
         </is>
       </c>
-      <c r="C57" s="149" t="inlineStr"/>
-      <c r="D57" s="150" t="n"/>
-      <c r="E57" s="151" t="n">
+      <c r="C57" s="142" t="inlineStr"/>
+      <c r="D57" s="143" t="n"/>
+      <c r="E57" s="144" t="n">
         <v>44737</v>
       </c>
-      <c r="F57" s="151" t="n">
-        <v>44737</v>
+      <c r="F57" s="144" t="n">
+        <v>44738</v>
       </c>
       <c r="G57" s="131" t="n"/>
       <c r="H57" s="131">
@@ -18612,229 +18993,160 @@
       <c r="GR57" s="133" t="n"/>
     </row>
     <row r="58" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A58" s="126" t="n"/>
-      <c r="B58" s="148" t="inlineStr">
+      <c r="A58" s="27" t="inlineStr">
         <is>
-          <t>Update documentation for project so everything is clear</t>
+          <t>The cell to the right contains the phase 2 sample title. 
+You can create a new phase at any time within column B. This project schedule does not require phases. To remove the phase, simply delete the row.
+To create a new phase block in this row, enter a new title in the cell to the right.
+To continue adding tasks to the phase above, enter a new row above this one and fill in the task data according to cell A9’s instructions.
+Update the phase details in the cell to the right based on cell A8’s instructions.
+Continue navigating down column A cells to learn more.
+If you haven’t added any new rows in this worksheet, you will find that two additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through the column A cells to find the additional blocks. 
+Repeat the instructions from cells A8 and A9 whenever you need to.</t>
         </is>
       </c>
-      <c r="C58" s="149" t="inlineStr"/>
-      <c r="D58" s="150" t="n"/>
-      <c r="E58" s="151" t="n">
-        <v>44737</v>
-      </c>
-      <c r="F58" s="151" t="n">
-        <v>44738</v>
-      </c>
-      <c r="G58" s="131" t="n"/>
-      <c r="H58" s="131">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I58" s="132" t="n"/>
-      <c r="J58" s="132" t="n"/>
-      <c r="K58" s="132" t="n"/>
-      <c r="L58" s="132" t="n"/>
-      <c r="M58" s="132" t="n"/>
-      <c r="N58" s="132" t="n"/>
-      <c r="O58" s="132" t="n"/>
-      <c r="P58" s="132" t="n"/>
-      <c r="Q58" s="132" t="n"/>
-      <c r="R58" s="132" t="n"/>
-      <c r="S58" s="132" t="n"/>
-      <c r="T58" s="132" t="n"/>
-      <c r="U58" s="132" t="n"/>
-      <c r="V58" s="132" t="n"/>
-      <c r="W58" s="132" t="n"/>
-      <c r="X58" s="132" t="n"/>
-      <c r="Y58" s="132" t="n"/>
-      <c r="Z58" s="132" t="n"/>
-      <c r="AA58" s="132" t="n"/>
-      <c r="AB58" s="132" t="n"/>
-      <c r="AC58" s="132" t="n"/>
-      <c r="AD58" s="132" t="n"/>
-      <c r="AE58" s="132" t="n"/>
-      <c r="AF58" s="132" t="n"/>
-      <c r="AG58" s="132" t="n"/>
-      <c r="AH58" s="132" t="n"/>
-      <c r="AI58" s="132" t="n"/>
-      <c r="AJ58" s="132" t="n"/>
-      <c r="AK58" s="132" t="n"/>
-      <c r="AL58" s="132" t="n"/>
-      <c r="AM58" s="132" t="n"/>
-      <c r="AN58" s="132" t="n"/>
-      <c r="AO58" s="132" t="n"/>
-      <c r="AP58" s="132" t="n"/>
-      <c r="AQ58" s="132" t="n"/>
-      <c r="AR58" s="132" t="n"/>
-      <c r="AS58" s="132" t="n"/>
-      <c r="AT58" s="132" t="n"/>
-      <c r="AU58" s="132" t="n"/>
-      <c r="AV58" s="132" t="n"/>
-      <c r="AW58" s="132" t="n"/>
-      <c r="AX58" s="132" t="n"/>
-      <c r="AY58" s="132" t="n"/>
-      <c r="AZ58" s="132" t="n"/>
-      <c r="BA58" s="132" t="n"/>
-      <c r="BB58" s="132" t="n"/>
-      <c r="BC58" s="132" t="n"/>
-      <c r="BD58" s="132" t="n"/>
-      <c r="BE58" s="132" t="n"/>
-      <c r="BF58" s="132" t="n"/>
-      <c r="BG58" s="132" t="n"/>
-      <c r="BH58" s="132" t="n"/>
-      <c r="BI58" s="132" t="n"/>
-      <c r="BJ58" s="132" t="n"/>
-      <c r="BK58" s="132" t="n"/>
-      <c r="BL58" s="132" t="n"/>
-      <c r="BM58" s="132" t="n"/>
-      <c r="BN58" s="132" t="n"/>
-      <c r="BO58" s="132" t="n"/>
-      <c r="BP58" s="132" t="n"/>
-      <c r="BQ58" s="132" t="n"/>
-      <c r="BR58" s="132" t="n"/>
-      <c r="BS58" s="132" t="n"/>
-      <c r="BT58" s="132" t="n"/>
-      <c r="BU58" s="132" t="n"/>
-      <c r="BV58" s="132" t="n"/>
-      <c r="BW58" s="132" t="n"/>
-      <c r="BX58" s="132" t="n"/>
-      <c r="BY58" s="132" t="n"/>
-      <c r="BZ58" s="132" t="n"/>
-      <c r="CA58" s="132" t="n"/>
-      <c r="CB58" s="132" t="n"/>
-      <c r="CC58" s="132" t="n"/>
-      <c r="CD58" s="132" t="n"/>
-      <c r="CE58" s="132" t="n"/>
-      <c r="CF58" s="132" t="n"/>
-      <c r="CG58" s="132" t="n"/>
-      <c r="CH58" s="132" t="n"/>
-      <c r="CI58" s="132" t="n"/>
-      <c r="CJ58" s="132" t="n"/>
-      <c r="CK58" s="132" t="n"/>
-      <c r="CL58" s="132" t="n"/>
-      <c r="CM58" s="132" t="n"/>
-      <c r="CN58" s="132" t="n"/>
-      <c r="CO58" s="132" t="n"/>
-      <c r="CP58" s="132" t="n"/>
-      <c r="CQ58" s="132" t="n"/>
-      <c r="CR58" s="132" t="n"/>
-      <c r="CS58" s="132" t="n"/>
-      <c r="CT58" s="132" t="n"/>
-      <c r="CU58" s="132" t="n"/>
-      <c r="CV58" s="132" t="n"/>
-      <c r="CW58" s="132" t="n"/>
-      <c r="CX58" s="132" t="n"/>
-      <c r="CY58" s="132" t="n"/>
-      <c r="CZ58" s="132" t="n"/>
-      <c r="DA58" s="132" t="n"/>
-      <c r="DB58" s="132" t="n"/>
-      <c r="DC58" s="132" t="n"/>
-      <c r="DD58" s="132" t="n"/>
-      <c r="DE58" s="132" t="n"/>
-      <c r="DF58" s="132" t="n"/>
-      <c r="DG58" s="132" t="n"/>
-      <c r="DH58" s="132" t="n"/>
-      <c r="DI58" s="132" t="n"/>
-      <c r="DJ58" s="132" t="n"/>
-      <c r="DK58" s="132" t="n"/>
-      <c r="DL58" s="132" t="n"/>
-      <c r="DM58" s="132" t="n"/>
-      <c r="DN58" s="132" t="n"/>
-      <c r="DO58" s="132" t="n"/>
-      <c r="DP58" s="132" t="n"/>
-      <c r="DQ58" s="133" t="n"/>
-      <c r="DR58" s="133" t="n"/>
-      <c r="DS58" s="133" t="n"/>
-      <c r="DT58" s="133" t="n"/>
-      <c r="DU58" s="133" t="n"/>
-      <c r="DV58" s="133" t="n"/>
-      <c r="DW58" s="133" t="n"/>
-      <c r="DX58" s="133" t="n"/>
-      <c r="DY58" s="133" t="n"/>
-      <c r="DZ58" s="133" t="n"/>
-      <c r="EA58" s="133" t="n"/>
-      <c r="EB58" s="133" t="n"/>
-      <c r="EC58" s="133" t="n"/>
-      <c r="ED58" s="133" t="n"/>
-      <c r="EE58" s="133" t="n"/>
-      <c r="EF58" s="133" t="n"/>
-      <c r="EG58" s="133" t="n"/>
-      <c r="EH58" s="133" t="n"/>
-      <c r="EI58" s="133" t="n"/>
-      <c r="EJ58" s="133" t="n"/>
-      <c r="EK58" s="133" t="n"/>
-      <c r="EL58" s="133" t="n"/>
-      <c r="EM58" s="133" t="n"/>
-      <c r="EN58" s="133" t="n"/>
-      <c r="EO58" s="133" t="n"/>
-      <c r="EP58" s="133" t="n"/>
-      <c r="EQ58" s="133" t="n"/>
-      <c r="ER58" s="133" t="n"/>
-      <c r="ES58" s="133" t="n"/>
-      <c r="ET58" s="133" t="n"/>
-      <c r="EU58" s="133" t="n"/>
-      <c r="EV58" s="133" t="n"/>
-      <c r="EW58" s="133" t="n"/>
-      <c r="EX58" s="133" t="n"/>
-      <c r="EY58" s="133" t="n"/>
-      <c r="EZ58" s="133" t="n"/>
-      <c r="FA58" s="133" t="n"/>
-      <c r="FB58" s="133" t="n"/>
-      <c r="FC58" s="133" t="n"/>
-      <c r="FD58" s="133" t="n"/>
-      <c r="FE58" s="133" t="n"/>
-      <c r="FF58" s="133" t="n"/>
-      <c r="FG58" s="133" t="n"/>
-      <c r="FH58" s="133" t="n"/>
-      <c r="FI58" s="133" t="n"/>
-      <c r="FJ58" s="133" t="n"/>
-      <c r="FK58" s="133" t="n"/>
-      <c r="FL58" s="133" t="n"/>
-      <c r="FM58" s="133" t="n"/>
-      <c r="FN58" s="133" t="n"/>
-      <c r="FO58" s="133" t="n"/>
-      <c r="FP58" s="133" t="n"/>
-      <c r="FQ58" s="133" t="n"/>
-      <c r="FR58" s="133" t="n"/>
-      <c r="FS58" s="133" t="n"/>
-      <c r="FT58" s="133" t="n"/>
-      <c r="FU58" s="133" t="n"/>
-      <c r="FV58" s="133" t="n"/>
-      <c r="FW58" s="133" t="n"/>
-      <c r="FX58" s="133" t="n"/>
-      <c r="FY58" s="133" t="n"/>
-      <c r="FZ58" s="133" t="n"/>
-      <c r="GA58" s="133" t="n"/>
-      <c r="GB58" s="133" t="n"/>
-      <c r="GC58" s="133" t="n"/>
-      <c r="GD58" s="133" t="n"/>
-      <c r="GE58" s="133" t="n"/>
-      <c r="GF58" s="133" t="n"/>
-      <c r="GG58" s="133" t="n"/>
-      <c r="GH58" s="133" t="n"/>
-      <c r="GI58" s="133" t="n"/>
-      <c r="GJ58" s="133" t="n"/>
-      <c r="GK58" s="133" t="n"/>
-      <c r="GL58" s="133" t="n"/>
-      <c r="GM58" s="133" t="n"/>
-      <c r="GN58" s="133" t="n"/>
-      <c r="GO58" s="133" t="n"/>
-      <c r="GP58" s="133" t="n"/>
-      <c r="GQ58" s="133" t="n"/>
-      <c r="GR58" s="133" t="n"/>
-    </row>
-    <row r="59" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A59" s="26" t="n"/>
-      <c r="B59" s="74" t="inlineStr">
+      <c r="B58" s="15" t="inlineStr">
         <is>
           <t>Sprint 2</t>
         </is>
       </c>
-      <c r="C59" s="75" t="n"/>
-      <c r="D59" s="76" t="n"/>
-      <c r="E59" s="152" t="n"/>
-      <c r="F59" s="153" t="n"/>
+      <c r="C58" s="39" t="n"/>
+      <c r="D58" s="68" t="n"/>
+      <c r="E58" s="145" t="n"/>
+      <c r="F58" s="146" t="n"/>
+      <c r="G58" s="11" t="n"/>
+      <c r="H58" s="11">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I58" s="16" t="n"/>
+      <c r="J58" s="16" t="n"/>
+      <c r="K58" s="16" t="n"/>
+      <c r="L58" s="16" t="n"/>
+      <c r="M58" s="16" t="n"/>
+      <c r="N58" s="16" t="n"/>
+      <c r="O58" s="16" t="n"/>
+      <c r="P58" s="16" t="n"/>
+      <c r="Q58" s="16" t="n"/>
+      <c r="R58" s="16" t="n"/>
+      <c r="S58" s="16" t="n"/>
+      <c r="T58" s="16" t="n"/>
+      <c r="U58" s="16" t="n"/>
+      <c r="V58" s="16" t="n"/>
+      <c r="W58" s="16" t="n"/>
+      <c r="X58" s="16" t="n"/>
+      <c r="Y58" s="16" t="n"/>
+      <c r="Z58" s="16" t="n"/>
+      <c r="AA58" s="16" t="n"/>
+      <c r="AB58" s="16" t="n"/>
+      <c r="AC58" s="16" t="n"/>
+      <c r="AD58" s="16" t="n"/>
+      <c r="AE58" s="16" t="n"/>
+      <c r="AF58" s="16" t="n"/>
+      <c r="AG58" s="16" t="n"/>
+      <c r="AH58" s="16" t="n"/>
+      <c r="AI58" s="16" t="n"/>
+      <c r="AJ58" s="16" t="n"/>
+      <c r="AK58" s="16" t="n"/>
+      <c r="AL58" s="16" t="n"/>
+      <c r="AM58" s="16" t="n"/>
+      <c r="AN58" s="16" t="n"/>
+      <c r="AO58" s="16" t="n"/>
+      <c r="AP58" s="16" t="n"/>
+      <c r="AQ58" s="16" t="n"/>
+      <c r="AR58" s="16" t="n"/>
+      <c r="AS58" s="16" t="n"/>
+      <c r="AT58" s="16" t="n"/>
+      <c r="AU58" s="16" t="n"/>
+      <c r="AV58" s="16" t="n"/>
+      <c r="AW58" s="16" t="n"/>
+      <c r="AX58" s="16" t="n"/>
+      <c r="AY58" s="16" t="n"/>
+      <c r="AZ58" s="16" t="n"/>
+      <c r="BA58" s="16" t="n"/>
+      <c r="BB58" s="16" t="n"/>
+      <c r="BC58" s="16" t="n"/>
+      <c r="BD58" s="16" t="n"/>
+      <c r="BE58" s="16" t="n"/>
+      <c r="BF58" s="16" t="n"/>
+      <c r="BG58" s="16" t="n"/>
+      <c r="BH58" s="16" t="n"/>
+      <c r="BI58" s="16" t="n"/>
+      <c r="BJ58" s="16" t="n"/>
+      <c r="BK58" s="16" t="n"/>
+      <c r="BL58" s="16" t="n"/>
+      <c r="BM58" s="16" t="n"/>
+      <c r="BN58" s="16" t="n"/>
+      <c r="BO58" s="16" t="n"/>
+      <c r="BP58" s="16" t="n"/>
+      <c r="BQ58" s="16" t="n"/>
+      <c r="BR58" s="16" t="n"/>
+      <c r="BS58" s="16" t="n"/>
+      <c r="BT58" s="16" t="n"/>
+      <c r="BU58" s="16" t="n"/>
+      <c r="BV58" s="16" t="n"/>
+      <c r="BW58" s="16" t="n"/>
+      <c r="BX58" s="16" t="n"/>
+      <c r="BY58" s="16" t="n"/>
+      <c r="BZ58" s="16" t="n"/>
+      <c r="CA58" s="16" t="n"/>
+      <c r="CB58" s="16" t="n"/>
+      <c r="CC58" s="16" t="n"/>
+      <c r="CD58" s="16" t="n"/>
+      <c r="CE58" s="16" t="n"/>
+      <c r="CF58" s="16" t="n"/>
+      <c r="CG58" s="16" t="n"/>
+      <c r="CH58" s="16" t="n"/>
+      <c r="CI58" s="16" t="n"/>
+      <c r="CJ58" s="16" t="n"/>
+      <c r="CK58" s="16" t="n"/>
+      <c r="CL58" s="16" t="n"/>
+      <c r="CM58" s="16" t="n"/>
+      <c r="CN58" s="16" t="n"/>
+      <c r="CO58" s="16" t="n"/>
+      <c r="CP58" s="16" t="n"/>
+      <c r="CQ58" s="16" t="n"/>
+      <c r="CR58" s="16" t="n"/>
+      <c r="CS58" s="16" t="n"/>
+      <c r="CT58" s="16" t="n"/>
+      <c r="CU58" s="16" t="n"/>
+      <c r="CV58" s="16" t="n"/>
+      <c r="CW58" s="16" t="n"/>
+      <c r="CX58" s="16" t="n"/>
+      <c r="CY58" s="16" t="n"/>
+      <c r="CZ58" s="16" t="n"/>
+      <c r="DA58" s="16" t="n"/>
+      <c r="DB58" s="16" t="n"/>
+      <c r="DC58" s="16" t="n"/>
+      <c r="DD58" s="16" t="n"/>
+      <c r="DE58" s="16" t="n"/>
+      <c r="DF58" s="16" t="n"/>
+      <c r="DG58" s="16" t="n"/>
+      <c r="DH58" s="16" t="n"/>
+      <c r="DI58" s="16" t="n"/>
+      <c r="DJ58" s="16" t="n"/>
+      <c r="DK58" s="16" t="n"/>
+      <c r="DL58" s="16" t="n"/>
+      <c r="DM58" s="16" t="n"/>
+      <c r="DN58" s="16" t="n"/>
+      <c r="DO58" s="16" t="n"/>
+      <c r="DP58" s="16" t="n"/>
+    </row>
+    <row r="59" ht="30" customFormat="1" customHeight="1" s="105">
+      <c r="A59" s="27" t="n"/>
+      <c r="B59" s="44" t="inlineStr">
+        <is>
+          <t>Sprint 2</t>
+        </is>
+      </c>
+      <c r="C59" s="40" t="inlineStr"/>
+      <c r="D59" s="69" t="n"/>
+      <c r="E59" s="147" t="n">
+        <v>44739</v>
+      </c>
+      <c r="F59" s="147" t="n">
+        <v>44752</v>
+      </c>
       <c r="G59" s="11" t="n"/>
       <c r="H59" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -18954,151 +19266,231 @@
       <c r="DP59" s="16" t="n"/>
     </row>
     <row r="60" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A60" s="26" t="n"/>
-      <c r="B60" s="70" t="inlineStr">
-        <is>
-          <t>Sprint 2</t>
-        </is>
-      </c>
-      <c r="C60" s="71" t="inlineStr"/>
-      <c r="D60" s="72" t="n"/>
-      <c r="E60" s="154" t="n">
-        <v>44739</v>
-      </c>
-      <c r="F60" s="154" t="n">
-        <v>44752</v>
-      </c>
-      <c r="G60" s="11" t="n"/>
-      <c r="H60" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I60" s="16" t="n"/>
-      <c r="J60" s="16" t="n"/>
-      <c r="K60" s="16" t="n"/>
-      <c r="L60" s="16" t="n"/>
-      <c r="M60" s="16" t="n"/>
-      <c r="N60" s="16" t="n"/>
-      <c r="O60" s="16" t="n"/>
-      <c r="P60" s="16" t="n"/>
-      <c r="Q60" s="16" t="n"/>
-      <c r="R60" s="16" t="n"/>
-      <c r="S60" s="16" t="n"/>
-      <c r="T60" s="16" t="n"/>
-      <c r="U60" s="16" t="n"/>
-      <c r="V60" s="16" t="n"/>
-      <c r="W60" s="16" t="n"/>
-      <c r="X60" s="16" t="n"/>
-      <c r="Y60" s="16" t="n"/>
-      <c r="Z60" s="16" t="n"/>
-      <c r="AA60" s="16" t="n"/>
-      <c r="AB60" s="16" t="n"/>
-      <c r="AC60" s="16" t="n"/>
-      <c r="AD60" s="16" t="n"/>
-      <c r="AE60" s="16" t="n"/>
-      <c r="AF60" s="16" t="n"/>
-      <c r="AG60" s="16" t="n"/>
-      <c r="AH60" s="16" t="n"/>
-      <c r="AI60" s="16" t="n"/>
-      <c r="AJ60" s="16" t="n"/>
-      <c r="AK60" s="16" t="n"/>
-      <c r="AL60" s="16" t="n"/>
-      <c r="AM60" s="16" t="n"/>
-      <c r="AN60" s="16" t="n"/>
-      <c r="AO60" s="16" t="n"/>
-      <c r="AP60" s="16" t="n"/>
-      <c r="AQ60" s="16" t="n"/>
-      <c r="AR60" s="16" t="n"/>
-      <c r="AS60" s="16" t="n"/>
-      <c r="AT60" s="16" t="n"/>
-      <c r="AU60" s="16" t="n"/>
-      <c r="AV60" s="16" t="n"/>
-      <c r="AW60" s="16" t="n"/>
-      <c r="AX60" s="16" t="n"/>
-      <c r="AY60" s="16" t="n"/>
-      <c r="AZ60" s="16" t="n"/>
-      <c r="BA60" s="16" t="n"/>
-      <c r="BB60" s="16" t="n"/>
-      <c r="BC60" s="16" t="n"/>
-      <c r="BD60" s="16" t="n"/>
-      <c r="BE60" s="16" t="n"/>
-      <c r="BF60" s="16" t="n"/>
-      <c r="BG60" s="16" t="n"/>
-      <c r="BH60" s="16" t="n"/>
-      <c r="BI60" s="16" t="n"/>
-      <c r="BJ60" s="16" t="n"/>
-      <c r="BK60" s="16" t="n"/>
-      <c r="BL60" s="16" t="n"/>
-      <c r="BM60" s="16" t="n"/>
-      <c r="BN60" s="16" t="n"/>
-      <c r="BO60" s="16" t="n"/>
-      <c r="BP60" s="16" t="n"/>
-      <c r="BQ60" s="16" t="n"/>
-      <c r="BR60" s="16" t="n"/>
-      <c r="BS60" s="16" t="n"/>
-      <c r="BT60" s="16" t="n"/>
-      <c r="BU60" s="16" t="n"/>
-      <c r="BV60" s="16" t="n"/>
-      <c r="BW60" s="16" t="n"/>
-      <c r="BX60" s="16" t="n"/>
-      <c r="BY60" s="16" t="n"/>
-      <c r="BZ60" s="16" t="n"/>
-      <c r="CA60" s="16" t="n"/>
-      <c r="CB60" s="16" t="n"/>
-      <c r="CC60" s="16" t="n"/>
-      <c r="CD60" s="16" t="n"/>
-      <c r="CE60" s="16" t="n"/>
-      <c r="CF60" s="16" t="n"/>
-      <c r="CG60" s="16" t="n"/>
-      <c r="CH60" s="16" t="n"/>
-      <c r="CI60" s="16" t="n"/>
-      <c r="CJ60" s="16" t="n"/>
-      <c r="CK60" s="16" t="n"/>
-      <c r="CL60" s="16" t="n"/>
-      <c r="CM60" s="16" t="n"/>
-      <c r="CN60" s="16" t="n"/>
-      <c r="CO60" s="16" t="n"/>
-      <c r="CP60" s="16" t="n"/>
-      <c r="CQ60" s="16" t="n"/>
-      <c r="CR60" s="16" t="n"/>
-      <c r="CS60" s="16" t="n"/>
-      <c r="CT60" s="16" t="n"/>
-      <c r="CU60" s="16" t="n"/>
-      <c r="CV60" s="16" t="n"/>
-      <c r="CW60" s="16" t="n"/>
-      <c r="CX60" s="16" t="n"/>
-      <c r="CY60" s="16" t="n"/>
-      <c r="CZ60" s="16" t="n"/>
-      <c r="DA60" s="16" t="n"/>
-      <c r="DB60" s="16" t="n"/>
-      <c r="DC60" s="16" t="n"/>
-      <c r="DD60" s="16" t="n"/>
-      <c r="DE60" s="16" t="n"/>
-      <c r="DF60" s="16" t="n"/>
-      <c r="DG60" s="16" t="n"/>
-      <c r="DH60" s="16" t="n"/>
-      <c r="DI60" s="16" t="n"/>
-      <c r="DJ60" s="16" t="n"/>
-      <c r="DK60" s="16" t="n"/>
-      <c r="DL60" s="16" t="n"/>
-      <c r="DM60" s="16" t="n"/>
-      <c r="DN60" s="16" t="n"/>
-      <c r="DO60" s="16" t="n"/>
-      <c r="DP60" s="16" t="n"/>
-    </row>
-    <row r="61" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A61" s="137" t="n"/>
-      <c r="B61" s="155" t="inlineStr">
+      <c r="A60" s="126" t="n"/>
+      <c r="B60" s="148" t="inlineStr">
         <is>
           <t>Sprint Planning</t>
         </is>
       </c>
-      <c r="C61" s="156" t="inlineStr"/>
-      <c r="D61" s="157" t="n"/>
-      <c r="E61" s="158" t="n">
+      <c r="C60" s="149" t="inlineStr"/>
+      <c r="D60" s="150" t="n"/>
+      <c r="E60" s="151" t="n">
         <v>44739</v>
       </c>
-      <c r="F61" s="158" t="n">
+      <c r="F60" s="151" t="n">
+        <v>44739</v>
+      </c>
+      <c r="G60" s="131" t="n"/>
+      <c r="H60" s="131">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I60" s="132" t="n"/>
+      <c r="J60" s="132" t="n"/>
+      <c r="K60" s="132" t="n"/>
+      <c r="L60" s="132" t="n"/>
+      <c r="M60" s="132" t="n"/>
+      <c r="N60" s="132" t="n"/>
+      <c r="O60" s="132" t="n"/>
+      <c r="P60" s="132" t="n"/>
+      <c r="Q60" s="132" t="n"/>
+      <c r="R60" s="132" t="n"/>
+      <c r="S60" s="132" t="n"/>
+      <c r="T60" s="132" t="n"/>
+      <c r="U60" s="132" t="n"/>
+      <c r="V60" s="132" t="n"/>
+      <c r="W60" s="132" t="n"/>
+      <c r="X60" s="132" t="n"/>
+      <c r="Y60" s="132" t="n"/>
+      <c r="Z60" s="132" t="n"/>
+      <c r="AA60" s="132" t="n"/>
+      <c r="AB60" s="132" t="n"/>
+      <c r="AC60" s="132" t="n"/>
+      <c r="AD60" s="132" t="n"/>
+      <c r="AE60" s="132" t="n"/>
+      <c r="AF60" s="132" t="n"/>
+      <c r="AG60" s="132" t="n"/>
+      <c r="AH60" s="132" t="n"/>
+      <c r="AI60" s="132" t="n"/>
+      <c r="AJ60" s="132" t="n"/>
+      <c r="AK60" s="132" t="n"/>
+      <c r="AL60" s="132" t="n"/>
+      <c r="AM60" s="132" t="n"/>
+      <c r="AN60" s="132" t="n"/>
+      <c r="AO60" s="132" t="n"/>
+      <c r="AP60" s="132" t="n"/>
+      <c r="AQ60" s="132" t="n"/>
+      <c r="AR60" s="132" t="n"/>
+      <c r="AS60" s="132" t="n"/>
+      <c r="AT60" s="132" t="n"/>
+      <c r="AU60" s="132" t="n"/>
+      <c r="AV60" s="132" t="n"/>
+      <c r="AW60" s="132" t="n"/>
+      <c r="AX60" s="132" t="n"/>
+      <c r="AY60" s="132" t="n"/>
+      <c r="AZ60" s="132" t="n"/>
+      <c r="BA60" s="132" t="n"/>
+      <c r="BB60" s="132" t="n"/>
+      <c r="BC60" s="132" t="n"/>
+      <c r="BD60" s="132" t="n"/>
+      <c r="BE60" s="132" t="n"/>
+      <c r="BF60" s="132" t="n"/>
+      <c r="BG60" s="132" t="n"/>
+      <c r="BH60" s="132" t="n"/>
+      <c r="BI60" s="132" t="n"/>
+      <c r="BJ60" s="132" t="n"/>
+      <c r="BK60" s="132" t="n"/>
+      <c r="BL60" s="132" t="n"/>
+      <c r="BM60" s="132" t="n"/>
+      <c r="BN60" s="132" t="n"/>
+      <c r="BO60" s="132" t="n"/>
+      <c r="BP60" s="132" t="n"/>
+      <c r="BQ60" s="132" t="n"/>
+      <c r="BR60" s="132" t="n"/>
+      <c r="BS60" s="132" t="n"/>
+      <c r="BT60" s="132" t="n"/>
+      <c r="BU60" s="132" t="n"/>
+      <c r="BV60" s="132" t="n"/>
+      <c r="BW60" s="132" t="n"/>
+      <c r="BX60" s="132" t="n"/>
+      <c r="BY60" s="132" t="n"/>
+      <c r="BZ60" s="132" t="n"/>
+      <c r="CA60" s="132" t="n"/>
+      <c r="CB60" s="132" t="n"/>
+      <c r="CC60" s="132" t="n"/>
+      <c r="CD60" s="132" t="n"/>
+      <c r="CE60" s="132" t="n"/>
+      <c r="CF60" s="132" t="n"/>
+      <c r="CG60" s="132" t="n"/>
+      <c r="CH60" s="132" t="n"/>
+      <c r="CI60" s="132" t="n"/>
+      <c r="CJ60" s="132" t="n"/>
+      <c r="CK60" s="132" t="n"/>
+      <c r="CL60" s="132" t="n"/>
+      <c r="CM60" s="132" t="n"/>
+      <c r="CN60" s="132" t="n"/>
+      <c r="CO60" s="132" t="n"/>
+      <c r="CP60" s="132" t="n"/>
+      <c r="CQ60" s="132" t="n"/>
+      <c r="CR60" s="132" t="n"/>
+      <c r="CS60" s="132" t="n"/>
+      <c r="CT60" s="132" t="n"/>
+      <c r="CU60" s="132" t="n"/>
+      <c r="CV60" s="132" t="n"/>
+      <c r="CW60" s="132" t="n"/>
+      <c r="CX60" s="132" t="n"/>
+      <c r="CY60" s="132" t="n"/>
+      <c r="CZ60" s="132" t="n"/>
+      <c r="DA60" s="132" t="n"/>
+      <c r="DB60" s="132" t="n"/>
+      <c r="DC60" s="132" t="n"/>
+      <c r="DD60" s="132" t="n"/>
+      <c r="DE60" s="132" t="n"/>
+      <c r="DF60" s="132" t="n"/>
+      <c r="DG60" s="132" t="n"/>
+      <c r="DH60" s="132" t="n"/>
+      <c r="DI60" s="132" t="n"/>
+      <c r="DJ60" s="132" t="n"/>
+      <c r="DK60" s="132" t="n"/>
+      <c r="DL60" s="132" t="n"/>
+      <c r="DM60" s="132" t="n"/>
+      <c r="DN60" s="132" t="n"/>
+      <c r="DO60" s="132" t="n"/>
+      <c r="DP60" s="132" t="n"/>
+      <c r="DQ60" s="133" t="n"/>
+      <c r="DR60" s="133" t="n"/>
+      <c r="DS60" s="133" t="n"/>
+      <c r="DT60" s="133" t="n"/>
+      <c r="DU60" s="133" t="n"/>
+      <c r="DV60" s="133" t="n"/>
+      <c r="DW60" s="133" t="n"/>
+      <c r="DX60" s="133" t="n"/>
+      <c r="DY60" s="133" t="n"/>
+      <c r="DZ60" s="133" t="n"/>
+      <c r="EA60" s="133" t="n"/>
+      <c r="EB60" s="133" t="n"/>
+      <c r="EC60" s="133" t="n"/>
+      <c r="ED60" s="133" t="n"/>
+      <c r="EE60" s="133" t="n"/>
+      <c r="EF60" s="133" t="n"/>
+      <c r="EG60" s="133" t="n"/>
+      <c r="EH60" s="133" t="n"/>
+      <c r="EI60" s="133" t="n"/>
+      <c r="EJ60" s="133" t="n"/>
+      <c r="EK60" s="133" t="n"/>
+      <c r="EL60" s="133" t="n"/>
+      <c r="EM60" s="133" t="n"/>
+      <c r="EN60" s="133" t="n"/>
+      <c r="EO60" s="133" t="n"/>
+      <c r="EP60" s="133" t="n"/>
+      <c r="EQ60" s="133" t="n"/>
+      <c r="ER60" s="133" t="n"/>
+      <c r="ES60" s="133" t="n"/>
+      <c r="ET60" s="133" t="n"/>
+      <c r="EU60" s="133" t="n"/>
+      <c r="EV60" s="133" t="n"/>
+      <c r="EW60" s="133" t="n"/>
+      <c r="EX60" s="133" t="n"/>
+      <c r="EY60" s="133" t="n"/>
+      <c r="EZ60" s="133" t="n"/>
+      <c r="FA60" s="133" t="n"/>
+      <c r="FB60" s="133" t="n"/>
+      <c r="FC60" s="133" t="n"/>
+      <c r="FD60" s="133" t="n"/>
+      <c r="FE60" s="133" t="n"/>
+      <c r="FF60" s="133" t="n"/>
+      <c r="FG60" s="133" t="n"/>
+      <c r="FH60" s="133" t="n"/>
+      <c r="FI60" s="133" t="n"/>
+      <c r="FJ60" s="133" t="n"/>
+      <c r="FK60" s="133" t="n"/>
+      <c r="FL60" s="133" t="n"/>
+      <c r="FM60" s="133" t="n"/>
+      <c r="FN60" s="133" t="n"/>
+      <c r="FO60" s="133" t="n"/>
+      <c r="FP60" s="133" t="n"/>
+      <c r="FQ60" s="133" t="n"/>
+      <c r="FR60" s="133" t="n"/>
+      <c r="FS60" s="133" t="n"/>
+      <c r="FT60" s="133" t="n"/>
+      <c r="FU60" s="133" t="n"/>
+      <c r="FV60" s="133" t="n"/>
+      <c r="FW60" s="133" t="n"/>
+      <c r="FX60" s="133" t="n"/>
+      <c r="FY60" s="133" t="n"/>
+      <c r="FZ60" s="133" t="n"/>
+      <c r="GA60" s="133" t="n"/>
+      <c r="GB60" s="133" t="n"/>
+      <c r="GC60" s="133" t="n"/>
+      <c r="GD60" s="133" t="n"/>
+      <c r="GE60" s="133" t="n"/>
+      <c r="GF60" s="133" t="n"/>
+      <c r="GG60" s="133" t="n"/>
+      <c r="GH60" s="133" t="n"/>
+      <c r="GI60" s="133" t="n"/>
+      <c r="GJ60" s="133" t="n"/>
+      <c r="GK60" s="133" t="n"/>
+      <c r="GL60" s="133" t="n"/>
+      <c r="GM60" s="133" t="n"/>
+      <c r="GN60" s="133" t="n"/>
+      <c r="GO60" s="133" t="n"/>
+      <c r="GP60" s="133" t="n"/>
+      <c r="GQ60" s="133" t="n"/>
+      <c r="GR60" s="133" t="n"/>
+    </row>
+    <row r="61" ht="30" customFormat="1" customHeight="1" s="105">
+      <c r="A61" s="126" t="n"/>
+      <c r="B61" s="148" t="inlineStr">
+        <is>
+          <t>Set sprint goals</t>
+        </is>
+      </c>
+      <c r="C61" s="149" t="inlineStr"/>
+      <c r="D61" s="150" t="n"/>
+      <c r="E61" s="151" t="n">
+        <v>44739</v>
+      </c>
+      <c r="F61" s="151" t="n">
         <v>44739</v>
       </c>
       <c r="G61" s="131" t="n"/>
@@ -19300,18 +19692,18 @@
       <c r="GR61" s="133" t="n"/>
     </row>
     <row r="62" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A62" s="137" t="n"/>
-      <c r="B62" s="155" t="inlineStr">
+      <c r="A62" s="126" t="n"/>
+      <c r="B62" s="148" t="inlineStr">
         <is>
-          <t>Set sprint goals</t>
+          <t>Create sprint backlog (keep feasible for about 2 weeks)</t>
         </is>
       </c>
-      <c r="C62" s="156" t="inlineStr"/>
-      <c r="D62" s="157" t="n"/>
-      <c r="E62" s="158" t="n">
+      <c r="C62" s="149" t="inlineStr"/>
+      <c r="D62" s="150" t="n"/>
+      <c r="E62" s="151" t="n">
         <v>44739</v>
       </c>
-      <c r="F62" s="158" t="n">
+      <c r="F62" s="151" t="n">
         <v>44739</v>
       </c>
       <c r="G62" s="131" t="n"/>
@@ -19513,18 +19905,18 @@
       <c r="GR62" s="133" t="n"/>
     </row>
     <row r="63" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A63" s="137" t="n"/>
-      <c r="B63" s="155" t="inlineStr">
+      <c r="A63" s="126" t="n"/>
+      <c r="B63" s="148" t="inlineStr">
         <is>
-          <t>Create sprint backlog (keep feasible for about 2 weeks)</t>
+          <t>Create quick simple designs for any complex functionality</t>
         </is>
       </c>
-      <c r="C63" s="156" t="inlineStr"/>
-      <c r="D63" s="157" t="n"/>
-      <c r="E63" s="158" t="n">
+      <c r="C63" s="149" t="inlineStr"/>
+      <c r="D63" s="150" t="n"/>
+      <c r="E63" s="151" t="n">
         <v>44739</v>
       </c>
-      <c r="F63" s="158" t="n">
+      <c r="F63" s="151" t="n">
         <v>44739</v>
       </c>
       <c r="G63" s="131" t="n"/>
@@ -19726,19 +20118,19 @@
       <c r="GR63" s="133" t="n"/>
     </row>
     <row r="64" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A64" s="137" t="n"/>
-      <c r="B64" s="155" t="inlineStr">
+      <c r="A64" s="126" t="n"/>
+      <c r="B64" s="148" t="inlineStr">
         <is>
-          <t>Create quick simple designs for any complex functionality</t>
+          <t>Sprint</t>
         </is>
       </c>
-      <c r="C64" s="156" t="inlineStr"/>
-      <c r="D64" s="157" t="n"/>
-      <c r="E64" s="158" t="n">
-        <v>44739</v>
-      </c>
-      <c r="F64" s="158" t="n">
-        <v>44739</v>
+      <c r="C64" s="149" t="inlineStr"/>
+      <c r="D64" s="150" t="n"/>
+      <c r="E64" s="151" t="n">
+        <v>44740</v>
+      </c>
+      <c r="F64" s="151" t="n">
+        <v>44748</v>
       </c>
       <c r="G64" s="131" t="n"/>
       <c r="H64" s="131">
@@ -19939,19 +20331,19 @@
       <c r="GR64" s="133" t="n"/>
     </row>
     <row r="65" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A65" s="137" t="n"/>
-      <c r="B65" s="155" t="inlineStr">
+      <c r="A65" s="126" t="n"/>
+      <c r="B65" s="148" t="inlineStr">
         <is>
-          <t>Sprint</t>
+          <t>Daily Scrum + Standup (short blog post for me)</t>
         </is>
       </c>
-      <c r="C65" s="156" t="inlineStr"/>
-      <c r="D65" s="157" t="n"/>
-      <c r="E65" s="158" t="n">
+      <c r="C65" s="149" t="inlineStr"/>
+      <c r="D65" s="150" t="n"/>
+      <c r="E65" s="151" t="n">
         <v>44740</v>
       </c>
-      <c r="F65" s="158" t="n">
-        <v>44748</v>
+      <c r="F65" s="151" t="n">
+        <v>44740</v>
       </c>
       <c r="G65" s="131" t="n"/>
       <c r="H65" s="131">
@@ -20152,19 +20544,19 @@
       <c r="GR65" s="133" t="n"/>
     </row>
     <row r="66" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A66" s="137" t="n"/>
-      <c r="B66" s="155" t="inlineStr">
+      <c r="A66" s="126" t="n"/>
+      <c r="B66" s="148" t="inlineStr">
         <is>
-          <t>Daily Scrum + Standup (short blog post for me)</t>
+          <t>Sprint Review</t>
         </is>
       </c>
-      <c r="C66" s="156" t="inlineStr"/>
-      <c r="D66" s="157" t="n"/>
-      <c r="E66" s="158" t="n">
-        <v>44740</v>
-      </c>
-      <c r="F66" s="158" t="n">
-        <v>44740</v>
+      <c r="C66" s="149" t="inlineStr"/>
+      <c r="D66" s="150" t="n"/>
+      <c r="E66" s="151" t="n">
+        <v>44749</v>
+      </c>
+      <c r="F66" s="151" t="n">
+        <v>44750</v>
       </c>
       <c r="G66" s="131" t="n"/>
       <c r="H66" s="131">
@@ -20365,19 +20757,19 @@
       <c r="GR66" s="133" t="n"/>
     </row>
     <row r="67" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A67" s="137" t="n"/>
-      <c r="B67" s="155" t="inlineStr">
+      <c r="A67" s="126" t="n"/>
+      <c r="B67" s="148" t="inlineStr">
         <is>
-          <t>Sprint Review</t>
+          <t>Create demo to show Ms. Cotugno</t>
         </is>
       </c>
-      <c r="C67" s="156" t="inlineStr"/>
-      <c r="D67" s="157" t="n"/>
-      <c r="E67" s="158" t="n">
+      <c r="C67" s="149" t="inlineStr"/>
+      <c r="D67" s="150" t="n"/>
+      <c r="E67" s="151" t="n">
         <v>44749</v>
       </c>
-      <c r="F67" s="158" t="n">
-        <v>44750</v>
+      <c r="F67" s="151" t="n">
+        <v>44749</v>
       </c>
       <c r="G67" s="131" t="n"/>
       <c r="H67" s="131">
@@ -20578,18 +20970,18 @@
       <c r="GR67" s="133" t="n"/>
     </row>
     <row r="68" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A68" s="137" t="n"/>
-      <c r="B68" s="155" t="inlineStr">
+      <c r="A68" s="126" t="n"/>
+      <c r="B68" s="148" t="inlineStr">
         <is>
-          <t>Create demo to show Ms. Cotugno</t>
+          <t>Document product backlog completed</t>
         </is>
       </c>
-      <c r="C68" s="156" t="inlineStr"/>
-      <c r="D68" s="157" t="n"/>
-      <c r="E68" s="158" t="n">
+      <c r="C68" s="149" t="inlineStr"/>
+      <c r="D68" s="150" t="n"/>
+      <c r="E68" s="151" t="n">
         <v>44749</v>
       </c>
-      <c r="F68" s="158" t="n">
+      <c r="F68" s="151" t="n">
         <v>44749</v>
       </c>
       <c r="G68" s="131" t="n"/>
@@ -20791,19 +21183,19 @@
       <c r="GR68" s="133" t="n"/>
     </row>
     <row r="69" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A69" s="137" t="n"/>
-      <c r="B69" s="155" t="inlineStr">
+      <c r="A69" s="126" t="n"/>
+      <c r="B69" s="148" t="inlineStr">
         <is>
-          <t>Document product backlog completed</t>
+          <t>Update product backlog for sprint</t>
         </is>
       </c>
-      <c r="C69" s="156" t="inlineStr"/>
-      <c r="D69" s="157" t="n"/>
-      <c r="E69" s="158" t="n">
-        <v>44749</v>
-      </c>
-      <c r="F69" s="158" t="n">
-        <v>44749</v>
+      <c r="C69" s="149" t="inlineStr"/>
+      <c r="D69" s="150" t="n"/>
+      <c r="E69" s="151" t="n">
+        <v>44750</v>
+      </c>
+      <c r="F69" s="151" t="n">
+        <v>44750</v>
       </c>
       <c r="G69" s="131" t="n"/>
       <c r="H69" s="131">
@@ -21004,18 +21396,18 @@
       <c r="GR69" s="133" t="n"/>
     </row>
     <row r="70" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A70" s="137" t="n"/>
-      <c r="B70" s="155" t="inlineStr">
+      <c r="A70" s="126" t="n"/>
+      <c r="B70" s="148" t="inlineStr">
         <is>
-          <t>Update product backlog for sprint</t>
+          <t>Create beta release to get feedback from clients</t>
         </is>
       </c>
-      <c r="C70" s="156" t="inlineStr"/>
-      <c r="D70" s="157" t="n"/>
-      <c r="E70" s="158" t="n">
+      <c r="C70" s="149" t="inlineStr"/>
+      <c r="D70" s="150" t="n"/>
+      <c r="E70" s="151" t="n">
         <v>44750</v>
       </c>
-      <c r="F70" s="158" t="n">
+      <c r="F70" s="151" t="n">
         <v>44750</v>
       </c>
       <c r="G70" s="131" t="n"/>
@@ -21217,19 +21609,19 @@
       <c r="GR70" s="133" t="n"/>
     </row>
     <row r="71" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A71" s="137" t="n"/>
-      <c r="B71" s="155" t="inlineStr">
+      <c r="A71" s="126" t="n"/>
+      <c r="B71" s="148" t="inlineStr">
         <is>
-          <t>Create beta release to get feedback from clients</t>
+          <t>Sprint Retrospective</t>
         </is>
       </c>
-      <c r="C71" s="156" t="inlineStr"/>
-      <c r="D71" s="157" t="n"/>
-      <c r="E71" s="158" t="n">
-        <v>44750</v>
-      </c>
-      <c r="F71" s="158" t="n">
-        <v>44750</v>
+      <c r="C71" s="149" t="inlineStr"/>
+      <c r="D71" s="150" t="n"/>
+      <c r="E71" s="151" t="n">
+        <v>44751</v>
+      </c>
+      <c r="F71" s="151" t="n">
+        <v>44752</v>
       </c>
       <c r="G71" s="131" t="n"/>
       <c r="H71" s="131">
@@ -21430,19 +21822,19 @@
       <c r="GR71" s="133" t="n"/>
     </row>
     <row r="72" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A72" s="137" t="n"/>
-      <c r="B72" s="155" t="inlineStr">
+      <c r="A72" s="126" t="n"/>
+      <c r="B72" s="148" t="inlineStr">
         <is>
-          <t>Sprint Retrospective</t>
+          <t>Create blog post for what went well/didn't etc</t>
         </is>
       </c>
-      <c r="C72" s="156" t="inlineStr"/>
-      <c r="D72" s="157" t="n"/>
-      <c r="E72" s="158" t="n">
+      <c r="C72" s="149" t="inlineStr"/>
+      <c r="D72" s="150" t="n"/>
+      <c r="E72" s="151" t="n">
         <v>44751</v>
       </c>
-      <c r="F72" s="158" t="n">
-        <v>44752</v>
+      <c r="F72" s="151" t="n">
+        <v>44751</v>
       </c>
       <c r="G72" s="131" t="n"/>
       <c r="H72" s="131">
@@ -21643,18 +22035,18 @@
       <c r="GR72" s="133" t="n"/>
     </row>
     <row r="73" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A73" s="137" t="n"/>
-      <c r="B73" s="155" t="inlineStr">
+      <c r="A73" s="126" t="n"/>
+      <c r="B73" s="148" t="inlineStr">
         <is>
-          <t>Create blog post for what went well/didn't etc</t>
+          <t>Update project backlog based on client feedback</t>
         </is>
       </c>
-      <c r="C73" s="156" t="inlineStr"/>
-      <c r="D73" s="157" t="n"/>
-      <c r="E73" s="158" t="n">
+      <c r="C73" s="149" t="inlineStr"/>
+      <c r="D73" s="150" t="n"/>
+      <c r="E73" s="151" t="n">
         <v>44751</v>
       </c>
-      <c r="F73" s="158" t="n">
+      <c r="F73" s="151" t="n">
         <v>44751</v>
       </c>
       <c r="G73" s="131" t="n"/>
@@ -21856,19 +22248,19 @@
       <c r="GR73" s="133" t="n"/>
     </row>
     <row r="74" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A74" s="137" t="n"/>
-      <c r="B74" s="155" t="inlineStr">
+      <c r="A74" s="126" t="n"/>
+      <c r="B74" s="148" t="inlineStr">
         <is>
-          <t>Update project backlog based on client feedback</t>
+          <t>Update documentation for project so everything is clear</t>
         </is>
       </c>
-      <c r="C74" s="156" t="inlineStr"/>
-      <c r="D74" s="157" t="n"/>
-      <c r="E74" s="158" t="n">
+      <c r="C74" s="149" t="inlineStr"/>
+      <c r="D74" s="150" t="n"/>
+      <c r="E74" s="151" t="n">
         <v>44751</v>
       </c>
-      <c r="F74" s="158" t="n">
-        <v>44751</v>
+      <c r="F74" s="151" t="n">
+        <v>44752</v>
       </c>
       <c r="G74" s="131" t="n"/>
       <c r="H74" s="131">
@@ -22069,229 +22461,145 @@
       <c r="GR74" s="133" t="n"/>
     </row>
     <row r="75" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A75" s="137" t="n"/>
-      <c r="B75" s="155" t="inlineStr">
+      <c r="A75" s="26" t="n"/>
+      <c r="B75" s="74" t="inlineStr">
         <is>
-          <t>Update documentation for project so everything is clear</t>
+          <t>Sprint 3</t>
         </is>
       </c>
-      <c r="C75" s="156" t="inlineStr"/>
-      <c r="D75" s="157" t="n"/>
-      <c r="E75" s="158" t="n">
-        <v>44751</v>
-      </c>
-      <c r="F75" s="158" t="n">
-        <v>44752</v>
-      </c>
-      <c r="G75" s="131" t="n"/>
-      <c r="H75" s="131">
+      <c r="C75" s="75" t="n"/>
+      <c r="D75" s="76" t="n"/>
+      <c r="E75" s="152" t="n"/>
+      <c r="F75" s="153" t="n"/>
+      <c r="G75" s="11" t="n"/>
+      <c r="H75" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I75" s="132" t="n"/>
-      <c r="J75" s="132" t="n"/>
-      <c r="K75" s="132" t="n"/>
-      <c r="L75" s="132" t="n"/>
-      <c r="M75" s="132" t="n"/>
-      <c r="N75" s="132" t="n"/>
-      <c r="O75" s="132" t="n"/>
-      <c r="P75" s="132" t="n"/>
-      <c r="Q75" s="132" t="n"/>
-      <c r="R75" s="132" t="n"/>
-      <c r="S75" s="132" t="n"/>
-      <c r="T75" s="132" t="n"/>
-      <c r="U75" s="132" t="n"/>
-      <c r="V75" s="132" t="n"/>
-      <c r="W75" s="132" t="n"/>
-      <c r="X75" s="132" t="n"/>
-      <c r="Y75" s="132" t="n"/>
-      <c r="Z75" s="132" t="n"/>
-      <c r="AA75" s="132" t="n"/>
-      <c r="AB75" s="132" t="n"/>
-      <c r="AC75" s="132" t="n"/>
-      <c r="AD75" s="132" t="n"/>
-      <c r="AE75" s="132" t="n"/>
-      <c r="AF75" s="132" t="n"/>
-      <c r="AG75" s="132" t="n"/>
-      <c r="AH75" s="132" t="n"/>
-      <c r="AI75" s="132" t="n"/>
-      <c r="AJ75" s="132" t="n"/>
-      <c r="AK75" s="132" t="n"/>
-      <c r="AL75" s="132" t="n"/>
-      <c r="AM75" s="132" t="n"/>
-      <c r="AN75" s="132" t="n"/>
-      <c r="AO75" s="132" t="n"/>
-      <c r="AP75" s="132" t="n"/>
-      <c r="AQ75" s="132" t="n"/>
-      <c r="AR75" s="132" t="n"/>
-      <c r="AS75" s="132" t="n"/>
-      <c r="AT75" s="132" t="n"/>
-      <c r="AU75" s="132" t="n"/>
-      <c r="AV75" s="132" t="n"/>
-      <c r="AW75" s="132" t="n"/>
-      <c r="AX75" s="132" t="n"/>
-      <c r="AY75" s="132" t="n"/>
-      <c r="AZ75" s="132" t="n"/>
-      <c r="BA75" s="132" t="n"/>
-      <c r="BB75" s="132" t="n"/>
-      <c r="BC75" s="132" t="n"/>
-      <c r="BD75" s="132" t="n"/>
-      <c r="BE75" s="132" t="n"/>
-      <c r="BF75" s="132" t="n"/>
-      <c r="BG75" s="132" t="n"/>
-      <c r="BH75" s="132" t="n"/>
-      <c r="BI75" s="132" t="n"/>
-      <c r="BJ75" s="132" t="n"/>
-      <c r="BK75" s="132" t="n"/>
-      <c r="BL75" s="132" t="n"/>
-      <c r="BM75" s="132" t="n"/>
-      <c r="BN75" s="132" t="n"/>
-      <c r="BO75" s="132" t="n"/>
-      <c r="BP75" s="132" t="n"/>
-      <c r="BQ75" s="132" t="n"/>
-      <c r="BR75" s="132" t="n"/>
-      <c r="BS75" s="132" t="n"/>
-      <c r="BT75" s="132" t="n"/>
-      <c r="BU75" s="132" t="n"/>
-      <c r="BV75" s="132" t="n"/>
-      <c r="BW75" s="132" t="n"/>
-      <c r="BX75" s="132" t="n"/>
-      <c r="BY75" s="132" t="n"/>
-      <c r="BZ75" s="132" t="n"/>
-      <c r="CA75" s="132" t="n"/>
-      <c r="CB75" s="132" t="n"/>
-      <c r="CC75" s="132" t="n"/>
-      <c r="CD75" s="132" t="n"/>
-      <c r="CE75" s="132" t="n"/>
-      <c r="CF75" s="132" t="n"/>
-      <c r="CG75" s="132" t="n"/>
-      <c r="CH75" s="132" t="n"/>
-      <c r="CI75" s="132" t="n"/>
-      <c r="CJ75" s="132" t="n"/>
-      <c r="CK75" s="132" t="n"/>
-      <c r="CL75" s="132" t="n"/>
-      <c r="CM75" s="132" t="n"/>
-      <c r="CN75" s="132" t="n"/>
-      <c r="CO75" s="132" t="n"/>
-      <c r="CP75" s="132" t="n"/>
-      <c r="CQ75" s="132" t="n"/>
-      <c r="CR75" s="132" t="n"/>
-      <c r="CS75" s="132" t="n"/>
-      <c r="CT75" s="132" t="n"/>
-      <c r="CU75" s="132" t="n"/>
-      <c r="CV75" s="132" t="n"/>
-      <c r="CW75" s="132" t="n"/>
-      <c r="CX75" s="132" t="n"/>
-      <c r="CY75" s="132" t="n"/>
-      <c r="CZ75" s="132" t="n"/>
-      <c r="DA75" s="132" t="n"/>
-      <c r="DB75" s="132" t="n"/>
-      <c r="DC75" s="132" t="n"/>
-      <c r="DD75" s="132" t="n"/>
-      <c r="DE75" s="132" t="n"/>
-      <c r="DF75" s="132" t="n"/>
-      <c r="DG75" s="132" t="n"/>
-      <c r="DH75" s="132" t="n"/>
-      <c r="DI75" s="132" t="n"/>
-      <c r="DJ75" s="132" t="n"/>
-      <c r="DK75" s="132" t="n"/>
-      <c r="DL75" s="132" t="n"/>
-      <c r="DM75" s="132" t="n"/>
-      <c r="DN75" s="132" t="n"/>
-      <c r="DO75" s="132" t="n"/>
-      <c r="DP75" s="132" t="n"/>
-      <c r="DQ75" s="133" t="n"/>
-      <c r="DR75" s="133" t="n"/>
-      <c r="DS75" s="133" t="n"/>
-      <c r="DT75" s="133" t="n"/>
-      <c r="DU75" s="133" t="n"/>
-      <c r="DV75" s="133" t="n"/>
-      <c r="DW75" s="133" t="n"/>
-      <c r="DX75" s="133" t="n"/>
-      <c r="DY75" s="133" t="n"/>
-      <c r="DZ75" s="133" t="n"/>
-      <c r="EA75" s="133" t="n"/>
-      <c r="EB75" s="133" t="n"/>
-      <c r="EC75" s="133" t="n"/>
-      <c r="ED75" s="133" t="n"/>
-      <c r="EE75" s="133" t="n"/>
-      <c r="EF75" s="133" t="n"/>
-      <c r="EG75" s="133" t="n"/>
-      <c r="EH75" s="133" t="n"/>
-      <c r="EI75" s="133" t="n"/>
-      <c r="EJ75" s="133" t="n"/>
-      <c r="EK75" s="133" t="n"/>
-      <c r="EL75" s="133" t="n"/>
-      <c r="EM75" s="133" t="n"/>
-      <c r="EN75" s="133" t="n"/>
-      <c r="EO75" s="133" t="n"/>
-      <c r="EP75" s="133" t="n"/>
-      <c r="EQ75" s="133" t="n"/>
-      <c r="ER75" s="133" t="n"/>
-      <c r="ES75" s="133" t="n"/>
-      <c r="ET75" s="133" t="n"/>
-      <c r="EU75" s="133" t="n"/>
-      <c r="EV75" s="133" t="n"/>
-      <c r="EW75" s="133" t="n"/>
-      <c r="EX75" s="133" t="n"/>
-      <c r="EY75" s="133" t="n"/>
-      <c r="EZ75" s="133" t="n"/>
-      <c r="FA75" s="133" t="n"/>
-      <c r="FB75" s="133" t="n"/>
-      <c r="FC75" s="133" t="n"/>
-      <c r="FD75" s="133" t="n"/>
-      <c r="FE75" s="133" t="n"/>
-      <c r="FF75" s="133" t="n"/>
-      <c r="FG75" s="133" t="n"/>
-      <c r="FH75" s="133" t="n"/>
-      <c r="FI75" s="133" t="n"/>
-      <c r="FJ75" s="133" t="n"/>
-      <c r="FK75" s="133" t="n"/>
-      <c r="FL75" s="133" t="n"/>
-      <c r="FM75" s="133" t="n"/>
-      <c r="FN75" s="133" t="n"/>
-      <c r="FO75" s="133" t="n"/>
-      <c r="FP75" s="133" t="n"/>
-      <c r="FQ75" s="133" t="n"/>
-      <c r="FR75" s="133" t="n"/>
-      <c r="FS75" s="133" t="n"/>
-      <c r="FT75" s="133" t="n"/>
-      <c r="FU75" s="133" t="n"/>
-      <c r="FV75" s="133" t="n"/>
-      <c r="FW75" s="133" t="n"/>
-      <c r="FX75" s="133" t="n"/>
-      <c r="FY75" s="133" t="n"/>
-      <c r="FZ75" s="133" t="n"/>
-      <c r="GA75" s="133" t="n"/>
-      <c r="GB75" s="133" t="n"/>
-      <c r="GC75" s="133" t="n"/>
-      <c r="GD75" s="133" t="n"/>
-      <c r="GE75" s="133" t="n"/>
-      <c r="GF75" s="133" t="n"/>
-      <c r="GG75" s="133" t="n"/>
-      <c r="GH75" s="133" t="n"/>
-      <c r="GI75" s="133" t="n"/>
-      <c r="GJ75" s="133" t="n"/>
-      <c r="GK75" s="133" t="n"/>
-      <c r="GL75" s="133" t="n"/>
-      <c r="GM75" s="133" t="n"/>
-      <c r="GN75" s="133" t="n"/>
-      <c r="GO75" s="133" t="n"/>
-      <c r="GP75" s="133" t="n"/>
-      <c r="GQ75" s="133" t="n"/>
-      <c r="GR75" s="133" t="n"/>
+      <c r="I75" s="16" t="n"/>
+      <c r="J75" s="16" t="n"/>
+      <c r="K75" s="16" t="n"/>
+      <c r="L75" s="16" t="n"/>
+      <c r="M75" s="16" t="n"/>
+      <c r="N75" s="16" t="n"/>
+      <c r="O75" s="16" t="n"/>
+      <c r="P75" s="16" t="n"/>
+      <c r="Q75" s="16" t="n"/>
+      <c r="R75" s="16" t="n"/>
+      <c r="S75" s="16" t="n"/>
+      <c r="T75" s="16" t="n"/>
+      <c r="U75" s="16" t="n"/>
+      <c r="V75" s="16" t="n"/>
+      <c r="W75" s="16" t="n"/>
+      <c r="X75" s="16" t="n"/>
+      <c r="Y75" s="16" t="n"/>
+      <c r="Z75" s="16" t="n"/>
+      <c r="AA75" s="16" t="n"/>
+      <c r="AB75" s="16" t="n"/>
+      <c r="AC75" s="16" t="n"/>
+      <c r="AD75" s="16" t="n"/>
+      <c r="AE75" s="16" t="n"/>
+      <c r="AF75" s="16" t="n"/>
+      <c r="AG75" s="16" t="n"/>
+      <c r="AH75" s="16" t="n"/>
+      <c r="AI75" s="16" t="n"/>
+      <c r="AJ75" s="16" t="n"/>
+      <c r="AK75" s="16" t="n"/>
+      <c r="AL75" s="16" t="n"/>
+      <c r="AM75" s="16" t="n"/>
+      <c r="AN75" s="16" t="n"/>
+      <c r="AO75" s="16" t="n"/>
+      <c r="AP75" s="16" t="n"/>
+      <c r="AQ75" s="16" t="n"/>
+      <c r="AR75" s="16" t="n"/>
+      <c r="AS75" s="16" t="n"/>
+      <c r="AT75" s="16" t="n"/>
+      <c r="AU75" s="16" t="n"/>
+      <c r="AV75" s="16" t="n"/>
+      <c r="AW75" s="16" t="n"/>
+      <c r="AX75" s="16" t="n"/>
+      <c r="AY75" s="16" t="n"/>
+      <c r="AZ75" s="16" t="n"/>
+      <c r="BA75" s="16" t="n"/>
+      <c r="BB75" s="16" t="n"/>
+      <c r="BC75" s="16" t="n"/>
+      <c r="BD75" s="16" t="n"/>
+      <c r="BE75" s="16" t="n"/>
+      <c r="BF75" s="16" t="n"/>
+      <c r="BG75" s="16" t="n"/>
+      <c r="BH75" s="16" t="n"/>
+      <c r="BI75" s="16" t="n"/>
+      <c r="BJ75" s="16" t="n"/>
+      <c r="BK75" s="16" t="n"/>
+      <c r="BL75" s="16" t="n"/>
+      <c r="BM75" s="16" t="n"/>
+      <c r="BN75" s="16" t="n"/>
+      <c r="BO75" s="16" t="n"/>
+      <c r="BP75" s="16" t="n"/>
+      <c r="BQ75" s="16" t="n"/>
+      <c r="BR75" s="16" t="n"/>
+      <c r="BS75" s="16" t="n"/>
+      <c r="BT75" s="16" t="n"/>
+      <c r="BU75" s="16" t="n"/>
+      <c r="BV75" s="16" t="n"/>
+      <c r="BW75" s="16" t="n"/>
+      <c r="BX75" s="16" t="n"/>
+      <c r="BY75" s="16" t="n"/>
+      <c r="BZ75" s="16" t="n"/>
+      <c r="CA75" s="16" t="n"/>
+      <c r="CB75" s="16" t="n"/>
+      <c r="CC75" s="16" t="n"/>
+      <c r="CD75" s="16" t="n"/>
+      <c r="CE75" s="16" t="n"/>
+      <c r="CF75" s="16" t="n"/>
+      <c r="CG75" s="16" t="n"/>
+      <c r="CH75" s="16" t="n"/>
+      <c r="CI75" s="16" t="n"/>
+      <c r="CJ75" s="16" t="n"/>
+      <c r="CK75" s="16" t="n"/>
+      <c r="CL75" s="16" t="n"/>
+      <c r="CM75" s="16" t="n"/>
+      <c r="CN75" s="16" t="n"/>
+      <c r="CO75" s="16" t="n"/>
+      <c r="CP75" s="16" t="n"/>
+      <c r="CQ75" s="16" t="n"/>
+      <c r="CR75" s="16" t="n"/>
+      <c r="CS75" s="16" t="n"/>
+      <c r="CT75" s="16" t="n"/>
+      <c r="CU75" s="16" t="n"/>
+      <c r="CV75" s="16" t="n"/>
+      <c r="CW75" s="16" t="n"/>
+      <c r="CX75" s="16" t="n"/>
+      <c r="CY75" s="16" t="n"/>
+      <c r="CZ75" s="16" t="n"/>
+      <c r="DA75" s="16" t="n"/>
+      <c r="DB75" s="16" t="n"/>
+      <c r="DC75" s="16" t="n"/>
+      <c r="DD75" s="16" t="n"/>
+      <c r="DE75" s="16" t="n"/>
+      <c r="DF75" s="16" t="n"/>
+      <c r="DG75" s="16" t="n"/>
+      <c r="DH75" s="16" t="n"/>
+      <c r="DI75" s="16" t="n"/>
+      <c r="DJ75" s="16" t="n"/>
+      <c r="DK75" s="16" t="n"/>
+      <c r="DL75" s="16" t="n"/>
+      <c r="DM75" s="16" t="n"/>
+      <c r="DN75" s="16" t="n"/>
+      <c r="DO75" s="16" t="n"/>
+      <c r="DP75" s="16" t="n"/>
     </row>
     <row r="76" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A76" s="26" t="n"/>
-      <c r="B76" s="79" t="inlineStr">
+      <c r="B76" s="70" t="inlineStr">
         <is>
-          <t>Sprint 3</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C76" s="80" t="n"/>
-      <c r="D76" s="81" t="n"/>
-      <c r="E76" s="159" t="n"/>
-      <c r="F76" s="160" t="n"/>
+      <c r="C76" s="71" t="n"/>
+      <c r="D76" s="72" t="n"/>
+      <c r="E76" s="154" t="n"/>
+      <c r="F76" s="154" t="n"/>
       <c r="G76" s="11" t="n"/>
       <c r="H76" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -22412,15 +22720,15 @@
     </row>
     <row r="77" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A77" s="26" t="n"/>
-      <c r="B77" s="84" t="inlineStr">
+      <c r="B77" s="79" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 6 Title</t>
         </is>
       </c>
-      <c r="C77" s="85" t="n"/>
-      <c r="D77" s="86" t="n"/>
-      <c r="E77" s="161" t="n"/>
-      <c r="F77" s="161" t="n"/>
+      <c r="C77" s="80" t="n"/>
+      <c r="D77" s="81" t="n"/>
+      <c r="E77" s="155" t="n"/>
+      <c r="F77" s="156" t="n"/>
       <c r="G77" s="11" t="n"/>
       <c r="H77" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -22541,15 +22849,15 @@
     </row>
     <row r="78" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A78" s="26" t="n"/>
-      <c r="B78" s="88" t="inlineStr">
+      <c r="B78" s="84" t="inlineStr">
         <is>
-          <t>Phase 7 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C78" s="89" t="n"/>
-      <c r="D78" s="90" t="n"/>
-      <c r="E78" s="162" t="n"/>
-      <c r="F78" s="163" t="n"/>
+      <c r="C78" s="85" t="n"/>
+      <c r="D78" s="86" t="n"/>
+      <c r="E78" s="157" t="n"/>
+      <c r="F78" s="157" t="n"/>
       <c r="G78" s="11" t="n"/>
       <c r="H78" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -22670,15 +22978,15 @@
     </row>
     <row r="79" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A79" s="26" t="n"/>
-      <c r="B79" s="93" t="inlineStr">
+      <c r="B79" s="88" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 7 Title</t>
         </is>
       </c>
-      <c r="C79" s="94" t="n"/>
-      <c r="D79" s="95" t="n"/>
-      <c r="E79" s="164" t="n"/>
-      <c r="F79" s="164" t="n"/>
+      <c r="C79" s="89" t="n"/>
+      <c r="D79" s="90" t="n"/>
+      <c r="E79" s="158" t="n"/>
+      <c r="F79" s="159" t="n"/>
       <c r="G79" s="11" t="n"/>
       <c r="H79" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -22798,26 +23106,16 @@
       <c r="DP79" s="16" t="n"/>
     </row>
     <row r="80" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A80" s="27" t="inlineStr">
+      <c r="A80" s="26" t="n"/>
+      <c r="B80" s="93" t="inlineStr">
         <is>
-          <t>Cell B8 contains the phase 1 sample title. 
-Enter a new title in cell B8.
-Enter a name to assign the phase to, if this applies to your project, in cell C8.
-Enter the progress for the entire phase, if this applies to your project, in cell D8.
-Enter the start and end dates for the entire phase, if this applies to your project, in cells E8 and F8. 
-The Gantt chart will automatically fill in the appropriate dates and shade according to the progress entered.
-To delete the phase and work only from tasks, simply delete this row.</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="B80" s="12" t="inlineStr">
-        <is>
-          <t>Phase 1 Title</t>
-        </is>
-      </c>
-      <c r="C80" s="33" t="n"/>
-      <c r="D80" s="62" t="n"/>
-      <c r="E80" s="123" t="n"/>
-      <c r="F80" s="124" t="n"/>
+      <c r="C80" s="94" t="n"/>
+      <c r="D80" s="95" t="n"/>
+      <c r="E80" s="160" t="n"/>
+      <c r="F80" s="160" t="n"/>
       <c r="G80" s="11" t="n"/>
       <c r="H80" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -22939,24 +23237,24 @@
     <row r="81" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A81" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
-Enter a new task name in cell B9.
-Enter a person to assign the task to in cell C9.
-Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
-Enter the task start date in cell E9.
-Enter the task end date in cell E9.
-A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
+          <t>Cell B8 contains the phase 1 sample title. 
+Enter a new title in cell B8.
+Enter a name to assign the phase to, if this applies to your project, in cell C8.
+Enter the progress for the entire phase, if this applies to your project, in cell D8.
+Enter the start and end dates for the entire phase, if this applies to your project, in cells E8 and F8. 
+The Gantt chart will automatically fill in the appropriate dates and shade according to the progress entered.
+To delete the phase and work only from tasks, simply delete this row.</t>
         </is>
       </c>
-      <c r="B81" s="41" t="inlineStr">
+      <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 1 Title</t>
         </is>
       </c>
-      <c r="C81" s="34" t="n"/>
-      <c r="D81" s="63" t="n"/>
-      <c r="E81" s="125" t="n"/>
-      <c r="F81" s="125" t="n"/>
+      <c r="C81" s="33" t="n"/>
+      <c r="D81" s="62" t="n"/>
+      <c r="E81" s="123" t="n"/>
+      <c r="F81" s="124" t="n"/>
       <c r="G81" s="11" t="n"/>
       <c r="H81" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23078,21 +23376,24 @@
     <row r="82" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A82" s="27" t="inlineStr">
         <is>
-          <t>Rows 10 to 13 repeat the pattern from row 9. 
-Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
-A sample of another phase starts in cell A14. 
-Continue entering tasks in cells A10 to A13 or go to cell A14 to learn more.</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="B82" s="13" t="inlineStr">
+      <c r="B82" s="41" t="inlineStr">
         <is>
-          <t>Phase 2 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C82" s="35" t="n"/>
-      <c r="D82" s="64" t="n"/>
-      <c r="E82" s="134" t="n"/>
-      <c r="F82" s="135" t="n"/>
+      <c r="C82" s="34" t="n"/>
+      <c r="D82" s="63" t="n"/>
+      <c r="E82" s="125" t="n"/>
+      <c r="F82" s="125" t="n"/>
       <c r="G82" s="11" t="n"/>
       <c r="H82" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23212,16 +23513,23 @@
       <c r="DP82" s="16" t="n"/>
     </row>
     <row r="83" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A83" s="26" t="n"/>
-      <c r="B83" s="42" t="inlineStr">
+      <c r="A83" s="27" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Rows 10 to 13 repeat the pattern from row 9. 
+Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
+A sample of another phase starts in cell A14. 
+Continue entering tasks in cells A10 to A13 or go to cell A14 to learn more.</t>
         </is>
       </c>
-      <c r="C83" s="36" t="n"/>
-      <c r="D83" s="65" t="n"/>
-      <c r="E83" s="136" t="n"/>
-      <c r="F83" s="136" t="n"/>
+      <c r="B83" s="13" t="inlineStr">
+        <is>
+          <t>Phase 2 Title</t>
+        </is>
+      </c>
+      <c r="C83" s="35" t="n"/>
+      <c r="D83" s="64" t="n"/>
+      <c r="E83" s="134" t="n"/>
+      <c r="F83" s="135" t="n"/>
       <c r="G83" s="11" t="n"/>
       <c r="H83" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23342,15 +23650,15 @@
     </row>
     <row r="84" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A84" s="26" t="n"/>
-      <c r="B84" s="14" t="inlineStr">
+      <c r="B84" s="42" t="inlineStr">
         <is>
-          <t>Phase 3 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C84" s="37" t="n"/>
-      <c r="D84" s="66" t="n"/>
-      <c r="E84" s="142" t="n"/>
-      <c r="F84" s="143" t="n"/>
+      <c r="C84" s="36" t="n"/>
+      <c r="D84" s="65" t="n"/>
+      <c r="E84" s="136" t="n"/>
+      <c r="F84" s="136" t="n"/>
       <c r="G84" s="11" t="n"/>
       <c r="H84" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23471,15 +23779,15 @@
     </row>
     <row r="85" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A85" s="26" t="n"/>
-      <c r="B85" s="43" t="inlineStr">
+      <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 3 Title</t>
         </is>
       </c>
-      <c r="C85" s="38" t="n"/>
-      <c r="D85" s="67" t="n"/>
-      <c r="E85" s="144" t="n"/>
-      <c r="F85" s="144" t="n"/>
+      <c r="C85" s="37" t="n"/>
+      <c r="D85" s="66" t="n"/>
+      <c r="E85" s="137" t="n"/>
+      <c r="F85" s="138" t="n"/>
       <c r="G85" s="11" t="n"/>
       <c r="H85" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23599,27 +23907,16 @@
       <c r="DP85" s="16" t="n"/>
     </row>
     <row r="86" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A86" s="27" t="inlineStr">
+      <c r="A86" s="26" t="n"/>
+      <c r="B86" s="43" t="inlineStr">
         <is>
-          <t>The cell to the right contains the phase 2 sample title. 
-You can create a new phase at any time within column B. This project schedule does not require phases. To remove the phase, simply delete the row.
-To create a new phase block in this row, enter a new title in the cell to the right.
-To continue adding tasks to the phase above, enter a new row above this one and fill in the task data according to cell A9’s instructions.
-Update the phase details in the cell to the right based on cell A8’s instructions.
-Continue navigating down column A cells to learn more.
-If you haven’t added any new rows in this worksheet, you will find that two additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through the column A cells to find the additional blocks. 
-Repeat the instructions from cells A8 and A9 whenever you need to.</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="B86" s="15" t="inlineStr">
-        <is>
-          <t>Phase 4 Title</t>
-        </is>
-      </c>
-      <c r="C86" s="39" t="n"/>
-      <c r="D86" s="68" t="n"/>
-      <c r="E86" s="145" t="n"/>
-      <c r="F86" s="146" t="n"/>
+      <c r="C86" s="38" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="139" t="n"/>
+      <c r="F86" s="139" t="n"/>
       <c r="G86" s="11" t="n"/>
       <c r="H86" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23739,16 +24036,27 @@
       <c r="DP86" s="16" t="n"/>
     </row>
     <row r="87" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A87" s="27" t="n"/>
-      <c r="B87" s="44" t="inlineStr">
+      <c r="A87" s="27" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>The cell to the right contains the phase 2 sample title. 
+You can create a new phase at any time within column B. This project schedule does not require phases. To remove the phase, simply delete the row.
+To create a new phase block in this row, enter a new title in the cell to the right.
+To continue adding tasks to the phase above, enter a new row above this one and fill in the task data according to cell A9’s instructions.
+Update the phase details in the cell to the right based on cell A8’s instructions.
+Continue navigating down column A cells to learn more.
+If you haven’t added any new rows in this worksheet, you will find that two additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through the column A cells to find the additional blocks. 
+Repeat the instructions from cells A8 and A9 whenever you need to.</t>
         </is>
       </c>
-      <c r="C87" s="40" t="n"/>
-      <c r="D87" s="69" t="n"/>
-      <c r="E87" s="147" t="n"/>
-      <c r="F87" s="147" t="n"/>
+      <c r="B87" s="15" t="inlineStr">
+        <is>
+          <t>Phase 4 Title</t>
+        </is>
+      </c>
+      <c r="C87" s="39" t="n"/>
+      <c r="D87" s="68" t="n"/>
+      <c r="E87" s="145" t="n"/>
+      <c r="F87" s="146" t="n"/>
       <c r="G87" s="11" t="n"/>
       <c r="H87" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23868,16 +24176,16 @@
       <c r="DP87" s="16" t="n"/>
     </row>
     <row r="88" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A88" s="26" t="n"/>
-      <c r="B88" s="74" t="inlineStr">
+      <c r="A88" s="27" t="n"/>
+      <c r="B88" s="44" t="inlineStr">
         <is>
-          <t>Phase 5 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C88" s="75" t="n"/>
-      <c r="D88" s="76" t="n"/>
-      <c r="E88" s="152" t="n"/>
-      <c r="F88" s="153" t="n"/>
+      <c r="C88" s="40" t="n"/>
+      <c r="D88" s="69" t="n"/>
+      <c r="E88" s="147" t="n"/>
+      <c r="F88" s="147" t="n"/>
       <c r="G88" s="11" t="n"/>
       <c r="H88" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -23998,15 +24306,15 @@
     </row>
     <row r="89" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A89" s="26" t="n"/>
-      <c r="B89" s="70" t="inlineStr">
+      <c r="B89" s="74" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 5 Title</t>
         </is>
       </c>
-      <c r="C89" s="71" t="n"/>
-      <c r="D89" s="72" t="n"/>
-      <c r="E89" s="154" t="n"/>
-      <c r="F89" s="154" t="n"/>
+      <c r="C89" s="75" t="n"/>
+      <c r="D89" s="76" t="n"/>
+      <c r="E89" s="152" t="n"/>
+      <c r="F89" s="153" t="n"/>
       <c r="G89" s="11" t="n"/>
       <c r="H89" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24127,15 +24435,15 @@
     </row>
     <row r="90" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A90" s="26" t="n"/>
-      <c r="B90" s="79" t="inlineStr">
+      <c r="B90" s="70" t="inlineStr">
         <is>
-          <t>Phase 6 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C90" s="80" t="n"/>
-      <c r="D90" s="81" t="n"/>
-      <c r="E90" s="159" t="n"/>
-      <c r="F90" s="160" t="n"/>
+      <c r="C90" s="71" t="n"/>
+      <c r="D90" s="72" t="n"/>
+      <c r="E90" s="154" t="n"/>
+      <c r="F90" s="154" t="n"/>
       <c r="G90" s="11" t="n"/>
       <c r="H90" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24256,15 +24564,15 @@
     </row>
     <row r="91" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A91" s="26" t="n"/>
-      <c r="B91" s="84" t="inlineStr">
+      <c r="B91" s="79" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 6 Title</t>
         </is>
       </c>
-      <c r="C91" s="85" t="n"/>
-      <c r="D91" s="86" t="n"/>
-      <c r="E91" s="161" t="n"/>
-      <c r="F91" s="161" t="n"/>
+      <c r="C91" s="80" t="n"/>
+      <c r="D91" s="81" t="n"/>
+      <c r="E91" s="155" t="n"/>
+      <c r="F91" s="156" t="n"/>
       <c r="G91" s="11" t="n"/>
       <c r="H91" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24385,15 +24693,15 @@
     </row>
     <row r="92" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A92" s="26" t="n"/>
-      <c r="B92" s="88" t="inlineStr">
+      <c r="B92" s="84" t="inlineStr">
         <is>
-          <t>Phase 7 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C92" s="89" t="n"/>
-      <c r="D92" s="90" t="n"/>
-      <c r="E92" s="162" t="n"/>
-      <c r="F92" s="163" t="n"/>
+      <c r="C92" s="85" t="n"/>
+      <c r="D92" s="86" t="n"/>
+      <c r="E92" s="157" t="n"/>
+      <c r="F92" s="157" t="n"/>
       <c r="G92" s="11" t="n"/>
       <c r="H92" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24514,15 +24822,15 @@
     </row>
     <row r="93" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A93" s="26" t="n"/>
-      <c r="B93" s="93" t="inlineStr">
+      <c r="B93" s="88" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 7 Title</t>
         </is>
       </c>
-      <c r="C93" s="94" t="n"/>
-      <c r="D93" s="95" t="n"/>
-      <c r="E93" s="164" t="n"/>
-      <c r="F93" s="164" t="n"/>
+      <c r="C93" s="89" t="n"/>
+      <c r="D93" s="90" t="n"/>
+      <c r="E93" s="158" t="n"/>
+      <c r="F93" s="159" t="n"/>
       <c r="G93" s="11" t="n"/>
       <c r="H93" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24642,26 +24950,16 @@
       <c r="DP93" s="16" t="n"/>
     </row>
     <row r="94" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A94" s="27" t="inlineStr">
+      <c r="A94" s="26" t="n"/>
+      <c r="B94" s="93" t="inlineStr">
         <is>
-          <t>Cell B8 contains the phase 1 sample title. 
-Enter a new title in cell B8.
-Enter a name to assign the phase to, if this applies to your project, in cell C8.
-Enter the progress for the entire phase, if this applies to your project, in cell D8.
-Enter the start and end dates for the entire phase, if this applies to your project, in cells E8 and F8. 
-The Gantt chart will automatically fill in the appropriate dates and shade according to the progress entered.
-To delete the phase and work only from tasks, simply delete this row.</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="B94" s="12" t="inlineStr">
-        <is>
-          <t>Phase 1 Title</t>
-        </is>
-      </c>
-      <c r="C94" s="33" t="n"/>
-      <c r="D94" s="62" t="n"/>
-      <c r="E94" s="123" t="n"/>
-      <c r="F94" s="124" t="n"/>
+      <c r="C94" s="94" t="n"/>
+      <c r="D94" s="95" t="n"/>
+      <c r="E94" s="160" t="n"/>
+      <c r="F94" s="160" t="n"/>
       <c r="G94" s="11" t="n"/>
       <c r="H94" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24783,24 +25081,24 @@
     <row r="95" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A95" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
-Enter a new task name in cell B9.
-Enter a person to assign the task to in cell C9.
-Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
-Enter the task start date in cell E9.
-Enter the task end date in cell E9.
-A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
+          <t>Cell B8 contains the phase 1 sample title. 
+Enter a new title in cell B8.
+Enter a name to assign the phase to, if this applies to your project, in cell C8.
+Enter the progress for the entire phase, if this applies to your project, in cell D8.
+Enter the start and end dates for the entire phase, if this applies to your project, in cells E8 and F8. 
+The Gantt chart will automatically fill in the appropriate dates and shade according to the progress entered.
+To delete the phase and work only from tasks, simply delete this row.</t>
         </is>
       </c>
-      <c r="B95" s="41" t="inlineStr">
+      <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 1 Title</t>
         </is>
       </c>
-      <c r="C95" s="34" t="n"/>
-      <c r="D95" s="63" t="n"/>
-      <c r="E95" s="125" t="n"/>
-      <c r="F95" s="125" t="n"/>
+      <c r="C95" s="33" t="n"/>
+      <c r="D95" s="62" t="n"/>
+      <c r="E95" s="123" t="n"/>
+      <c r="F95" s="124" t="n"/>
       <c r="G95" s="11" t="n"/>
       <c r="H95" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -24922,21 +25220,24 @@
     <row r="96" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A96" s="27" t="inlineStr">
         <is>
-          <t>Rows 10 to 13 repeat the pattern from row 9. 
-Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
-A sample of another phase starts in cell A14. 
-Continue entering tasks in cells A10 to A13 or go to cell A14 to learn more.</t>
+          <t xml:space="preserve">Cell B9 contains the sample task “Task 1”. 
+Enter a new task name in cell B9.
+Enter a person to assign the task to in cell C9.
+Enter the progress of the task in cell D9. A progress bar appears in the cell and is shaded according to the number in the cell. For example, 50 per cent progress would shade half of the cell.
+Enter the task start date in cell E9.
+Enter the task end date in cell E9.
+A status bar shaded for the dates entered appears in blocks from cell I9 to BL9. </t>
         </is>
       </c>
-      <c r="B96" s="13" t="inlineStr">
+      <c r="B96" s="41" t="inlineStr">
         <is>
-          <t>Phase 2 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C96" s="35" t="n"/>
-      <c r="D96" s="64" t="n"/>
-      <c r="E96" s="134" t="n"/>
-      <c r="F96" s="135" t="n"/>
+      <c r="C96" s="34" t="n"/>
+      <c r="D96" s="63" t="n"/>
+      <c r="E96" s="125" t="n"/>
+      <c r="F96" s="125" t="n"/>
       <c r="G96" s="11" t="n"/>
       <c r="H96" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25056,16 +25357,23 @@
       <c r="DP96" s="16" t="n"/>
     </row>
     <row r="97" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A97" s="26" t="n"/>
-      <c r="B97" s="42" t="inlineStr">
+      <c r="A97" s="27" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Rows 10 to 13 repeat the pattern from row 9. 
+Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
+A sample of another phase starts in cell A14. 
+Continue entering tasks in cells A10 to A13 or go to cell A14 to learn more.</t>
         </is>
       </c>
-      <c r="C97" s="36" t="n"/>
-      <c r="D97" s="65" t="n"/>
-      <c r="E97" s="136" t="n"/>
-      <c r="F97" s="136" t="n"/>
+      <c r="B97" s="13" t="inlineStr">
+        <is>
+          <t>Phase 2 Title</t>
+        </is>
+      </c>
+      <c r="C97" s="35" t="n"/>
+      <c r="D97" s="64" t="n"/>
+      <c r="E97" s="134" t="n"/>
+      <c r="F97" s="135" t="n"/>
       <c r="G97" s="11" t="n"/>
       <c r="H97" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25186,15 +25494,15 @@
     </row>
     <row r="98" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A98" s="26" t="n"/>
-      <c r="B98" s="14" t="inlineStr">
+      <c r="B98" s="42" t="inlineStr">
         <is>
-          <t>Phase 3 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C98" s="37" t="n"/>
-      <c r="D98" s="66" t="n"/>
-      <c r="E98" s="142" t="n"/>
-      <c r="F98" s="143" t="n"/>
+      <c r="C98" s="36" t="n"/>
+      <c r="D98" s="65" t="n"/>
+      <c r="E98" s="136" t="n"/>
+      <c r="F98" s="136" t="n"/>
       <c r="G98" s="11" t="n"/>
       <c r="H98" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25315,15 +25623,15 @@
     </row>
     <row r="99" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A99" s="26" t="n"/>
-      <c r="B99" s="43" t="inlineStr">
+      <c r="B99" s="14" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 3 Title</t>
         </is>
       </c>
-      <c r="C99" s="38" t="n"/>
-      <c r="D99" s="67" t="n"/>
-      <c r="E99" s="144" t="n"/>
-      <c r="F99" s="144" t="n"/>
+      <c r="C99" s="37" t="n"/>
+      <c r="D99" s="66" t="n"/>
+      <c r="E99" s="137" t="n"/>
+      <c r="F99" s="138" t="n"/>
       <c r="G99" s="11" t="n"/>
       <c r="H99" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25443,27 +25751,16 @@
       <c r="DP99" s="16" t="n"/>
     </row>
     <row r="100" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A100" s="27" t="inlineStr">
+      <c r="A100" s="26" t="n"/>
+      <c r="B100" s="43" t="inlineStr">
         <is>
-          <t>The cell to the right contains the phase 2 sample title. 
-You can create a new phase at any time within column B. This project schedule does not require phases. To remove the phase, simply delete the row.
-To create a new phase block in this row, enter a new title in the cell to the right.
-To continue adding tasks to the phase above, enter a new row above this one and fill in the task data according to cell A9’s instructions.
-Update the phase details in the cell to the right based on cell A8’s instructions.
-Continue navigating down column A cells to learn more.
-If you haven’t added any new rows in this worksheet, you will find that two additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through the column A cells to find the additional blocks. 
-Repeat the instructions from cells A8 and A9 whenever you need to.</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="B100" s="15" t="inlineStr">
-        <is>
-          <t>Phase 4 Title</t>
-        </is>
-      </c>
-      <c r="C100" s="39" t="n"/>
-      <c r="D100" s="68" t="n"/>
-      <c r="E100" s="145" t="n"/>
-      <c r="F100" s="146" t="n"/>
+      <c r="C100" s="38" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="139" t="n"/>
+      <c r="F100" s="139" t="n"/>
       <c r="G100" s="11" t="n"/>
       <c r="H100" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25583,16 +25880,27 @@
       <c r="DP100" s="16" t="n"/>
     </row>
     <row r="101" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A101" s="27" t="n"/>
-      <c r="B101" s="44" t="inlineStr">
+      <c r="A101" s="27" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>The cell to the right contains the phase 2 sample title. 
+You can create a new phase at any time within column B. This project schedule does not require phases. To remove the phase, simply delete the row.
+To create a new phase block in this row, enter a new title in the cell to the right.
+To continue adding tasks to the phase above, enter a new row above this one and fill in the task data according to cell A9’s instructions.
+Update the phase details in the cell to the right based on cell A8’s instructions.
+Continue navigating down column A cells to learn more.
+If you haven’t added any new rows in this worksheet, you will find that two additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through the column A cells to find the additional blocks. 
+Repeat the instructions from cells A8 and A9 whenever you need to.</t>
         </is>
       </c>
-      <c r="C101" s="40" t="n"/>
-      <c r="D101" s="69" t="n"/>
-      <c r="E101" s="147" t="n"/>
-      <c r="F101" s="147" t="n"/>
+      <c r="B101" s="15" t="inlineStr">
+        <is>
+          <t>Phase 4 Title</t>
+        </is>
+      </c>
+      <c r="C101" s="39" t="n"/>
+      <c r="D101" s="68" t="n"/>
+      <c r="E101" s="145" t="n"/>
+      <c r="F101" s="146" t="n"/>
       <c r="G101" s="11" t="n"/>
       <c r="H101" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25712,16 +26020,16 @@
       <c r="DP101" s="16" t="n"/>
     </row>
     <row r="102" ht="30" customFormat="1" customHeight="1" s="105">
-      <c r="A102" s="26" t="n"/>
-      <c r="B102" s="74" t="inlineStr">
+      <c r="A102" s="27" t="n"/>
+      <c r="B102" s="44" t="inlineStr">
         <is>
-          <t>Phase 5 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C102" s="75" t="n"/>
-      <c r="D102" s="76" t="n"/>
-      <c r="E102" s="152" t="n"/>
-      <c r="F102" s="153" t="n"/>
+      <c r="C102" s="40" t="n"/>
+      <c r="D102" s="69" t="n"/>
+      <c r="E102" s="147" t="n"/>
+      <c r="F102" s="147" t="n"/>
       <c r="G102" s="11" t="n"/>
       <c r="H102" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25842,15 +26150,15 @@
     </row>
     <row r="103" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A103" s="26" t="n"/>
-      <c r="B103" s="70" t="inlineStr">
+      <c r="B103" s="74" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 5 Title</t>
         </is>
       </c>
-      <c r="C103" s="71" t="n"/>
-      <c r="D103" s="72" t="n"/>
-      <c r="E103" s="154" t="n"/>
-      <c r="F103" s="154" t="n"/>
+      <c r="C103" s="75" t="n"/>
+      <c r="D103" s="76" t="n"/>
+      <c r="E103" s="152" t="n"/>
+      <c r="F103" s="153" t="n"/>
       <c r="G103" s="11" t="n"/>
       <c r="H103" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -25971,15 +26279,15 @@
     </row>
     <row r="104" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A104" s="26" t="n"/>
-      <c r="B104" s="79" t="inlineStr">
+      <c r="B104" s="70" t="inlineStr">
         <is>
-          <t>Phase 6 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C104" s="80" t="n"/>
-      <c r="D104" s="81" t="n"/>
-      <c r="E104" s="159" t="n"/>
-      <c r="F104" s="160" t="n"/>
+      <c r="C104" s="71" t="n"/>
+      <c r="D104" s="72" t="n"/>
+      <c r="E104" s="154" t="n"/>
+      <c r="F104" s="154" t="n"/>
       <c r="G104" s="11" t="n"/>
       <c r="H104" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -26100,15 +26408,15 @@
     </row>
     <row r="105" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A105" s="26" t="n"/>
-      <c r="B105" s="84" t="inlineStr">
+      <c r="B105" s="79" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 6 Title</t>
         </is>
       </c>
-      <c r="C105" s="85" t="n"/>
-      <c r="D105" s="86" t="n"/>
-      <c r="E105" s="161" t="n"/>
-      <c r="F105" s="161" t="n"/>
+      <c r="C105" s="80" t="n"/>
+      <c r="D105" s="81" t="n"/>
+      <c r="E105" s="155" t="n"/>
+      <c r="F105" s="156" t="n"/>
       <c r="G105" s="11" t="n"/>
       <c r="H105" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -26229,15 +26537,15 @@
     </row>
     <row r="106" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A106" s="26" t="n"/>
-      <c r="B106" s="88" t="inlineStr">
+      <c r="B106" s="84" t="inlineStr">
         <is>
-          <t>Phase 7 Title</t>
+          <t>Task 1</t>
         </is>
       </c>
-      <c r="C106" s="89" t="n"/>
-      <c r="D106" s="90" t="n"/>
-      <c r="E106" s="162" t="n"/>
-      <c r="F106" s="163" t="n"/>
+      <c r="C106" s="85" t="n"/>
+      <c r="D106" s="86" t="n"/>
+      <c r="E106" s="157" t="n"/>
+      <c r="F106" s="157" t="n"/>
       <c r="G106" s="11" t="n"/>
       <c r="H106" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -26358,15 +26666,15 @@
     </row>
     <row r="107" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A107" s="26" t="n"/>
-      <c r="B107" s="107" t="inlineStr">
+      <c r="B107" s="88" t="inlineStr">
         <is>
-          <t>Task 1</t>
+          <t>Phase 7 Title</t>
         </is>
       </c>
-      <c r="C107" s="108" t="n"/>
-      <c r="D107" s="109" t="n"/>
-      <c r="E107" s="165" t="n"/>
-      <c r="F107" s="165" t="n"/>
+      <c r="C107" s="89" t="n"/>
+      <c r="D107" s="90" t="n"/>
+      <c r="E107" s="158" t="n"/>
+      <c r="F107" s="159" t="n"/>
       <c r="G107" s="11" t="n"/>
       <c r="H107" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -26487,133 +26795,140 @@
     </row>
     <row r="108" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A108" s="26" t="n"/>
-      <c r="B108" s="111" t="n"/>
-      <c r="C108" s="112" t="n"/>
-      <c r="D108" s="106" t="n"/>
-      <c r="E108" s="166" t="n"/>
-      <c r="F108" s="166" t="n"/>
-      <c r="G108" s="104" t="n"/>
-      <c r="H108" s="104" t="n"/>
-      <c r="I108" s="105" t="n"/>
-      <c r="J108" s="105" t="n"/>
-      <c r="K108" s="105" t="n"/>
-      <c r="L108" s="105" t="n"/>
-      <c r="M108" s="105" t="n"/>
-      <c r="N108" s="105" t="n"/>
-      <c r="O108" s="105" t="n"/>
-      <c r="P108" s="105" t="n"/>
-      <c r="Q108" s="105" t="n"/>
-      <c r="R108" s="105" t="n"/>
-      <c r="S108" s="105" t="n"/>
-      <c r="T108" s="105" t="n"/>
-      <c r="U108" s="105" t="n"/>
-      <c r="V108" s="105" t="n"/>
-      <c r="W108" s="105" t="n"/>
-      <c r="X108" s="105" t="n"/>
-      <c r="Y108" s="105" t="n"/>
-      <c r="Z108" s="105" t="n"/>
-      <c r="AA108" s="105" t="n"/>
-      <c r="AB108" s="105" t="n"/>
-      <c r="AC108" s="105" t="n"/>
-      <c r="AD108" s="105" t="n"/>
-      <c r="AE108" s="105" t="n"/>
-      <c r="AF108" s="105" t="n"/>
-      <c r="AG108" s="105" t="n"/>
-      <c r="AH108" s="105" t="n"/>
-      <c r="AI108" s="105" t="n"/>
-      <c r="AJ108" s="105" t="n"/>
-      <c r="AK108" s="105" t="n"/>
-      <c r="AL108" s="105" t="n"/>
-      <c r="AM108" s="105" t="n"/>
-      <c r="AN108" s="105" t="n"/>
-      <c r="AO108" s="105" t="n"/>
-      <c r="AP108" s="105" t="n"/>
-      <c r="AQ108" s="105" t="n"/>
-      <c r="AR108" s="105" t="n"/>
-      <c r="AS108" s="105" t="n"/>
-      <c r="AT108" s="105" t="n"/>
-      <c r="AU108" s="105" t="n"/>
-      <c r="AV108" s="105" t="n"/>
-      <c r="AW108" s="105" t="n"/>
-      <c r="AX108" s="105" t="n"/>
-      <c r="AY108" s="105" t="n"/>
-      <c r="AZ108" s="105" t="n"/>
-      <c r="BA108" s="105" t="n"/>
-      <c r="BB108" s="105" t="n"/>
-      <c r="BC108" s="105" t="n"/>
-      <c r="BD108" s="105" t="n"/>
-      <c r="BE108" s="105" t="n"/>
-      <c r="BF108" s="105" t="n"/>
-      <c r="BG108" s="105" t="n"/>
-      <c r="BH108" s="105" t="n"/>
-      <c r="BI108" s="105" t="n"/>
-      <c r="BJ108" s="105" t="n"/>
-      <c r="BK108" s="105" t="n"/>
-      <c r="BL108" s="105" t="n"/>
-      <c r="BM108" s="105" t="n"/>
-      <c r="BN108" s="105" t="n"/>
-      <c r="BO108" s="105" t="n"/>
-      <c r="BP108" s="105" t="n"/>
-      <c r="BQ108" s="105" t="n"/>
-      <c r="BR108" s="105" t="n"/>
-      <c r="BS108" s="105" t="n"/>
-      <c r="BT108" s="105" t="n"/>
-      <c r="BU108" s="105" t="n"/>
-      <c r="BV108" s="105" t="n"/>
-      <c r="BW108" s="105" t="n"/>
-      <c r="BX108" s="105" t="n"/>
-      <c r="BY108" s="105" t="n"/>
-      <c r="BZ108" s="105" t="n"/>
-      <c r="CA108" s="105" t="n"/>
-      <c r="CB108" s="105" t="n"/>
-      <c r="CC108" s="105" t="n"/>
-      <c r="CD108" s="105" t="n"/>
-      <c r="CE108" s="105" t="n"/>
-      <c r="CF108" s="105" t="n"/>
-      <c r="CG108" s="105" t="n"/>
-      <c r="CH108" s="105" t="n"/>
-      <c r="CI108" s="105" t="n"/>
-      <c r="CJ108" s="105" t="n"/>
-      <c r="CK108" s="105" t="n"/>
-      <c r="CL108" s="105" t="n"/>
-      <c r="CM108" s="105" t="n"/>
-      <c r="CN108" s="105" t="n"/>
-      <c r="CO108" s="105" t="n"/>
-      <c r="CP108" s="105" t="n"/>
-      <c r="CQ108" s="105" t="n"/>
-      <c r="CR108" s="105" t="n"/>
-      <c r="CS108" s="105" t="n"/>
-      <c r="CT108" s="105" t="n"/>
-      <c r="CU108" s="105" t="n"/>
-      <c r="CV108" s="105" t="n"/>
-      <c r="CW108" s="105" t="n"/>
-      <c r="CX108" s="105" t="n"/>
-      <c r="CY108" s="105" t="n"/>
-      <c r="CZ108" s="105" t="n"/>
-      <c r="DA108" s="105" t="n"/>
-      <c r="DB108" s="105" t="n"/>
-      <c r="DC108" s="105" t="n"/>
-      <c r="DD108" s="105" t="n"/>
-      <c r="DE108" s="105" t="n"/>
-      <c r="DF108" s="105" t="n"/>
-      <c r="DG108" s="105" t="n"/>
-      <c r="DH108" s="105" t="n"/>
-      <c r="DI108" s="105" t="n"/>
-      <c r="DJ108" s="105" t="n"/>
-      <c r="DK108" s="105" t="n"/>
-      <c r="DL108" s="105" t="n"/>
-      <c r="DM108" s="105" t="n"/>
-      <c r="DN108" s="105" t="n"/>
-      <c r="DO108" s="105" t="n"/>
-      <c r="DP108" s="105" t="n"/>
+      <c r="B108" s="107" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C108" s="108" t="n"/>
+      <c r="D108" s="109" t="n"/>
+      <c r="E108" s="161" t="n"/>
+      <c r="F108" s="161" t="n"/>
+      <c r="G108" s="11" t="n"/>
+      <c r="H108" s="11">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I108" s="16" t="n"/>
+      <c r="J108" s="16" t="n"/>
+      <c r="K108" s="16" t="n"/>
+      <c r="L108" s="16" t="n"/>
+      <c r="M108" s="16" t="n"/>
+      <c r="N108" s="16" t="n"/>
+      <c r="O108" s="16" t="n"/>
+      <c r="P108" s="16" t="n"/>
+      <c r="Q108" s="16" t="n"/>
+      <c r="R108" s="16" t="n"/>
+      <c r="S108" s="16" t="n"/>
+      <c r="T108" s="16" t="n"/>
+      <c r="U108" s="16" t="n"/>
+      <c r="V108" s="16" t="n"/>
+      <c r="W108" s="16" t="n"/>
+      <c r="X108" s="16" t="n"/>
+      <c r="Y108" s="16" t="n"/>
+      <c r="Z108" s="16" t="n"/>
+      <c r="AA108" s="16" t="n"/>
+      <c r="AB108" s="16" t="n"/>
+      <c r="AC108" s="16" t="n"/>
+      <c r="AD108" s="16" t="n"/>
+      <c r="AE108" s="16" t="n"/>
+      <c r="AF108" s="16" t="n"/>
+      <c r="AG108" s="16" t="n"/>
+      <c r="AH108" s="16" t="n"/>
+      <c r="AI108" s="16" t="n"/>
+      <c r="AJ108" s="16" t="n"/>
+      <c r="AK108" s="16" t="n"/>
+      <c r="AL108" s="16" t="n"/>
+      <c r="AM108" s="16" t="n"/>
+      <c r="AN108" s="16" t="n"/>
+      <c r="AO108" s="16" t="n"/>
+      <c r="AP108" s="16" t="n"/>
+      <c r="AQ108" s="16" t="n"/>
+      <c r="AR108" s="16" t="n"/>
+      <c r="AS108" s="16" t="n"/>
+      <c r="AT108" s="16" t="n"/>
+      <c r="AU108" s="16" t="n"/>
+      <c r="AV108" s="16" t="n"/>
+      <c r="AW108" s="16" t="n"/>
+      <c r="AX108" s="16" t="n"/>
+      <c r="AY108" s="16" t="n"/>
+      <c r="AZ108" s="16" t="n"/>
+      <c r="BA108" s="16" t="n"/>
+      <c r="BB108" s="16" t="n"/>
+      <c r="BC108" s="16" t="n"/>
+      <c r="BD108" s="16" t="n"/>
+      <c r="BE108" s="16" t="n"/>
+      <c r="BF108" s="16" t="n"/>
+      <c r="BG108" s="16" t="n"/>
+      <c r="BH108" s="16" t="n"/>
+      <c r="BI108" s="16" t="n"/>
+      <c r="BJ108" s="16" t="n"/>
+      <c r="BK108" s="16" t="n"/>
+      <c r="BL108" s="16" t="n"/>
+      <c r="BM108" s="16" t="n"/>
+      <c r="BN108" s="16" t="n"/>
+      <c r="BO108" s="16" t="n"/>
+      <c r="BP108" s="16" t="n"/>
+      <c r="BQ108" s="16" t="n"/>
+      <c r="BR108" s="16" t="n"/>
+      <c r="BS108" s="16" t="n"/>
+      <c r="BT108" s="16" t="n"/>
+      <c r="BU108" s="16" t="n"/>
+      <c r="BV108" s="16" t="n"/>
+      <c r="BW108" s="16" t="n"/>
+      <c r="BX108" s="16" t="n"/>
+      <c r="BY108" s="16" t="n"/>
+      <c r="BZ108" s="16" t="n"/>
+      <c r="CA108" s="16" t="n"/>
+      <c r="CB108" s="16" t="n"/>
+      <c r="CC108" s="16" t="n"/>
+      <c r="CD108" s="16" t="n"/>
+      <c r="CE108" s="16" t="n"/>
+      <c r="CF108" s="16" t="n"/>
+      <c r="CG108" s="16" t="n"/>
+      <c r="CH108" s="16" t="n"/>
+      <c r="CI108" s="16" t="n"/>
+      <c r="CJ108" s="16" t="n"/>
+      <c r="CK108" s="16" t="n"/>
+      <c r="CL108" s="16" t="n"/>
+      <c r="CM108" s="16" t="n"/>
+      <c r="CN108" s="16" t="n"/>
+      <c r="CO108" s="16" t="n"/>
+      <c r="CP108" s="16" t="n"/>
+      <c r="CQ108" s="16" t="n"/>
+      <c r="CR108" s="16" t="n"/>
+      <c r="CS108" s="16" t="n"/>
+      <c r="CT108" s="16" t="n"/>
+      <c r="CU108" s="16" t="n"/>
+      <c r="CV108" s="16" t="n"/>
+      <c r="CW108" s="16" t="n"/>
+      <c r="CX108" s="16" t="n"/>
+      <c r="CY108" s="16" t="n"/>
+      <c r="CZ108" s="16" t="n"/>
+      <c r="DA108" s="16" t="n"/>
+      <c r="DB108" s="16" t="n"/>
+      <c r="DC108" s="16" t="n"/>
+      <c r="DD108" s="16" t="n"/>
+      <c r="DE108" s="16" t="n"/>
+      <c r="DF108" s="16" t="n"/>
+      <c r="DG108" s="16" t="n"/>
+      <c r="DH108" s="16" t="n"/>
+      <c r="DI108" s="16" t="n"/>
+      <c r="DJ108" s="16" t="n"/>
+      <c r="DK108" s="16" t="n"/>
+      <c r="DL108" s="16" t="n"/>
+      <c r="DM108" s="16" t="n"/>
+      <c r="DN108" s="16" t="n"/>
+      <c r="DO108" s="16" t="n"/>
+      <c r="DP108" s="16" t="n"/>
     </row>
     <row r="109" ht="30" customFormat="1" customHeight="1" s="105">
       <c r="A109" s="26" t="n"/>
       <c r="B109" s="111" t="n"/>
       <c r="C109" s="112" t="n"/>
       <c r="D109" s="106" t="n"/>
-      <c r="E109" s="166" t="n"/>
-      <c r="F109" s="166" t="n"/>
+      <c r="E109" s="162" t="n"/>
+      <c r="F109" s="162" t="n"/>
       <c r="G109" s="104" t="n"/>
       <c r="H109" s="104" t="n"/>
       <c r="I109" s="105" t="n"/>
@@ -26734,8 +27049,8 @@
       <c r="B110" s="111" t="n"/>
       <c r="C110" s="112" t="n"/>
       <c r="D110" s="106" t="n"/>
-      <c r="E110" s="166" t="n"/>
-      <c r="F110" s="166" t="n"/>
+      <c r="E110" s="162" t="n"/>
+      <c r="F110" s="162" t="n"/>
       <c r="G110" s="104" t="n"/>
       <c r="H110" s="104" t="n"/>
       <c r="I110" s="105" t="n"/>
@@ -26856,8 +27171,8 @@
       <c r="B111" s="111" t="n"/>
       <c r="C111" s="112" t="n"/>
       <c r="D111" s="106" t="n"/>
-      <c r="E111" s="166" t="n"/>
-      <c r="F111" s="166" t="n"/>
+      <c r="E111" s="162" t="n"/>
+      <c r="F111" s="162" t="n"/>
       <c r="G111" s="104" t="n"/>
       <c r="H111" s="104" t="n"/>
       <c r="I111" s="105" t="n"/>
@@ -26978,8 +27293,8 @@
       <c r="B112" s="111" t="n"/>
       <c r="C112" s="112" t="n"/>
       <c r="D112" s="106" t="n"/>
-      <c r="E112" s="166" t="n"/>
-      <c r="F112" s="166" t="n"/>
+      <c r="E112" s="162" t="n"/>
+      <c r="F112" s="162" t="n"/>
       <c r="G112" s="104" t="n"/>
       <c r="H112" s="104" t="n"/>
       <c r="I112" s="105" t="n"/>
@@ -27100,8 +27415,8 @@
       <c r="B113" s="111" t="n"/>
       <c r="C113" s="112" t="n"/>
       <c r="D113" s="106" t="n"/>
-      <c r="E113" s="166" t="n"/>
-      <c r="F113" s="166" t="n"/>
+      <c r="E113" s="162" t="n"/>
+      <c r="F113" s="162" t="n"/>
       <c r="G113" s="104" t="n"/>
       <c r="H113" s="104" t="n"/>
       <c r="I113" s="105" t="n"/>
@@ -27222,8 +27537,8 @@
       <c r="B114" s="111" t="n"/>
       <c r="C114" s="112" t="n"/>
       <c r="D114" s="106" t="n"/>
-      <c r="E114" s="166" t="n"/>
-      <c r="F114" s="166" t="n"/>
+      <c r="E114" s="162" t="n"/>
+      <c r="F114" s="162" t="n"/>
       <c r="G114" s="104" t="n"/>
       <c r="H114" s="104" t="n"/>
       <c r="I114" s="105" t="n"/>
@@ -27344,8 +27659,8 @@
       <c r="B115" s="111" t="n"/>
       <c r="C115" s="112" t="n"/>
       <c r="D115" s="106" t="n"/>
-      <c r="E115" s="166" t="n"/>
-      <c r="F115" s="166" t="n"/>
+      <c r="E115" s="162" t="n"/>
+      <c r="F115" s="162" t="n"/>
       <c r="G115" s="104" t="n"/>
       <c r="H115" s="104" t="n"/>
       <c r="I115" s="105" t="n"/>
@@ -27466,8 +27781,8 @@
       <c r="B116" s="111" t="n"/>
       <c r="C116" s="112" t="n"/>
       <c r="D116" s="106" t="n"/>
-      <c r="E116" s="166" t="n"/>
-      <c r="F116" s="166" t="n"/>
+      <c r="E116" s="162" t="n"/>
+      <c r="F116" s="162" t="n"/>
       <c r="G116" s="104" t="n"/>
       <c r="H116" s="104" t="n"/>
       <c r="I116" s="105" t="n"/>
@@ -27588,8 +27903,8 @@
       <c r="B117" s="111" t="n"/>
       <c r="C117" s="112" t="n"/>
       <c r="D117" s="106" t="n"/>
-      <c r="E117" s="166" t="n"/>
-      <c r="F117" s="166" t="n"/>
+      <c r="E117" s="162" t="n"/>
+      <c r="F117" s="162" t="n"/>
       <c r="G117" s="104" t="n"/>
       <c r="H117" s="104" t="n"/>
       <c r="I117" s="105" t="n"/>
@@ -27710,8 +28025,8 @@
       <c r="B118" s="111" t="n"/>
       <c r="C118" s="112" t="n"/>
       <c r="D118" s="106" t="n"/>
-      <c r="E118" s="166" t="n"/>
-      <c r="F118" s="166" t="n"/>
+      <c r="E118" s="162" t="n"/>
+      <c r="F118" s="162" t="n"/>
       <c r="G118" s="104" t="n"/>
       <c r="H118" s="104" t="n"/>
       <c r="I118" s="105" t="n"/>
@@ -27832,8 +28147,8 @@
       <c r="B119" s="111" t="n"/>
       <c r="C119" s="112" t="n"/>
       <c r="D119" s="106" t="n"/>
-      <c r="E119" s="166" t="n"/>
-      <c r="F119" s="166" t="n"/>
+      <c r="E119" s="162" t="n"/>
+      <c r="F119" s="162" t="n"/>
       <c r="G119" s="104" t="n"/>
       <c r="H119" s="104" t="n"/>
       <c r="I119" s="105" t="n"/>
@@ -27954,8 +28269,8 @@
       <c r="B120" s="111" t="n"/>
       <c r="C120" s="112" t="n"/>
       <c r="D120" s="106" t="n"/>
-      <c r="E120" s="166" t="n"/>
-      <c r="F120" s="166" t="n"/>
+      <c r="E120" s="162" t="n"/>
+      <c r="F120" s="162" t="n"/>
       <c r="G120" s="104" t="n"/>
       <c r="H120" s="104" t="n"/>
       <c r="I120" s="105" t="n"/>
@@ -28076,8 +28391,8 @@
       <c r="B121" s="111" t="n"/>
       <c r="C121" s="112" t="n"/>
       <c r="D121" s="106" t="n"/>
-      <c r="E121" s="166" t="n"/>
-      <c r="F121" s="166" t="n"/>
+      <c r="E121" s="162" t="n"/>
+      <c r="F121" s="162" t="n"/>
       <c r="G121" s="104" t="n"/>
       <c r="H121" s="104" t="n"/>
       <c r="I121" s="105" t="n"/>
@@ -28198,8 +28513,8 @@
       <c r="B122" s="111" t="n"/>
       <c r="C122" s="112" t="n"/>
       <c r="D122" s="106" t="n"/>
-      <c r="E122" s="166" t="n"/>
-      <c r="F122" s="166" t="n"/>
+      <c r="E122" s="162" t="n"/>
+      <c r="F122" s="162" t="n"/>
       <c r="G122" s="104" t="n"/>
       <c r="H122" s="104" t="n"/>
       <c r="I122" s="105" t="n"/>
@@ -28320,8 +28635,8 @@
       <c r="B123" s="111" t="n"/>
       <c r="C123" s="112" t="n"/>
       <c r="D123" s="106" t="n"/>
-      <c r="E123" s="166" t="n"/>
-      <c r="F123" s="166" t="n"/>
+      <c r="E123" s="162" t="n"/>
+      <c r="F123" s="162" t="n"/>
       <c r="G123" s="104" t="n"/>
       <c r="H123" s="104" t="n"/>
       <c r="I123" s="105" t="n"/>
@@ -28442,8 +28757,8 @@
       <c r="B124" s="111" t="n"/>
       <c r="C124" s="112" t="n"/>
       <c r="D124" s="106" t="n"/>
-      <c r="E124" s="166" t="n"/>
-      <c r="F124" s="166" t="n"/>
+      <c r="E124" s="162" t="n"/>
+      <c r="F124" s="162" t="n"/>
       <c r="G124" s="104" t="n"/>
       <c r="H124" s="104" t="n"/>
       <c r="I124" s="105" t="n"/>
@@ -28564,8 +28879,8 @@
       <c r="B125" s="111" t="n"/>
       <c r="C125" s="112" t="n"/>
       <c r="D125" s="106" t="n"/>
-      <c r="E125" s="166" t="n"/>
-      <c r="F125" s="166" t="n"/>
+      <c r="E125" s="162" t="n"/>
+      <c r="F125" s="162" t="n"/>
       <c r="G125" s="104" t="n"/>
       <c r="H125" s="104" t="n"/>
       <c r="I125" s="105" t="n"/>
@@ -28686,8 +29001,8 @@
       <c r="B126" s="111" t="n"/>
       <c r="C126" s="112" t="n"/>
       <c r="D126" s="106" t="n"/>
-      <c r="E126" s="166" t="n"/>
-      <c r="F126" s="166" t="n"/>
+      <c r="E126" s="162" t="n"/>
+      <c r="F126" s="162" t="n"/>
       <c r="G126" s="104" t="n"/>
       <c r="H126" s="104" t="n"/>
       <c r="I126" s="105" t="n"/>
@@ -28808,8 +29123,8 @@
       <c r="B127" s="111" t="n"/>
       <c r="C127" s="112" t="n"/>
       <c r="D127" s="106" t="n"/>
-      <c r="E127" s="166" t="n"/>
-      <c r="F127" s="166" t="n"/>
+      <c r="E127" s="162" t="n"/>
+      <c r="F127" s="162" t="n"/>
       <c r="G127" s="104" t="n"/>
       <c r="H127" s="104" t="n"/>
       <c r="I127" s="105" t="n"/>
@@ -28930,8 +29245,8 @@
       <c r="B128" s="111" t="n"/>
       <c r="C128" s="112" t="n"/>
       <c r="D128" s="106" t="n"/>
-      <c r="E128" s="166" t="n"/>
-      <c r="F128" s="166" t="n"/>
+      <c r="E128" s="162" t="n"/>
+      <c r="F128" s="162" t="n"/>
       <c r="G128" s="104" t="n"/>
       <c r="H128" s="104" t="n"/>
       <c r="I128" s="105" t="n"/>
@@ -29052,8 +29367,8 @@
       <c r="B129" s="111" t="n"/>
       <c r="C129" s="112" t="n"/>
       <c r="D129" s="106" t="n"/>
-      <c r="E129" s="166" t="n"/>
-      <c r="F129" s="166" t="n"/>
+      <c r="E129" s="162" t="n"/>
+      <c r="F129" s="162" t="n"/>
       <c r="G129" s="104" t="n"/>
       <c r="H129" s="104" t="n"/>
       <c r="I129" s="105" t="n"/>
@@ -29174,8 +29489,8 @@
       <c r="B130" s="111" t="n"/>
       <c r="C130" s="112" t="n"/>
       <c r="D130" s="106" t="n"/>
-      <c r="E130" s="166" t="n"/>
-      <c r="F130" s="166" t="n"/>
+      <c r="E130" s="162" t="n"/>
+      <c r="F130" s="162" t="n"/>
       <c r="G130" s="104" t="n"/>
       <c r="H130" s="104" t="n"/>
       <c r="I130" s="105" t="n"/>
@@ -29296,8 +29611,8 @@
       <c r="B131" s="111" t="n"/>
       <c r="C131" s="112" t="n"/>
       <c r="D131" s="106" t="n"/>
-      <c r="E131" s="166" t="n"/>
-      <c r="F131" s="166" t="n"/>
+      <c r="E131" s="162" t="n"/>
+      <c r="F131" s="162" t="n"/>
       <c r="G131" s="104" t="n"/>
       <c r="H131" s="104" t="n"/>
       <c r="I131" s="105" t="n"/>
@@ -29418,8 +29733,8 @@
       <c r="B132" s="111" t="n"/>
       <c r="C132" s="112" t="n"/>
       <c r="D132" s="106" t="n"/>
-      <c r="E132" s="166" t="n"/>
-      <c r="F132" s="166" t="n"/>
+      <c r="E132" s="162" t="n"/>
+      <c r="F132" s="162" t="n"/>
       <c r="G132" s="104" t="n"/>
       <c r="H132" s="104" t="n"/>
       <c r="I132" s="105" t="n"/>
@@ -29540,8 +29855,8 @@
       <c r="B133" s="111" t="n"/>
       <c r="C133" s="112" t="n"/>
       <c r="D133" s="106" t="n"/>
-      <c r="E133" s="166" t="n"/>
-      <c r="F133" s="166" t="n"/>
+      <c r="E133" s="162" t="n"/>
+      <c r="F133" s="162" t="n"/>
       <c r="G133" s="104" t="n"/>
       <c r="H133" s="104" t="n"/>
       <c r="I133" s="105" t="n"/>
@@ -29662,8 +29977,8 @@
       <c r="B134" s="111" t="n"/>
       <c r="C134" s="112" t="n"/>
       <c r="D134" s="106" t="n"/>
-      <c r="E134" s="166" t="n"/>
-      <c r="F134" s="166" t="n"/>
+      <c r="E134" s="162" t="n"/>
+      <c r="F134" s="162" t="n"/>
       <c r="G134" s="104" t="n"/>
       <c r="H134" s="104" t="n"/>
       <c r="I134" s="105" t="n"/>
@@ -29784,8 +30099,8 @@
       <c r="B135" s="111" t="n"/>
       <c r="C135" s="112" t="n"/>
       <c r="D135" s="106" t="n"/>
-      <c r="E135" s="166" t="n"/>
-      <c r="F135" s="166" t="n"/>
+      <c r="E135" s="162" t="n"/>
+      <c r="F135" s="162" t="n"/>
       <c r="G135" s="104" t="n"/>
       <c r="H135" s="104" t="n"/>
       <c r="I135" s="105" t="n"/>
@@ -29906,8 +30221,8 @@
       <c r="B136" s="111" t="n"/>
       <c r="C136" s="112" t="n"/>
       <c r="D136" s="106" t="n"/>
-      <c r="E136" s="166" t="n"/>
-      <c r="F136" s="166" t="n"/>
+      <c r="E136" s="162" t="n"/>
+      <c r="F136" s="162" t="n"/>
       <c r="G136" s="104" t="n"/>
       <c r="H136" s="104" t="n"/>
       <c r="I136" s="105" t="n"/>
@@ -30028,8 +30343,8 @@
       <c r="B137" s="111" t="n"/>
       <c r="C137" s="112" t="n"/>
       <c r="D137" s="106" t="n"/>
-      <c r="E137" s="166" t="n"/>
-      <c r="F137" s="166" t="n"/>
+      <c r="E137" s="162" t="n"/>
+      <c r="F137" s="162" t="n"/>
       <c r="G137" s="104" t="n"/>
       <c r="H137" s="104" t="n"/>
       <c r="I137" s="105" t="n"/>
@@ -30150,8 +30465,8 @@
       <c r="B138" s="111" t="n"/>
       <c r="C138" s="112" t="n"/>
       <c r="D138" s="106" t="n"/>
-      <c r="E138" s="166" t="n"/>
-      <c r="F138" s="166" t="n"/>
+      <c r="E138" s="162" t="n"/>
+      <c r="F138" s="162" t="n"/>
       <c r="G138" s="104" t="n"/>
       <c r="H138" s="104" t="n"/>
       <c r="I138" s="105" t="n"/>
@@ -30272,8 +30587,8 @@
       <c r="B139" s="111" t="n"/>
       <c r="C139" s="112" t="n"/>
       <c r="D139" s="106" t="n"/>
-      <c r="E139" s="166" t="n"/>
-      <c r="F139" s="166" t="n"/>
+      <c r="E139" s="162" t="n"/>
+      <c r="F139" s="162" t="n"/>
       <c r="G139" s="104" t="n"/>
       <c r="H139" s="104" t="n"/>
       <c r="I139" s="105" t="n"/>
@@ -30394,8 +30709,8 @@
       <c r="B140" s="111" t="n"/>
       <c r="C140" s="112" t="n"/>
       <c r="D140" s="106" t="n"/>
-      <c r="E140" s="166" t="n"/>
-      <c r="F140" s="166" t="n"/>
+      <c r="E140" s="162" t="n"/>
+      <c r="F140" s="162" t="n"/>
       <c r="G140" s="104" t="n"/>
       <c r="H140" s="104" t="n"/>
       <c r="I140" s="105" t="n"/>
@@ -30516,8 +30831,8 @@
       <c r="B141" s="111" t="n"/>
       <c r="C141" s="112" t="n"/>
       <c r="D141" s="106" t="n"/>
-      <c r="E141" s="166" t="n"/>
-      <c r="F141" s="166" t="n"/>
+      <c r="E141" s="162" t="n"/>
+      <c r="F141" s="162" t="n"/>
       <c r="G141" s="104" t="n"/>
       <c r="H141" s="104" t="n"/>
       <c r="I141" s="105" t="n"/>
@@ -30638,8 +30953,8 @@
       <c r="B142" s="111" t="n"/>
       <c r="C142" s="112" t="n"/>
       <c r="D142" s="106" t="n"/>
-      <c r="E142" s="166" t="n"/>
-      <c r="F142" s="166" t="n"/>
+      <c r="E142" s="162" t="n"/>
+      <c r="F142" s="162" t="n"/>
       <c r="G142" s="104" t="n"/>
       <c r="H142" s="104" t="n"/>
       <c r="I142" s="105" t="n"/>
@@ -30760,8 +31075,8 @@
       <c r="B143" s="111" t="n"/>
       <c r="C143" s="112" t="n"/>
       <c r="D143" s="106" t="n"/>
-      <c r="E143" s="166" t="n"/>
-      <c r="F143" s="166" t="n"/>
+      <c r="E143" s="162" t="n"/>
+      <c r="F143" s="162" t="n"/>
       <c r="G143" s="104" t="n"/>
       <c r="H143" s="104" t="n"/>
       <c r="I143" s="105" t="n"/>
@@ -30882,8 +31197,8 @@
       <c r="B144" s="111" t="n"/>
       <c r="C144" s="112" t="n"/>
       <c r="D144" s="106" t="n"/>
-      <c r="E144" s="166" t="n"/>
-      <c r="F144" s="166" t="n"/>
+      <c r="E144" s="162" t="n"/>
+      <c r="F144" s="162" t="n"/>
       <c r="G144" s="104" t="n"/>
       <c r="H144" s="104" t="n"/>
       <c r="I144" s="105" t="n"/>
@@ -31004,8 +31319,8 @@
       <c r="B145" s="111" t="n"/>
       <c r="C145" s="112" t="n"/>
       <c r="D145" s="106" t="n"/>
-      <c r="E145" s="166" t="n"/>
-      <c r="F145" s="166" t="n"/>
+      <c r="E145" s="162" t="n"/>
+      <c r="F145" s="162" t="n"/>
       <c r="G145" s="104" t="n"/>
       <c r="H145" s="104" t="n"/>
       <c r="I145" s="105" t="n"/>
@@ -31126,8 +31441,8 @@
       <c r="B146" s="111" t="n"/>
       <c r="C146" s="112" t="n"/>
       <c r="D146" s="106" t="n"/>
-      <c r="E146" s="166" t="n"/>
-      <c r="F146" s="166" t="n"/>
+      <c r="E146" s="162" t="n"/>
+      <c r="F146" s="162" t="n"/>
       <c r="G146" s="104" t="n"/>
       <c r="H146" s="104" t="n"/>
       <c r="I146" s="105" t="n"/>
@@ -31248,8 +31563,8 @@
       <c r="B147" s="111" t="n"/>
       <c r="C147" s="112" t="n"/>
       <c r="D147" s="106" t="n"/>
-      <c r="E147" s="166" t="n"/>
-      <c r="F147" s="166" t="n"/>
+      <c r="E147" s="162" t="n"/>
+      <c r="F147" s="162" t="n"/>
       <c r="G147" s="104" t="n"/>
       <c r="H147" s="104" t="n"/>
       <c r="I147" s="105" t="n"/>
@@ -31370,8 +31685,8 @@
       <c r="B148" s="111" t="n"/>
       <c r="C148" s="112" t="n"/>
       <c r="D148" s="106" t="n"/>
-      <c r="E148" s="166" t="n"/>
-      <c r="F148" s="166" t="n"/>
+      <c r="E148" s="162" t="n"/>
+      <c r="F148" s="162" t="n"/>
       <c r="G148" s="104" t="n"/>
       <c r="H148" s="104" t="n"/>
       <c r="I148" s="105" t="n"/>
@@ -31492,8 +31807,8 @@
       <c r="B149" s="111" t="n"/>
       <c r="C149" s="112" t="n"/>
       <c r="D149" s="106" t="n"/>
-      <c r="E149" s="166" t="n"/>
-      <c r="F149" s="166" t="n"/>
+      <c r="E149" s="162" t="n"/>
+      <c r="F149" s="162" t="n"/>
       <c r="G149" s="104" t="n"/>
       <c r="H149" s="104" t="n"/>
       <c r="I149" s="105" t="n"/>
@@ -31614,8 +31929,8 @@
       <c r="B150" s="111" t="n"/>
       <c r="C150" s="112" t="n"/>
       <c r="D150" s="106" t="n"/>
-      <c r="E150" s="166" t="n"/>
-      <c r="F150" s="166" t="n"/>
+      <c r="E150" s="162" t="n"/>
+      <c r="F150" s="162" t="n"/>
       <c r="G150" s="104" t="n"/>
       <c r="H150" s="104" t="n"/>
       <c r="I150" s="105" t="n"/>
@@ -31736,8 +32051,8 @@
       <c r="B151" s="111" t="n"/>
       <c r="C151" s="112" t="n"/>
       <c r="D151" s="106" t="n"/>
-      <c r="E151" s="166" t="n"/>
-      <c r="F151" s="166" t="n"/>
+      <c r="E151" s="162" t="n"/>
+      <c r="F151" s="162" t="n"/>
       <c r="G151" s="104" t="n"/>
       <c r="H151" s="104" t="n"/>
       <c r="I151" s="105" t="n"/>
@@ -31858,8 +32173,8 @@
       <c r="B152" s="111" t="n"/>
       <c r="C152" s="112" t="n"/>
       <c r="D152" s="106" t="n"/>
-      <c r="E152" s="166" t="n"/>
-      <c r="F152" s="166" t="n"/>
+      <c r="E152" s="162" t="n"/>
+      <c r="F152" s="162" t="n"/>
       <c r="G152" s="104" t="n"/>
       <c r="H152" s="104" t="n"/>
       <c r="I152" s="105" t="n"/>
@@ -31980,8 +32295,8 @@
       <c r="B153" s="111" t="n"/>
       <c r="C153" s="112" t="n"/>
       <c r="D153" s="106" t="n"/>
-      <c r="E153" s="166" t="n"/>
-      <c r="F153" s="166" t="n"/>
+      <c r="E153" s="162" t="n"/>
+      <c r="F153" s="162" t="n"/>
       <c r="G153" s="104" t="n"/>
       <c r="H153" s="104" t="n"/>
       <c r="I153" s="105" t="n"/>
@@ -32102,8 +32417,8 @@
       <c r="B154" s="111" t="n"/>
       <c r="C154" s="112" t="n"/>
       <c r="D154" s="106" t="n"/>
-      <c r="E154" s="166" t="n"/>
-      <c r="F154" s="166" t="n"/>
+      <c r="E154" s="162" t="n"/>
+      <c r="F154" s="162" t="n"/>
       <c r="G154" s="104" t="n"/>
       <c r="H154" s="104" t="n"/>
       <c r="I154" s="105" t="n"/>
@@ -32224,8 +32539,8 @@
       <c r="B155" s="111" t="n"/>
       <c r="C155" s="112" t="n"/>
       <c r="D155" s="106" t="n"/>
-      <c r="E155" s="166" t="n"/>
-      <c r="F155" s="166" t="n"/>
+      <c r="E155" s="162" t="n"/>
+      <c r="F155" s="162" t="n"/>
       <c r="G155" s="104" t="n"/>
       <c r="H155" s="104" t="n"/>
       <c r="I155" s="105" t="n"/>
@@ -32346,8 +32661,8 @@
       <c r="B156" s="111" t="n"/>
       <c r="C156" s="112" t="n"/>
       <c r="D156" s="106" t="n"/>
-      <c r="E156" s="166" t="n"/>
-      <c r="F156" s="166" t="n"/>
+      <c r="E156" s="162" t="n"/>
+      <c r="F156" s="162" t="n"/>
       <c r="G156" s="104" t="n"/>
       <c r="H156" s="104" t="n"/>
       <c r="I156" s="105" t="n"/>
@@ -32468,8 +32783,8 @@
       <c r="B157" s="111" t="n"/>
       <c r="C157" s="112" t="n"/>
       <c r="D157" s="106" t="n"/>
-      <c r="E157" s="166" t="n"/>
-      <c r="F157" s="166" t="n"/>
+      <c r="E157" s="162" t="n"/>
+      <c r="F157" s="162" t="n"/>
       <c r="G157" s="104" t="n"/>
       <c r="H157" s="104" t="n"/>
       <c r="I157" s="105" t="n"/>
@@ -32590,8 +32905,8 @@
       <c r="B158" s="111" t="n"/>
       <c r="C158" s="112" t="n"/>
       <c r="D158" s="106" t="n"/>
-      <c r="E158" s="166" t="n"/>
-      <c r="F158" s="166" t="n"/>
+      <c r="E158" s="162" t="n"/>
+      <c r="F158" s="162" t="n"/>
       <c r="G158" s="104" t="n"/>
       <c r="H158" s="104" t="n"/>
       <c r="I158" s="105" t="n"/>
@@ -32712,8 +33027,8 @@
       <c r="B159" s="111" t="n"/>
       <c r="C159" s="112" t="n"/>
       <c r="D159" s="106" t="n"/>
-      <c r="E159" s="166" t="n"/>
-      <c r="F159" s="166" t="n"/>
+      <c r="E159" s="162" t="n"/>
+      <c r="F159" s="162" t="n"/>
       <c r="G159" s="104" t="n"/>
       <c r="H159" s="104" t="n"/>
       <c r="I159" s="105" t="n"/>
@@ -32834,8 +33149,8 @@
       <c r="B160" s="111" t="n"/>
       <c r="C160" s="112" t="n"/>
       <c r="D160" s="106" t="n"/>
-      <c r="E160" s="166" t="n"/>
-      <c r="F160" s="166" t="n"/>
+      <c r="E160" s="162" t="n"/>
+      <c r="F160" s="162" t="n"/>
       <c r="G160" s="104" t="n"/>
       <c r="H160" s="104" t="n"/>
       <c r="I160" s="105" t="n"/>
@@ -32956,8 +33271,8 @@
       <c r="B161" s="111" t="n"/>
       <c r="C161" s="112" t="n"/>
       <c r="D161" s="106" t="n"/>
-      <c r="E161" s="166" t="n"/>
-      <c r="F161" s="166" t="n"/>
+      <c r="E161" s="162" t="n"/>
+      <c r="F161" s="162" t="n"/>
       <c r="G161" s="104" t="n"/>
       <c r="H161" s="104" t="n"/>
       <c r="I161" s="105" t="n"/>
@@ -33078,8 +33393,8 @@
       <c r="B162" s="111" t="n"/>
       <c r="C162" s="112" t="n"/>
       <c r="D162" s="106" t="n"/>
-      <c r="E162" s="166" t="n"/>
-      <c r="F162" s="166" t="n"/>
+      <c r="E162" s="162" t="n"/>
+      <c r="F162" s="162" t="n"/>
       <c r="G162" s="104" t="n"/>
       <c r="H162" s="104" t="n"/>
       <c r="I162" s="105" t="n"/>
@@ -33200,8 +33515,8 @@
       <c r="B163" s="111" t="n"/>
       <c r="C163" s="112" t="n"/>
       <c r="D163" s="106" t="n"/>
-      <c r="E163" s="166" t="n"/>
-      <c r="F163" s="166" t="n"/>
+      <c r="E163" s="162" t="n"/>
+      <c r="F163" s="162" t="n"/>
       <c r="G163" s="104" t="n"/>
       <c r="H163" s="104" t="n"/>
       <c r="I163" s="105" t="n"/>
@@ -33322,8 +33637,8 @@
       <c r="B164" s="111" t="n"/>
       <c r="C164" s="112" t="n"/>
       <c r="D164" s="106" t="n"/>
-      <c r="E164" s="166" t="n"/>
-      <c r="F164" s="166" t="n"/>
+      <c r="E164" s="162" t="n"/>
+      <c r="F164" s="162" t="n"/>
       <c r="G164" s="104" t="n"/>
       <c r="H164" s="104" t="n"/>
       <c r="I164" s="105" t="n"/>
@@ -33444,8 +33759,8 @@
       <c r="B165" s="111" t="n"/>
       <c r="C165" s="112" t="n"/>
       <c r="D165" s="106" t="n"/>
-      <c r="E165" s="166" t="n"/>
-      <c r="F165" s="166" t="n"/>
+      <c r="E165" s="162" t="n"/>
+      <c r="F165" s="162" t="n"/>
       <c r="G165" s="104" t="n"/>
       <c r="H165" s="104" t="n"/>
       <c r="I165" s="105" t="n"/>
@@ -33566,8 +33881,8 @@
       <c r="B166" s="111" t="n"/>
       <c r="C166" s="112" t="n"/>
       <c r="D166" s="106" t="n"/>
-      <c r="E166" s="166" t="n"/>
-      <c r="F166" s="166" t="n"/>
+      <c r="E166" s="162" t="n"/>
+      <c r="F166" s="162" t="n"/>
       <c r="G166" s="104" t="n"/>
       <c r="H166" s="104" t="n"/>
       <c r="I166" s="105" t="n"/>
@@ -33688,8 +34003,8 @@
       <c r="B167" s="111" t="n"/>
       <c r="C167" s="112" t="n"/>
       <c r="D167" s="106" t="n"/>
-      <c r="E167" s="166" t="n"/>
-      <c r="F167" s="166" t="n"/>
+      <c r="E167" s="162" t="n"/>
+      <c r="F167" s="162" t="n"/>
       <c r="G167" s="104" t="n"/>
       <c r="H167" s="104" t="n"/>
       <c r="I167" s="105" t="n"/>
@@ -33810,8 +34125,8 @@
       <c r="B168" s="111" t="n"/>
       <c r="C168" s="112" t="n"/>
       <c r="D168" s="106" t="n"/>
-      <c r="E168" s="166" t="n"/>
-      <c r="F168" s="166" t="n"/>
+      <c r="E168" s="162" t="n"/>
+      <c r="F168" s="162" t="n"/>
       <c r="G168" s="104" t="n"/>
       <c r="H168" s="104" t="n"/>
       <c r="I168" s="105" t="n"/>
@@ -33932,8 +34247,8 @@
       <c r="B169" s="111" t="n"/>
       <c r="C169" s="112" t="n"/>
       <c r="D169" s="106" t="n"/>
-      <c r="E169" s="166" t="n"/>
-      <c r="F169" s="166" t="n"/>
+      <c r="E169" s="162" t="n"/>
+      <c r="F169" s="162" t="n"/>
       <c r="G169" s="104" t="n"/>
       <c r="H169" s="104" t="n"/>
       <c r="I169" s="105" t="n"/>
@@ -34054,8 +34369,8 @@
       <c r="B170" s="111" t="n"/>
       <c r="C170" s="112" t="n"/>
       <c r="D170" s="106" t="n"/>
-      <c r="E170" s="166" t="n"/>
-      <c r="F170" s="166" t="n"/>
+      <c r="E170" s="162" t="n"/>
+      <c r="F170" s="162" t="n"/>
       <c r="G170" s="104" t="n"/>
       <c r="H170" s="104" t="n"/>
       <c r="I170" s="105" t="n"/>
@@ -34176,8 +34491,8 @@
       <c r="B171" s="111" t="n"/>
       <c r="C171" s="112" t="n"/>
       <c r="D171" s="106" t="n"/>
-      <c r="E171" s="166" t="n"/>
-      <c r="F171" s="166" t="n"/>
+      <c r="E171" s="162" t="n"/>
+      <c r="F171" s="162" t="n"/>
       <c r="G171" s="104" t="n"/>
       <c r="H171" s="104" t="n"/>
       <c r="I171" s="105" t="n"/>
@@ -34298,8 +34613,8 @@
       <c r="B172" s="111" t="n"/>
       <c r="C172" s="112" t="n"/>
       <c r="D172" s="106" t="n"/>
-      <c r="E172" s="166" t="n"/>
-      <c r="F172" s="166" t="n"/>
+      <c r="E172" s="162" t="n"/>
+      <c r="F172" s="162" t="n"/>
       <c r="G172" s="104" t="n"/>
       <c r="H172" s="104" t="n"/>
       <c r="I172" s="105" t="n"/>
@@ -34420,8 +34735,8 @@
       <c r="B173" s="111" t="n"/>
       <c r="C173" s="112" t="n"/>
       <c r="D173" s="106" t="n"/>
-      <c r="E173" s="166" t="n"/>
-      <c r="F173" s="166" t="n"/>
+      <c r="E173" s="162" t="n"/>
+      <c r="F173" s="162" t="n"/>
       <c r="G173" s="104" t="n"/>
       <c r="H173" s="104" t="n"/>
       <c r="I173" s="105" t="n"/>
@@ -34542,8 +34857,8 @@
       <c r="B174" s="111" t="n"/>
       <c r="C174" s="112" t="n"/>
       <c r="D174" s="106" t="n"/>
-      <c r="E174" s="166" t="n"/>
-      <c r="F174" s="166" t="n"/>
+      <c r="E174" s="162" t="n"/>
+      <c r="F174" s="162" t="n"/>
       <c r="G174" s="104" t="n"/>
       <c r="H174" s="104" t="n"/>
       <c r="I174" s="105" t="n"/>
@@ -34664,8 +34979,8 @@
       <c r="B175" s="111" t="n"/>
       <c r="C175" s="112" t="n"/>
       <c r="D175" s="106" t="n"/>
-      <c r="E175" s="166" t="n"/>
-      <c r="F175" s="166" t="n"/>
+      <c r="E175" s="162" t="n"/>
+      <c r="F175" s="162" t="n"/>
       <c r="G175" s="104" t="n"/>
       <c r="H175" s="104" t="n"/>
       <c r="I175" s="105" t="n"/>
@@ -34786,8 +35101,8 @@
       <c r="B176" s="111" t="n"/>
       <c r="C176" s="112" t="n"/>
       <c r="D176" s="106" t="n"/>
-      <c r="E176" s="166" t="n"/>
-      <c r="F176" s="166" t="n"/>
+      <c r="E176" s="162" t="n"/>
+      <c r="F176" s="162" t="n"/>
       <c r="G176" s="104" t="n"/>
       <c r="H176" s="104" t="n"/>
       <c r="I176" s="105" t="n"/>
@@ -34908,8 +35223,8 @@
       <c r="B177" s="111" t="n"/>
       <c r="C177" s="112" t="n"/>
       <c r="D177" s="106" t="n"/>
-      <c r="E177" s="166" t="n"/>
-      <c r="F177" s="166" t="n"/>
+      <c r="E177" s="162" t="n"/>
+      <c r="F177" s="162" t="n"/>
       <c r="G177" s="104" t="n"/>
       <c r="H177" s="104" t="n"/>
       <c r="I177" s="105" t="n"/>
@@ -35030,8 +35345,8 @@
       <c r="B178" s="111" t="n"/>
       <c r="C178" s="112" t="n"/>
       <c r="D178" s="106" t="n"/>
-      <c r="E178" s="166" t="n"/>
-      <c r="F178" s="166" t="n"/>
+      <c r="E178" s="162" t="n"/>
+      <c r="F178" s="162" t="n"/>
       <c r="G178" s="104" t="n"/>
       <c r="H178" s="104" t="n"/>
       <c r="I178" s="105" t="n"/>
@@ -35152,8 +35467,8 @@
       <c r="B179" s="111" t="n"/>
       <c r="C179" s="112" t="n"/>
       <c r="D179" s="106" t="n"/>
-      <c r="E179" s="166" t="n"/>
-      <c r="F179" s="166" t="n"/>
+      <c r="E179" s="162" t="n"/>
+      <c r="F179" s="162" t="n"/>
       <c r="G179" s="104" t="n"/>
       <c r="H179" s="104" t="n"/>
       <c r="I179" s="105" t="n"/>
@@ -35274,8 +35589,8 @@
       <c r="B180" s="111" t="n"/>
       <c r="C180" s="112" t="n"/>
       <c r="D180" s="106" t="n"/>
-      <c r="E180" s="166" t="n"/>
-      <c r="F180" s="166" t="n"/>
+      <c r="E180" s="162" t="n"/>
+      <c r="F180" s="162" t="n"/>
       <c r="G180" s="104" t="n"/>
       <c r="H180" s="104" t="n"/>
       <c r="I180" s="105" t="n"/>
@@ -35396,8 +35711,8 @@
       <c r="B181" s="111" t="n"/>
       <c r="C181" s="112" t="n"/>
       <c r="D181" s="106" t="n"/>
-      <c r="E181" s="166" t="n"/>
-      <c r="F181" s="166" t="n"/>
+      <c r="E181" s="162" t="n"/>
+      <c r="F181" s="162" t="n"/>
       <c r="G181" s="104" t="n"/>
       <c r="H181" s="104" t="n"/>
       <c r="I181" s="105" t="n"/>
@@ -35518,8 +35833,8 @@
       <c r="B182" s="111" t="n"/>
       <c r="C182" s="112" t="n"/>
       <c r="D182" s="106" t="n"/>
-      <c r="E182" s="166" t="n"/>
-      <c r="F182" s="166" t="n"/>
+      <c r="E182" s="162" t="n"/>
+      <c r="F182" s="162" t="n"/>
       <c r="G182" s="104" t="n"/>
       <c r="H182" s="104" t="n"/>
       <c r="I182" s="105" t="n"/>
@@ -35640,8 +35955,8 @@
       <c r="B183" s="111" t="n"/>
       <c r="C183" s="112" t="n"/>
       <c r="D183" s="106" t="n"/>
-      <c r="E183" s="166" t="n"/>
-      <c r="F183" s="166" t="n"/>
+      <c r="E183" s="162" t="n"/>
+      <c r="F183" s="162" t="n"/>
       <c r="G183" s="104" t="n"/>
       <c r="H183" s="104" t="n"/>
       <c r="I183" s="105" t="n"/>
@@ -35762,8 +36077,8 @@
       <c r="B184" s="111" t="n"/>
       <c r="C184" s="112" t="n"/>
       <c r="D184" s="106" t="n"/>
-      <c r="E184" s="166" t="n"/>
-      <c r="F184" s="166" t="n"/>
+      <c r="E184" s="162" t="n"/>
+      <c r="F184" s="162" t="n"/>
       <c r="G184" s="104" t="n"/>
       <c r="H184" s="104" t="n"/>
       <c r="I184" s="105" t="n"/>
@@ -35884,8 +36199,8 @@
       <c r="B185" s="111" t="n"/>
       <c r="C185" s="112" t="n"/>
       <c r="D185" s="106" t="n"/>
-      <c r="E185" s="166" t="n"/>
-      <c r="F185" s="166" t="n"/>
+      <c r="E185" s="162" t="n"/>
+      <c r="F185" s="162" t="n"/>
       <c r="G185" s="104" t="n"/>
       <c r="H185" s="104" t="n"/>
       <c r="I185" s="105" t="n"/>
@@ -36006,8 +36321,8 @@
       <c r="B186" s="111" t="n"/>
       <c r="C186" s="112" t="n"/>
       <c r="D186" s="106" t="n"/>
-      <c r="E186" s="166" t="n"/>
-      <c r="F186" s="166" t="n"/>
+      <c r="E186" s="162" t="n"/>
+      <c r="F186" s="162" t="n"/>
       <c r="G186" s="104" t="n"/>
       <c r="H186" s="104" t="n"/>
       <c r="I186" s="105" t="n"/>
@@ -36128,8 +36443,8 @@
       <c r="B187" s="111" t="n"/>
       <c r="C187" s="112" t="n"/>
       <c r="D187" s="106" t="n"/>
-      <c r="E187" s="166" t="n"/>
-      <c r="F187" s="166" t="n"/>
+      <c r="E187" s="162" t="n"/>
+      <c r="F187" s="162" t="n"/>
       <c r="G187" s="104" t="n"/>
       <c r="H187" s="104" t="n"/>
       <c r="I187" s="105" t="n"/>
@@ -36250,8 +36565,8 @@
       <c r="B188" s="111" t="n"/>
       <c r="C188" s="112" t="n"/>
       <c r="D188" s="106" t="n"/>
-      <c r="E188" s="166" t="n"/>
-      <c r="F188" s="166" t="n"/>
+      <c r="E188" s="162" t="n"/>
+      <c r="F188" s="162" t="n"/>
       <c r="G188" s="104" t="n"/>
       <c r="H188" s="104" t="n"/>
       <c r="I188" s="105" t="n"/>
@@ -36372,8 +36687,8 @@
       <c r="B189" s="111" t="n"/>
       <c r="C189" s="112" t="n"/>
       <c r="D189" s="106" t="n"/>
-      <c r="E189" s="166" t="n"/>
-      <c r="F189" s="166" t="n"/>
+      <c r="E189" s="162" t="n"/>
+      <c r="F189" s="162" t="n"/>
       <c r="G189" s="104" t="n"/>
       <c r="H189" s="104" t="n"/>
       <c r="I189" s="105" t="n"/>
@@ -36494,8 +36809,8 @@
       <c r="B190" s="111" t="n"/>
       <c r="C190" s="112" t="n"/>
       <c r="D190" s="106" t="n"/>
-      <c r="E190" s="166" t="n"/>
-      <c r="F190" s="166" t="n"/>
+      <c r="E190" s="162" t="n"/>
+      <c r="F190" s="162" t="n"/>
       <c r="G190" s="104" t="n"/>
       <c r="H190" s="104" t="n"/>
       <c r="I190" s="105" t="n"/>
@@ -36616,8 +36931,8 @@
       <c r="B191" s="111" t="n"/>
       <c r="C191" s="112" t="n"/>
       <c r="D191" s="106" t="n"/>
-      <c r="E191" s="166" t="n"/>
-      <c r="F191" s="166" t="n"/>
+      <c r="E191" s="162" t="n"/>
+      <c r="F191" s="162" t="n"/>
       <c r="G191" s="104" t="n"/>
       <c r="H191" s="104" t="n"/>
       <c r="I191" s="105" t="n"/>
@@ -36738,8 +37053,8 @@
       <c r="B192" s="111" t="n"/>
       <c r="C192" s="112" t="n"/>
       <c r="D192" s="106" t="n"/>
-      <c r="E192" s="166" t="n"/>
-      <c r="F192" s="166" t="n"/>
+      <c r="E192" s="162" t="n"/>
+      <c r="F192" s="162" t="n"/>
       <c r="G192" s="104" t="n"/>
       <c r="H192" s="104" t="n"/>
       <c r="I192" s="105" t="n"/>
@@ -36860,8 +37175,8 @@
       <c r="B193" s="111" t="n"/>
       <c r="C193" s="112" t="n"/>
       <c r="D193" s="106" t="n"/>
-      <c r="E193" s="166" t="n"/>
-      <c r="F193" s="166" t="n"/>
+      <c r="E193" s="162" t="n"/>
+      <c r="F193" s="162" t="n"/>
       <c r="G193" s="104" t="n"/>
       <c r="H193" s="104" t="n"/>
       <c r="I193" s="105" t="n"/>
@@ -36982,8 +37297,8 @@
       <c r="B194" s="111" t="n"/>
       <c r="C194" s="112" t="n"/>
       <c r="D194" s="106" t="n"/>
-      <c r="E194" s="166" t="n"/>
-      <c r="F194" s="166" t="n"/>
+      <c r="E194" s="162" t="n"/>
+      <c r="F194" s="162" t="n"/>
       <c r="G194" s="104" t="n"/>
       <c r="H194" s="104" t="n"/>
       <c r="I194" s="105" t="n"/>
@@ -37104,8 +37419,8 @@
       <c r="B195" s="111" t="n"/>
       <c r="C195" s="112" t="n"/>
       <c r="D195" s="106" t="n"/>
-      <c r="E195" s="166" t="n"/>
-      <c r="F195" s="166" t="n"/>
+      <c r="E195" s="162" t="n"/>
+      <c r="F195" s="162" t="n"/>
       <c r="G195" s="104" t="n"/>
       <c r="H195" s="104" t="n"/>
       <c r="I195" s="105" t="n"/>
@@ -37226,8 +37541,8 @@
       <c r="B196" s="111" t="n"/>
       <c r="C196" s="112" t="n"/>
       <c r="D196" s="106" t="n"/>
-      <c r="E196" s="166" t="n"/>
-      <c r="F196" s="166" t="n"/>
+      <c r="E196" s="162" t="n"/>
+      <c r="F196" s="162" t="n"/>
       <c r="G196" s="104" t="n"/>
       <c r="H196" s="104" t="n"/>
       <c r="I196" s="105" t="n"/>
@@ -37348,8 +37663,8 @@
       <c r="B197" s="111" t="n"/>
       <c r="C197" s="112" t="n"/>
       <c r="D197" s="106" t="n"/>
-      <c r="E197" s="166" t="n"/>
-      <c r="F197" s="166" t="n"/>
+      <c r="E197" s="162" t="n"/>
+      <c r="F197" s="162" t="n"/>
       <c r="G197" s="104" t="n"/>
       <c r="H197" s="104" t="n"/>
       <c r="I197" s="105" t="n"/>
@@ -37470,8 +37785,8 @@
       <c r="B198" s="111" t="n"/>
       <c r="C198" s="112" t="n"/>
       <c r="D198" s="106" t="n"/>
-      <c r="E198" s="166" t="n"/>
-      <c r="F198" s="166" t="n"/>
+      <c r="E198" s="162" t="n"/>
+      <c r="F198" s="162" t="n"/>
       <c r="G198" s="104" t="n"/>
       <c r="H198" s="104" t="n"/>
       <c r="I198" s="105" t="n"/>
@@ -37592,8 +37907,8 @@
       <c r="B199" s="111" t="n"/>
       <c r="C199" s="112" t="n"/>
       <c r="D199" s="106" t="n"/>
-      <c r="E199" s="166" t="n"/>
-      <c r="F199" s="166" t="n"/>
+      <c r="E199" s="162" t="n"/>
+      <c r="F199" s="162" t="n"/>
       <c r="G199" s="104" t="n"/>
       <c r="H199" s="104" t="n"/>
       <c r="I199" s="105" t="n"/>
@@ -37714,8 +38029,8 @@
       <c r="B200" s="111" t="n"/>
       <c r="C200" s="112" t="n"/>
       <c r="D200" s="106" t="n"/>
-      <c r="E200" s="166" t="n"/>
-      <c r="F200" s="166" t="n"/>
+      <c r="E200" s="162" t="n"/>
+      <c r="F200" s="162" t="n"/>
       <c r="G200" s="104" t="n"/>
       <c r="H200" s="104" t="n"/>
       <c r="I200" s="105" t="n"/>
@@ -37836,8 +38151,8 @@
       <c r="B201" s="111" t="n"/>
       <c r="C201" s="112" t="n"/>
       <c r="D201" s="106" t="n"/>
-      <c r="E201" s="166" t="n"/>
-      <c r="F201" s="166" t="n"/>
+      <c r="E201" s="162" t="n"/>
+      <c r="F201" s="162" t="n"/>
       <c r="G201" s="104" t="n"/>
       <c r="H201" s="104" t="n"/>
       <c r="I201" s="105" t="n"/>
@@ -37958,8 +38273,8 @@
       <c r="B202" s="111" t="n"/>
       <c r="C202" s="112" t="n"/>
       <c r="D202" s="106" t="n"/>
-      <c r="E202" s="166" t="n"/>
-      <c r="F202" s="166" t="n"/>
+      <c r="E202" s="162" t="n"/>
+      <c r="F202" s="162" t="n"/>
       <c r="G202" s="104" t="n"/>
       <c r="H202" s="104" t="n"/>
       <c r="I202" s="105" t="n"/>
@@ -38080,8 +38395,8 @@
       <c r="B203" s="111" t="n"/>
       <c r="C203" s="112" t="n"/>
       <c r="D203" s="106" t="n"/>
-      <c r="E203" s="166" t="n"/>
-      <c r="F203" s="166" t="n"/>
+      <c r="E203" s="162" t="n"/>
+      <c r="F203" s="162" t="n"/>
       <c r="G203" s="104" t="n"/>
       <c r="H203" s="104" t="n"/>
       <c r="I203" s="105" t="n"/>
@@ -38202,8 +38517,8 @@
       <c r="B204" s="111" t="n"/>
       <c r="C204" s="112" t="n"/>
       <c r="D204" s="106" t="n"/>
-      <c r="E204" s="166" t="n"/>
-      <c r="F204" s="166" t="n"/>
+      <c r="E204" s="162" t="n"/>
+      <c r="F204" s="162" t="n"/>
       <c r="G204" s="104" t="n"/>
       <c r="H204" s="104" t="n"/>
       <c r="I204" s="105" t="n"/>
@@ -38324,8 +38639,8 @@
       <c r="B205" s="111" t="n"/>
       <c r="C205" s="112" t="n"/>
       <c r="D205" s="106" t="n"/>
-      <c r="E205" s="166" t="n"/>
-      <c r="F205" s="166" t="n"/>
+      <c r="E205" s="162" t="n"/>
+      <c r="F205" s="162" t="n"/>
       <c r="G205" s="104" t="n"/>
       <c r="H205" s="104" t="n"/>
       <c r="I205" s="105" t="n"/>
@@ -38446,8 +38761,8 @@
       <c r="B206" s="111" t="n"/>
       <c r="C206" s="112" t="n"/>
       <c r="D206" s="106" t="n"/>
-      <c r="E206" s="166" t="n"/>
-      <c r="F206" s="166" t="n"/>
+      <c r="E206" s="162" t="n"/>
+      <c r="F206" s="162" t="n"/>
       <c r="G206" s="104" t="n"/>
       <c r="H206" s="104" t="n"/>
       <c r="I206" s="105" t="n"/>
@@ -38568,8 +38883,8 @@
       <c r="B207" s="111" t="n"/>
       <c r="C207" s="112" t="n"/>
       <c r="D207" s="106" t="n"/>
-      <c r="E207" s="166" t="n"/>
-      <c r="F207" s="166" t="n"/>
+      <c r="E207" s="162" t="n"/>
+      <c r="F207" s="162" t="n"/>
       <c r="G207" s="104" t="n"/>
       <c r="H207" s="104" t="n"/>
       <c r="I207" s="105" t="n"/>
@@ -38690,8 +39005,8 @@
       <c r="B208" s="111" t="n"/>
       <c r="C208" s="112" t="n"/>
       <c r="D208" s="106" t="n"/>
-      <c r="E208" s="166" t="n"/>
-      <c r="F208" s="166" t="n"/>
+      <c r="E208" s="162" t="n"/>
+      <c r="F208" s="162" t="n"/>
       <c r="G208" s="104" t="n"/>
       <c r="H208" s="104" t="n"/>
       <c r="I208" s="105" t="n"/>
@@ -38812,8 +39127,8 @@
       <c r="B209" s="111" t="n"/>
       <c r="C209" s="112" t="n"/>
       <c r="D209" s="106" t="n"/>
-      <c r="E209" s="166" t="n"/>
-      <c r="F209" s="166" t="n"/>
+      <c r="E209" s="162" t="n"/>
+      <c r="F209" s="162" t="n"/>
       <c r="G209" s="104" t="n"/>
       <c r="H209" s="104" t="n"/>
       <c r="I209" s="105" t="n"/>
@@ -38934,8 +39249,8 @@
       <c r="B210" s="111" t="n"/>
       <c r="C210" s="112" t="n"/>
       <c r="D210" s="106" t="n"/>
-      <c r="E210" s="166" t="n"/>
-      <c r="F210" s="166" t="n"/>
+      <c r="E210" s="162" t="n"/>
+      <c r="F210" s="162" t="n"/>
       <c r="G210" s="104" t="n"/>
       <c r="H210" s="104" t="n"/>
       <c r="I210" s="105" t="n"/>
@@ -39056,8 +39371,8 @@
       <c r="B211" s="111" t="n"/>
       <c r="C211" s="112" t="n"/>
       <c r="D211" s="106" t="n"/>
-      <c r="E211" s="166" t="n"/>
-      <c r="F211" s="166" t="n"/>
+      <c r="E211" s="162" t="n"/>
+      <c r="F211" s="162" t="n"/>
       <c r="G211" s="104" t="n"/>
       <c r="H211" s="104" t="n"/>
       <c r="I211" s="105" t="n"/>
@@ -39178,8 +39493,8 @@
       <c r="B212" s="111" t="n"/>
       <c r="C212" s="112" t="n"/>
       <c r="D212" s="106" t="n"/>
-      <c r="E212" s="166" t="n"/>
-      <c r="F212" s="166" t="n"/>
+      <c r="E212" s="162" t="n"/>
+      <c r="F212" s="162" t="n"/>
       <c r="G212" s="104" t="n"/>
       <c r="H212" s="104" t="n"/>
       <c r="I212" s="105" t="n"/>
@@ -39300,8 +39615,8 @@
       <c r="B213" s="111" t="n"/>
       <c r="C213" s="112" t="n"/>
       <c r="D213" s="106" t="n"/>
-      <c r="E213" s="166" t="n"/>
-      <c r="F213" s="166" t="n"/>
+      <c r="E213" s="162" t="n"/>
+      <c r="F213" s="162" t="n"/>
       <c r="G213" s="104" t="n"/>
       <c r="H213" s="104" t="n"/>
       <c r="I213" s="105" t="n"/>
@@ -39422,8 +39737,8 @@
       <c r="B214" s="111" t="n"/>
       <c r="C214" s="112" t="n"/>
       <c r="D214" s="106" t="n"/>
-      <c r="E214" s="166" t="n"/>
-      <c r="F214" s="166" t="n"/>
+      <c r="E214" s="162" t="n"/>
+      <c r="F214" s="162" t="n"/>
       <c r="G214" s="104" t="n"/>
       <c r="H214" s="104" t="n"/>
       <c r="I214" s="105" t="n"/>
@@ -39544,8 +39859,8 @@
       <c r="B215" s="111" t="n"/>
       <c r="C215" s="112" t="n"/>
       <c r="D215" s="106" t="n"/>
-      <c r="E215" s="166" t="n"/>
-      <c r="F215" s="166" t="n"/>
+      <c r="E215" s="162" t="n"/>
+      <c r="F215" s="162" t="n"/>
       <c r="G215" s="104" t="n"/>
       <c r="H215" s="104" t="n"/>
       <c r="I215" s="105" t="n"/>
@@ -39666,8 +39981,8 @@
       <c r="B216" s="111" t="n"/>
       <c r="C216" s="112" t="n"/>
       <c r="D216" s="106" t="n"/>
-      <c r="E216" s="166" t="n"/>
-      <c r="F216" s="166" t="n"/>
+      <c r="E216" s="162" t="n"/>
+      <c r="F216" s="162" t="n"/>
       <c r="G216" s="104" t="n"/>
       <c r="H216" s="104" t="n"/>
       <c r="I216" s="105" t="n"/>
@@ -39788,8 +40103,8 @@
       <c r="B217" s="111" t="n"/>
       <c r="C217" s="112" t="n"/>
       <c r="D217" s="106" t="n"/>
-      <c r="E217" s="166" t="n"/>
-      <c r="F217" s="166" t="n"/>
+      <c r="E217" s="162" t="n"/>
+      <c r="F217" s="162" t="n"/>
       <c r="G217" s="104" t="n"/>
       <c r="H217" s="104" t="n"/>
       <c r="I217" s="105" t="n"/>
@@ -39910,8 +40225,8 @@
       <c r="B218" s="111" t="n"/>
       <c r="C218" s="112" t="n"/>
       <c r="D218" s="106" t="n"/>
-      <c r="E218" s="166" t="n"/>
-      <c r="F218" s="166" t="n"/>
+      <c r="E218" s="162" t="n"/>
+      <c r="F218" s="162" t="n"/>
       <c r="G218" s="104" t="n"/>
       <c r="H218" s="104" t="n"/>
       <c r="I218" s="105" t="n"/>
@@ -40032,8 +40347,8 @@
       <c r="B219" s="111" t="n"/>
       <c r="C219" s="112" t="n"/>
       <c r="D219" s="106" t="n"/>
-      <c r="E219" s="166" t="n"/>
-      <c r="F219" s="166" t="n"/>
+      <c r="E219" s="162" t="n"/>
+      <c r="F219" s="162" t="n"/>
       <c r="G219" s="104" t="n"/>
       <c r="H219" s="104" t="n"/>
       <c r="I219" s="105" t="n"/>
@@ -40154,8 +40469,8 @@
       <c r="B220" s="111" t="n"/>
       <c r="C220" s="112" t="n"/>
       <c r="D220" s="106" t="n"/>
-      <c r="E220" s="166" t="n"/>
-      <c r="F220" s="166" t="n"/>
+      <c r="E220" s="162" t="n"/>
+      <c r="F220" s="162" t="n"/>
       <c r="G220" s="104" t="n"/>
       <c r="H220" s="104" t="n"/>
       <c r="I220" s="105" t="n"/>
@@ -40276,8 +40591,8 @@
       <c r="B221" s="111" t="n"/>
       <c r="C221" s="112" t="n"/>
       <c r="D221" s="106" t="n"/>
-      <c r="E221" s="166" t="n"/>
-      <c r="F221" s="166" t="n"/>
+      <c r="E221" s="162" t="n"/>
+      <c r="F221" s="162" t="n"/>
       <c r="G221" s="104" t="n"/>
       <c r="H221" s="104" t="n"/>
       <c r="I221" s="105" t="n"/>
@@ -40398,8 +40713,8 @@
       <c r="B222" s="111" t="n"/>
       <c r="C222" s="112" t="n"/>
       <c r="D222" s="106" t="n"/>
-      <c r="E222" s="166" t="n"/>
-      <c r="F222" s="166" t="n"/>
+      <c r="E222" s="162" t="n"/>
+      <c r="F222" s="162" t="n"/>
       <c r="G222" s="104" t="n"/>
       <c r="H222" s="104" t="n"/>
       <c r="I222" s="105" t="n"/>
@@ -40520,8 +40835,8 @@
       <c r="B223" s="111" t="n"/>
       <c r="C223" s="112" t="n"/>
       <c r="D223" s="106" t="n"/>
-      <c r="E223" s="166" t="n"/>
-      <c r="F223" s="166" t="n"/>
+      <c r="E223" s="162" t="n"/>
+      <c r="F223" s="162" t="n"/>
       <c r="G223" s="104" t="n"/>
       <c r="H223" s="104" t="n"/>
       <c r="I223" s="105" t="n"/>
@@ -40642,8 +40957,8 @@
       <c r="B224" s="111" t="n"/>
       <c r="C224" s="112" t="n"/>
       <c r="D224" s="106" t="n"/>
-      <c r="E224" s="166" t="n"/>
-      <c r="F224" s="166" t="n"/>
+      <c r="E224" s="162" t="n"/>
+      <c r="F224" s="162" t="n"/>
       <c r="G224" s="104" t="n"/>
       <c r="H224" s="104" t="n"/>
       <c r="I224" s="105" t="n"/>
@@ -40764,8 +41079,8 @@
       <c r="B225" s="111" t="n"/>
       <c r="C225" s="112" t="n"/>
       <c r="D225" s="106" t="n"/>
-      <c r="E225" s="166" t="n"/>
-      <c r="F225" s="166" t="n"/>
+      <c r="E225" s="162" t="n"/>
+      <c r="F225" s="162" t="n"/>
       <c r="G225" s="104" t="n"/>
       <c r="H225" s="104" t="n"/>
       <c r="I225" s="105" t="n"/>
@@ -40886,8 +41201,8 @@
       <c r="B226" s="111" t="n"/>
       <c r="C226" s="112" t="n"/>
       <c r="D226" s="106" t="n"/>
-      <c r="E226" s="166" t="n"/>
-      <c r="F226" s="166" t="n"/>
+      <c r="E226" s="162" t="n"/>
+      <c r="F226" s="162" t="n"/>
       <c r="G226" s="104" t="n"/>
       <c r="H226" s="104" t="n"/>
       <c r="I226" s="105" t="n"/>
@@ -41008,8 +41323,8 @@
       <c r="B227" s="111" t="n"/>
       <c r="C227" s="112" t="n"/>
       <c r="D227" s="106" t="n"/>
-      <c r="E227" s="166" t="n"/>
-      <c r="F227" s="166" t="n"/>
+      <c r="E227" s="162" t="n"/>
+      <c r="F227" s="162" t="n"/>
       <c r="G227" s="104" t="n"/>
       <c r="H227" s="104" t="n"/>
       <c r="I227" s="105" t="n"/>
@@ -41130,8 +41445,8 @@
       <c r="B228" s="111" t="n"/>
       <c r="C228" s="112" t="n"/>
       <c r="D228" s="106" t="n"/>
-      <c r="E228" s="166" t="n"/>
-      <c r="F228" s="166" t="n"/>
+      <c r="E228" s="162" t="n"/>
+      <c r="F228" s="162" t="n"/>
       <c r="G228" s="104" t="n"/>
       <c r="H228" s="104" t="n"/>
       <c r="I228" s="105" t="n"/>
@@ -41252,8 +41567,8 @@
       <c r="B229" s="111" t="n"/>
       <c r="C229" s="112" t="n"/>
       <c r="D229" s="106" t="n"/>
-      <c r="E229" s="166" t="n"/>
-      <c r="F229" s="166" t="n"/>
+      <c r="E229" s="162" t="n"/>
+      <c r="F229" s="162" t="n"/>
       <c r="G229" s="104" t="n"/>
       <c r="H229" s="104" t="n"/>
       <c r="I229" s="105" t="n"/>
@@ -41374,8 +41689,8 @@
       <c r="B230" s="111" t="n"/>
       <c r="C230" s="112" t="n"/>
       <c r="D230" s="106" t="n"/>
-      <c r="E230" s="166" t="n"/>
-      <c r="F230" s="166" t="n"/>
+      <c r="E230" s="162" t="n"/>
+      <c r="F230" s="162" t="n"/>
       <c r="G230" s="104" t="n"/>
       <c r="H230" s="104" t="n"/>
       <c r="I230" s="105" t="n"/>
@@ -41496,8 +41811,8 @@
       <c r="B231" s="111" t="n"/>
       <c r="C231" s="112" t="n"/>
       <c r="D231" s="106" t="n"/>
-      <c r="E231" s="166" t="n"/>
-      <c r="F231" s="166" t="n"/>
+      <c r="E231" s="162" t="n"/>
+      <c r="F231" s="162" t="n"/>
       <c r="G231" s="104" t="n"/>
       <c r="H231" s="104" t="n"/>
       <c r="I231" s="105" t="n"/>
@@ -41618,8 +41933,8 @@
       <c r="B232" s="111" t="n"/>
       <c r="C232" s="112" t="n"/>
       <c r="D232" s="106" t="n"/>
-      <c r="E232" s="166" t="n"/>
-      <c r="F232" s="166" t="n"/>
+      <c r="E232" s="162" t="n"/>
+      <c r="F232" s="162" t="n"/>
       <c r="G232" s="104" t="n"/>
       <c r="H232" s="104" t="n"/>
       <c r="I232" s="105" t="n"/>
@@ -41740,8 +42055,8 @@
       <c r="B233" s="111" t="n"/>
       <c r="C233" s="112" t="n"/>
       <c r="D233" s="106" t="n"/>
-      <c r="E233" s="166" t="n"/>
-      <c r="F233" s="166" t="n"/>
+      <c r="E233" s="162" t="n"/>
+      <c r="F233" s="162" t="n"/>
       <c r="G233" s="104" t="n"/>
       <c r="H233" s="104" t="n"/>
       <c r="I233" s="105" t="n"/>
@@ -41862,8 +42177,8 @@
       <c r="B234" s="111" t="n"/>
       <c r="C234" s="112" t="n"/>
       <c r="D234" s="106" t="n"/>
-      <c r="E234" s="166" t="n"/>
-      <c r="F234" s="166" t="n"/>
+      <c r="E234" s="162" t="n"/>
+      <c r="F234" s="162" t="n"/>
       <c r="G234" s="104" t="n"/>
       <c r="H234" s="104" t="n"/>
       <c r="I234" s="105" t="n"/>
@@ -41984,8 +42299,8 @@
       <c r="B235" s="111" t="n"/>
       <c r="C235" s="112" t="n"/>
       <c r="D235" s="106" t="n"/>
-      <c r="E235" s="166" t="n"/>
-      <c r="F235" s="166" t="n"/>
+      <c r="E235" s="162" t="n"/>
+      <c r="F235" s="162" t="n"/>
       <c r="G235" s="104" t="n"/>
       <c r="H235" s="104" t="n"/>
       <c r="I235" s="105" t="n"/>
@@ -42100,6 +42415,128 @@
       <c r="DN235" s="105" t="n"/>
       <c r="DO235" s="105" t="n"/>
       <c r="DP235" s="105" t="n"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="26" t="n"/>
+      <c r="B236" s="111" t="n"/>
+      <c r="C236" s="112" t="n"/>
+      <c r="D236" s="106" t="n"/>
+      <c r="E236" s="162" t="n"/>
+      <c r="F236" s="162" t="n"/>
+      <c r="G236" s="104" t="n"/>
+      <c r="H236" s="104" t="n"/>
+      <c r="I236" s="105" t="n"/>
+      <c r="J236" s="105" t="n"/>
+      <c r="K236" s="105" t="n"/>
+      <c r="L236" s="105" t="n"/>
+      <c r="M236" s="105" t="n"/>
+      <c r="N236" s="105" t="n"/>
+      <c r="O236" s="105" t="n"/>
+      <c r="P236" s="105" t="n"/>
+      <c r="Q236" s="105" t="n"/>
+      <c r="R236" s="105" t="n"/>
+      <c r="S236" s="105" t="n"/>
+      <c r="T236" s="105" t="n"/>
+      <c r="U236" s="105" t="n"/>
+      <c r="V236" s="105" t="n"/>
+      <c r="W236" s="105" t="n"/>
+      <c r="X236" s="105" t="n"/>
+      <c r="Y236" s="105" t="n"/>
+      <c r="Z236" s="105" t="n"/>
+      <c r="AA236" s="105" t="n"/>
+      <c r="AB236" s="105" t="n"/>
+      <c r="AC236" s="105" t="n"/>
+      <c r="AD236" s="105" t="n"/>
+      <c r="AE236" s="105" t="n"/>
+      <c r="AF236" s="105" t="n"/>
+      <c r="AG236" s="105" t="n"/>
+      <c r="AH236" s="105" t="n"/>
+      <c r="AI236" s="105" t="n"/>
+      <c r="AJ236" s="105" t="n"/>
+      <c r="AK236" s="105" t="n"/>
+      <c r="AL236" s="105" t="n"/>
+      <c r="AM236" s="105" t="n"/>
+      <c r="AN236" s="105" t="n"/>
+      <c r="AO236" s="105" t="n"/>
+      <c r="AP236" s="105" t="n"/>
+      <c r="AQ236" s="105" t="n"/>
+      <c r="AR236" s="105" t="n"/>
+      <c r="AS236" s="105" t="n"/>
+      <c r="AT236" s="105" t="n"/>
+      <c r="AU236" s="105" t="n"/>
+      <c r="AV236" s="105" t="n"/>
+      <c r="AW236" s="105" t="n"/>
+      <c r="AX236" s="105" t="n"/>
+      <c r="AY236" s="105" t="n"/>
+      <c r="AZ236" s="105" t="n"/>
+      <c r="BA236" s="105" t="n"/>
+      <c r="BB236" s="105" t="n"/>
+      <c r="BC236" s="105" t="n"/>
+      <c r="BD236" s="105" t="n"/>
+      <c r="BE236" s="105" t="n"/>
+      <c r="BF236" s="105" t="n"/>
+      <c r="BG236" s="105" t="n"/>
+      <c r="BH236" s="105" t="n"/>
+      <c r="BI236" s="105" t="n"/>
+      <c r="BJ236" s="105" t="n"/>
+      <c r="BK236" s="105" t="n"/>
+      <c r="BL236" s="105" t="n"/>
+      <c r="BM236" s="105" t="n"/>
+      <c r="BN236" s="105" t="n"/>
+      <c r="BO236" s="105" t="n"/>
+      <c r="BP236" s="105" t="n"/>
+      <c r="BQ236" s="105" t="n"/>
+      <c r="BR236" s="105" t="n"/>
+      <c r="BS236" s="105" t="n"/>
+      <c r="BT236" s="105" t="n"/>
+      <c r="BU236" s="105" t="n"/>
+      <c r="BV236" s="105" t="n"/>
+      <c r="BW236" s="105" t="n"/>
+      <c r="BX236" s="105" t="n"/>
+      <c r="BY236" s="105" t="n"/>
+      <c r="BZ236" s="105" t="n"/>
+      <c r="CA236" s="105" t="n"/>
+      <c r="CB236" s="105" t="n"/>
+      <c r="CC236" s="105" t="n"/>
+      <c r="CD236" s="105" t="n"/>
+      <c r="CE236" s="105" t="n"/>
+      <c r="CF236" s="105" t="n"/>
+      <c r="CG236" s="105" t="n"/>
+      <c r="CH236" s="105" t="n"/>
+      <c r="CI236" s="105" t="n"/>
+      <c r="CJ236" s="105" t="n"/>
+      <c r="CK236" s="105" t="n"/>
+      <c r="CL236" s="105" t="n"/>
+      <c r="CM236" s="105" t="n"/>
+      <c r="CN236" s="105" t="n"/>
+      <c r="CO236" s="105" t="n"/>
+      <c r="CP236" s="105" t="n"/>
+      <c r="CQ236" s="105" t="n"/>
+      <c r="CR236" s="105" t="n"/>
+      <c r="CS236" s="105" t="n"/>
+      <c r="CT236" s="105" t="n"/>
+      <c r="CU236" s="105" t="n"/>
+      <c r="CV236" s="105" t="n"/>
+      <c r="CW236" s="105" t="n"/>
+      <c r="CX236" s="105" t="n"/>
+      <c r="CY236" s="105" t="n"/>
+      <c r="CZ236" s="105" t="n"/>
+      <c r="DA236" s="105" t="n"/>
+      <c r="DB236" s="105" t="n"/>
+      <c r="DC236" s="105" t="n"/>
+      <c r="DD236" s="105" t="n"/>
+      <c r="DE236" s="105" t="n"/>
+      <c r="DF236" s="105" t="n"/>
+      <c r="DG236" s="105" t="n"/>
+      <c r="DH236" s="105" t="n"/>
+      <c r="DI236" s="105" t="n"/>
+      <c r="DJ236" s="105" t="n"/>
+      <c r="DK236" s="105" t="n"/>
+      <c r="DL236" s="105" t="n"/>
+      <c r="DM236" s="105" t="n"/>
+      <c r="DN236" s="105" t="n"/>
+      <c r="DO236" s="105" t="n"/>
+      <c r="DP236" s="105" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
